--- a/data-result/flight-result-segment.xlsx
+++ b/data-result/flight-result-segment.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD6CAC-A5E0-3446-B20C-F325973C8E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88328EA-262B-1C44-8ABD-5CC2FAAA5A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="15500" activeTab="4" xr2:uid="{1F2A6636-F2B4-D94A-95E1-54753800CFD8}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="15500" activeTab="2" xr2:uid="{1F2A6636-F2B4-D94A-95E1-54753800CFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="flights_sta" sheetId="2" r:id="rId1"/>
     <sheet name="flights" sheetId="1" r:id="rId2"/>
-    <sheet name="cattle" sheetId="3" r:id="rId3"/>
-    <sheet name="data" sheetId="4" r:id="rId4"/>
-    <sheet name="data-points" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="standing-cattle" sheetId="3" r:id="rId3"/>
+    <sheet name="standing-flat" sheetId="4" r:id="rId4"/>
+    <sheet name="flights-points" sheetId="6" r:id="rId5"/>
+    <sheet name="environment" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="348">
   <si>
     <t>velocity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1642,6 +1643,155 @@
     <t>points</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>8-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max(×1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(×1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moisture(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Wind-speed (m/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从直到扭头挠痒，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臀没了，movement 待确定？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点特别少，慎用尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连着牛了需要过滤  done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭头角度大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点云效果不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用filterground 得到结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55 z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有矮墙没去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭头点没有全部消除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背弯曲  不取 删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点少 注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动噪音大  不取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有噪音 注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点云散乱，需要注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动噪声过滤不掉？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噪声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过滤地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴平 背弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有竖栅栏连着  不要紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头连着一个卧的牛臀 done  不过滤地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连着栅栏需要处理 done 3次平面过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要过滤，另外一个牛 done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1652,7 +1802,7 @@
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1742,6 +1892,44 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF70AD47"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1947,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2275,6 +2463,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2350,118 +2667,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2790,20 +2999,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="25" customHeight="1">
-      <c r="B1" s="114"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="109" t="s">
+      <c r="B1" s="157"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="154"/>
     </row>
     <row r="2" spans="2:9" ht="25" customHeight="1">
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="160"/>
       <c r="D2" s="5">
         <v>1</v>
       </c>
@@ -2824,7 +3033,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="25" customHeight="1">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="155" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5">
@@ -2850,7 +3059,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="25" customHeight="1">
-      <c r="B4" s="113"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="5">
         <v>10</v>
       </c>
@@ -2874,7 +3083,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="25" customHeight="1">
-      <c r="B5" s="113"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="5">
         <v>15</v>
       </c>
@@ -2898,7 +3107,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="25" customHeight="1">
-      <c r="B6" s="113"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="5">
         <v>30</v>
       </c>
@@ -2922,7 +3131,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="25" customHeight="1">
-      <c r="B7" s="113"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="5">
         <v>50</v>
       </c>
@@ -2960,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205A50B-3692-CE4C-9FBA-528FD68D4826}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A15" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2990,94 +3199,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
     </row>
     <row r="2" spans="1:23" ht="20">
       <c r="D2"/>
-      <c r="R2" s="109" t="s">
+      <c r="R2" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="109" t="s">
+      <c r="E3" s="167"/>
+      <c r="F3" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="121" t="s">
+      <c r="H3" s="154"/>
+      <c r="I3" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="122"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="122" t="s">
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="109" t="s">
+      <c r="M3" s="165"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="109" t="s">
+      <c r="P3" s="153"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="111"/>
-      <c r="T3" s="118" t="s">
+      <c r="S3" s="154"/>
+      <c r="T3" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="118" t="s">
+      <c r="U3" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="118" t="s">
+      <c r="V3" s="161" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A4" s="126"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="126"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="3">
         <v>44935</v>
       </c>
       <c r="E4" s="3">
         <v>44934</v>
       </c>
-      <c r="F4" s="125"/>
+      <c r="F4" s="168"/>
       <c r="G4" s="3" t="s">
         <v>53</v>
       </c>
@@ -3117,17 +3326,17 @@
       <c r="S4" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="119" t="s">
+      <c r="T4" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
+      <c r="U4" s="162"/>
+      <c r="V4" s="162"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="87">
         <v>0.48541666666666666</v>
       </c>
-      <c r="B5" s="127">
+      <c r="B5" s="170">
         <v>8</v>
       </c>
       <c r="C5" s="29">
@@ -3192,7 +3401,7 @@
       <c r="A6" s="88">
         <v>0.47500000000000003</v>
       </c>
-      <c r="B6" s="128"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="21">
         <v>1</v>
       </c>
@@ -3254,7 +3463,7 @@
       <c r="A7" s="87">
         <v>0.47847222222222219</v>
       </c>
-      <c r="B7" s="128"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="8">
         <v>2</v>
       </c>
@@ -3317,7 +3526,7 @@
       <c r="A8" s="87">
         <v>0.48055555555555557</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="11">
         <v>3</v>
       </c>
@@ -3380,7 +3589,7 @@
       <c r="A9" s="87">
         <v>0.48333333333333334</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="8">
         <v>5</v>
       </c>
@@ -3439,7 +3648,7 @@
       <c r="A10" s="88">
         <v>0.55833333333333335</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="8">
         <v>7</v>
       </c>
@@ -3501,7 +3710,7 @@
       <c r="A11" s="87">
         <v>0.56041666666666667</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="29">
         <v>7</v>
       </c>
@@ -3563,7 +3772,7 @@
       <c r="A12" s="88">
         <v>0.5541666666666667</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="11">
         <v>9</v>
       </c>
@@ -3625,7 +3834,7 @@
       <c r="A13" s="87">
         <v>0.55555555555555558</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="29">
         <v>9</v>
       </c>
@@ -3683,7 +3892,7 @@
       <c r="A14" s="87">
         <v>0.45277777777777778</v>
       </c>
-      <c r="B14" s="127">
+      <c r="B14" s="170">
         <v>10</v>
       </c>
       <c r="C14" s="29">
@@ -3747,7 +3956,7 @@
       <c r="A15" s="87">
         <v>0.46388888888888885</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="8">
         <v>2</v>
       </c>
@@ -3809,7 +4018,7 @@
       <c r="A16" s="87">
         <v>0.46597222222222223</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="8">
         <v>3</v>
       </c>
@@ -3873,7 +4082,7 @@
       <c r="A17" s="87">
         <v>0.46875</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="8">
         <v>5</v>
       </c>
@@ -3937,7 +4146,7 @@
       <c r="A18" s="88">
         <v>0.57638888888888895</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="8">
         <v>7</v>
       </c>
@@ -4001,7 +4210,7 @@
       <c r="A19" s="88">
         <v>0.57847222222222217</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="8">
         <v>9</v>
       </c>
@@ -4065,7 +4274,7 @@
       <c r="A20" s="87">
         <v>0.44930555555555557</v>
       </c>
-      <c r="B20" s="127">
+      <c r="B20" s="170">
         <v>15</v>
       </c>
       <c r="C20" s="8">
@@ -4131,7 +4340,7 @@
       <c r="A21" s="87">
         <v>0.44375000000000003</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="171"/>
       <c r="C21" s="8">
         <v>1</v>
       </c>
@@ -4195,7 +4404,7 @@
       <c r="A22" s="87">
         <v>0.4381944444444445</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="8">
         <v>2</v>
       </c>
@@ -4259,7 +4468,7 @@
       <c r="A23" s="87">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B23" s="128"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="8">
         <v>3</v>
       </c>
@@ -4323,7 +4532,7 @@
       <c r="A24" s="87">
         <v>0.44305555555555554</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="171"/>
       <c r="C24" s="8">
         <v>5</v>
       </c>
@@ -4387,7 +4596,7 @@
       <c r="A25" s="88">
         <v>0.58124999999999993</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="171"/>
       <c r="C25" s="8">
         <v>7</v>
       </c>
@@ -4449,7 +4658,7 @@
       <c r="A26" s="88">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B26" s="129"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="8">
         <v>9</v>
       </c>
@@ -4513,7 +4722,7 @@
       <c r="A27" s="88">
         <v>0.59166666666666667</v>
       </c>
-      <c r="B27" s="111">
+      <c r="B27" s="154">
         <v>30</v>
       </c>
       <c r="C27" s="29">
@@ -4579,7 +4788,7 @@
       <c r="A28" s="88">
         <v>0.59513888888888888</v>
       </c>
-      <c r="B28" s="111"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="8">
         <v>2</v>
       </c>
@@ -4643,7 +4852,7 @@
       <c r="A29" s="87">
         <v>0.5625</v>
       </c>
-      <c r="B29" s="111"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="8">
         <v>3</v>
       </c>
@@ -4707,7 +4916,7 @@
       <c r="A30" s="87">
         <v>0.56458333333333333</v>
       </c>
-      <c r="B30" s="111"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="8">
         <v>5</v>
       </c>
@@ -4771,7 +4980,7 @@
       <c r="A31" s="87">
         <v>0.56736111111111109</v>
       </c>
-      <c r="B31" s="111"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="8">
         <v>7</v>
       </c>
@@ -4835,7 +5044,7 @@
       <c r="A32" s="87">
         <v>0.56944444444444442</v>
       </c>
-      <c r="B32" s="111"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="8">
         <v>9</v>
       </c>
@@ -4899,7 +5108,7 @@
       <c r="A33" s="88">
         <v>0.59791666666666665</v>
       </c>
-      <c r="B33" s="111">
+      <c r="B33" s="154">
         <v>50</v>
       </c>
       <c r="C33" s="8">
@@ -4965,7 +5174,7 @@
       <c r="A34" s="88">
         <v>0.6020833333333333</v>
       </c>
-      <c r="B34" s="111"/>
+      <c r="B34" s="154"/>
       <c r="C34" s="8">
         <v>2</v>
       </c>
@@ -5029,7 +5238,7 @@
       <c r="A35" s="87">
         <v>0.57152777777777775</v>
       </c>
-      <c r="B35" s="111"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="8">
         <v>3</v>
       </c>
@@ -5093,7 +5302,7 @@
       <c r="A36" s="87">
         <v>0.57430555555555551</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="154"/>
       <c r="C36" s="8">
         <v>5</v>
       </c>
@@ -5157,7 +5366,7 @@
       <c r="A37" s="87">
         <v>0.57638888888888895</v>
       </c>
-      <c r="B37" s="111"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="8">
         <v>7</v>
       </c>
@@ -5221,7 +5430,7 @@
       <c r="A38" s="89">
         <v>0.57847222222222217</v>
       </c>
-      <c r="B38" s="111"/>
+      <c r="B38" s="154"/>
       <c r="C38" s="8">
         <v>9</v>
       </c>
@@ -5376,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F50920-10AA-FA43-834E-62930F0FDD71}">
   <dimension ref="A1:M364"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="99" workbookViewId="0">
+      <selection activeCell="M373" sqref="M373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5386,15 +5595,16 @@
     <col min="9" max="9" width="29.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="2"/>
     <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="F1" s="133" t="s">
+    <row r="1" spans="1:13">
+      <c r="F1" s="176" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="133"/>
-    </row>
-    <row r="2" spans="1:11" ht="20">
+      <c r="G1" s="176"/>
+    </row>
+    <row r="2" spans="1:13" ht="20">
       <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
@@ -5428,15 +5638,18 @@
       <c r="K2" s="90" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="131">
+      <c r="M2" s="177" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="174">
         <v>62</v>
       </c>
-      <c r="B3" s="131">
+      <c r="B3" s="174">
         <v>7</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="67">
@@ -5455,10 +5668,10 @@
       </c>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="1:11" ht="17" customHeight="1">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
+    <row r="4" spans="1:13" ht="17" customHeight="1">
+      <c r="A4" s="175"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="2">
         <v>5</v>
       </c>
@@ -5469,10 +5682,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="175"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="2">
         <v>6</v>
       </c>
@@ -5483,13 +5696,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="132"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="132">
+      <c r="D6" s="175">
         <v>0</v>
       </c>
       <c r="E6" s="2">
@@ -5504,15 +5717,15 @@
       <c r="H6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="163" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="132"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="175"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="2">
         <v>1</v>
       </c>
@@ -5525,7 +5738,7 @@
       <c r="H7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="120"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="2">
         <v>0.03</v>
       </c>
@@ -5533,10 +5746,10 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="132"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="175"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="2">
         <v>4</v>
       </c>
@@ -5553,10 +5766,10 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="27">
         <v>8</v>
       </c>
@@ -5576,14 +5789,14 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="131">
+    <row r="10" spans="1:13">
+      <c r="A10" s="174">
         <v>58</v>
       </c>
-      <c r="B10" s="131">
+      <c r="B10" s="174">
         <v>9</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="67">
@@ -5602,10 +5815,10 @@
       </c>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="132"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="175"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="2">
         <v>3</v>
       </c>
@@ -5616,10 +5829,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="175"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="2">
         <v>6</v>
       </c>
@@ -5630,10 +5843,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="132"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="175"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="2">
         <v>7</v>
       </c>
@@ -5644,10 +5857,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="175"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="2">
         <v>9</v>
       </c>
@@ -5661,10 +5874,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="175"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="2">
         <v>11</v>
       </c>
@@ -5678,10 +5891,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="175"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="2">
@@ -5703,10 +5916,10 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="175"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="2">
         <v>5</v>
       </c>
@@ -5723,10 +5936,10 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="132"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="132"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="2">
         <v>8</v>
       </c>
@@ -5749,14 +5962,14 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="131">
+    <row r="19" spans="1:13">
+      <c r="A19" s="174">
         <v>59</v>
       </c>
-      <c r="B19" s="131">
+      <c r="B19" s="174">
         <v>7</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="67">
@@ -5774,10 +5987,10 @@
       <c r="J19" s="67"/>
       <c r="K19" s="91"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="132"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="175"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="2">
         <v>4</v>
       </c>
@@ -5791,10 +6004,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="175"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="2">
         <v>5</v>
       </c>
@@ -5805,10 +6018,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="175"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="2">
         <v>7</v>
       </c>
@@ -5819,10 +6032,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="132"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="175"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="175"/>
       <c r="D23" s="2">
         <v>9</v>
       </c>
@@ -5836,10 +6049,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="132"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="175"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="2">
         <v>10</v>
       </c>
@@ -5853,9 +6066,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="133"/>
-      <c r="B25" s="133"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="176"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="27" t="s">
         <v>116</v>
       </c>
@@ -5879,15 +6092,18 @@
       <c r="K25" s="57">
         <v>4000</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="131">
+      <c r="M25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="174">
         <v>60</v>
       </c>
-      <c r="B26" s="131">
+      <c r="B26" s="174">
         <v>6</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D26" s="67">
@@ -5907,10 +6123,10 @@
       <c r="J26" s="67"/>
       <c r="K26" s="91"/>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="175"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="2">
         <v>5</v>
       </c>
@@ -5924,10 +6140,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="175"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="2">
         <v>7</v>
       </c>
@@ -5938,10 +6154,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="132"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="175"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="2">
         <v>9</v>
       </c>
@@ -5952,10 +6168,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="132"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="175"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D30" s="2">
@@ -5979,11 +6195,14 @@
       <c r="K30">
         <v>4000</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="133"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
+      <c r="M30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="176"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="27">
         <v>6</v>
       </c>
@@ -6005,14 +6224,14 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="131">
+    <row r="32" spans="1:13">
+      <c r="A32" s="174">
         <v>61</v>
       </c>
-      <c r="B32" s="131">
+      <c r="B32" s="174">
         <v>8</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D32" s="67">
@@ -6032,10 +6251,10 @@
       <c r="J32" s="67"/>
       <c r="K32" s="91"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="175"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="2">
         <v>2</v>
       </c>
@@ -6049,10 +6268,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="175"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
       <c r="D34" s="2">
         <v>3</v>
       </c>
@@ -6066,10 +6285,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
+    <row r="35" spans="1:13">
+      <c r="A35" s="175"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="2">
         <v>4</v>
       </c>
@@ -6079,11 +6298,14 @@
       <c r="G35" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
+      <c r="M35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="175"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="2">
         <v>6</v>
       </c>
@@ -6094,10 +6316,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="175"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="175"/>
       <c r="D37" s="2">
         <v>7</v>
       </c>
@@ -6108,10 +6330,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="132"/>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
+    <row r="38" spans="1:13">
+      <c r="A38" s="175"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="175"/>
       <c r="D38" s="2">
         <v>10</v>
       </c>
@@ -6125,10 +6347,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="133"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
+      <c r="C39" s="176"/>
       <c r="D39" s="27">
         <v>11</v>
       </c>
@@ -6146,14 +6368,14 @@
       <c r="J39" s="27"/>
       <c r="K39" s="57"/>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="131">
+    <row r="40" spans="1:13">
+      <c r="A40" s="174">
         <v>33</v>
       </c>
-      <c r="B40" s="131">
+      <c r="B40" s="174">
         <v>21</v>
       </c>
-      <c r="C40" s="131" t="s">
+      <c r="C40" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="67">
@@ -6173,10 +6395,10 @@
       <c r="J40" s="67"/>
       <c r="K40" s="91"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="132"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="175"/>
+      <c r="B41" s="175"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="2">
         <v>1</v>
       </c>
@@ -6190,10 +6412,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="132"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
+    <row r="42" spans="1:13">
+      <c r="A42" s="175"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="2">
         <v>2</v>
       </c>
@@ -6207,10 +6429,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="132"/>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
+    <row r="43" spans="1:13">
+      <c r="A43" s="175"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="2">
         <v>4</v>
       </c>
@@ -6224,10 +6446,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="132"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
+    <row r="44" spans="1:13">
+      <c r="A44" s="175"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="2">
         <v>5</v>
       </c>
@@ -6238,10 +6460,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="132"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
+    <row r="45" spans="1:13">
+      <c r="A45" s="175"/>
+      <c r="B45" s="175"/>
+      <c r="C45" s="175"/>
       <c r="D45" s="2">
         <v>6</v>
       </c>
@@ -6252,10 +6474,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="132"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
+    <row r="46" spans="1:13">
+      <c r="A46" s="175"/>
+      <c r="B46" s="175"/>
+      <c r="C46" s="175"/>
       <c r="D46" s="2">
         <v>7</v>
       </c>
@@ -6266,10 +6488,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="132"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
+    <row r="47" spans="1:13">
+      <c r="A47" s="175"/>
+      <c r="B47" s="175"/>
+      <c r="C47" s="175"/>
       <c r="D47" s="2">
         <v>10</v>
       </c>
@@ -6283,10 +6505,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="132"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
+    <row r="48" spans="1:13">
+      <c r="A48" s="175"/>
+      <c r="B48" s="175"/>
+      <c r="C48" s="175"/>
       <c r="D48" s="2">
         <v>11</v>
       </c>
@@ -6298,9 +6520,9 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="132"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="132"/>
+      <c r="A49" s="175"/>
+      <c r="B49" s="175"/>
+      <c r="C49" s="175"/>
       <c r="D49" s="2">
         <v>12</v>
       </c>
@@ -6315,9 +6537,9 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="132"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
+      <c r="A50" s="175"/>
+      <c r="B50" s="175"/>
+      <c r="C50" s="175"/>
       <c r="D50" s="2">
         <v>13</v>
       </c>
@@ -6329,9 +6551,9 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="132"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="132"/>
+      <c r="A51" s="175"/>
+      <c r="B51" s="175"/>
+      <c r="C51" s="175"/>
       <c r="D51" s="2">
         <v>14</v>
       </c>
@@ -6346,9 +6568,9 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="132"/>
-      <c r="B52" s="132"/>
-      <c r="C52" s="132"/>
+      <c r="A52" s="175"/>
+      <c r="B52" s="175"/>
+      <c r="C52" s="175"/>
       <c r="D52" s="2">
         <v>15</v>
       </c>
@@ -6363,9 +6585,9 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="132"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="132"/>
+      <c r="A53" s="175"/>
+      <c r="B53" s="175"/>
+      <c r="C53" s="175"/>
       <c r="D53" s="2">
         <v>16</v>
       </c>
@@ -6380,9 +6602,9 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="132"/>
-      <c r="B54" s="132"/>
-      <c r="C54" s="132"/>
+      <c r="A54" s="175"/>
+      <c r="B54" s="175"/>
+      <c r="C54" s="175"/>
       <c r="D54" s="2">
         <v>17</v>
       </c>
@@ -6397,9 +6619,9 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="132"/>
-      <c r="B55" s="132"/>
-      <c r="C55" s="132" t="s">
+      <c r="A55" s="175"/>
+      <c r="B55" s="175"/>
+      <c r="C55" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D55" s="2">
@@ -6410,9 +6632,9 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="132"/>
-      <c r="B56" s="132"/>
-      <c r="C56" s="132"/>
+      <c r="A56" s="175"/>
+      <c r="B56" s="175"/>
+      <c r="C56" s="175"/>
       <c r="D56" s="2">
         <v>8</v>
       </c>
@@ -6427,9 +6649,9 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="133"/>
-      <c r="B57" s="133"/>
-      <c r="C57" s="133"/>
+      <c r="A57" s="176"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="176"/>
       <c r="D57" s="27">
         <v>9</v>
       </c>
@@ -6442,13 +6664,13 @@
       <c r="K57" s="57"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="131">
+      <c r="A58" s="174">
         <v>31</v>
       </c>
-      <c r="B58" s="131">
+      <c r="B58" s="174">
         <v>15</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D58" s="67">
@@ -6469,9 +6691,9 @@
       <c r="K58" s="91"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="132"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
+      <c r="A59" s="175"/>
+      <c r="B59" s="175"/>
+      <c r="C59" s="175"/>
       <c r="D59" s="2">
         <v>1</v>
       </c>
@@ -6486,9 +6708,9 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="132"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
+      <c r="A60" s="175"/>
+      <c r="B60" s="175"/>
+      <c r="C60" s="175"/>
       <c r="D60" s="2">
         <v>2</v>
       </c>
@@ -6500,9 +6722,9 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="132"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="132"/>
+      <c r="A61" s="175"/>
+      <c r="B61" s="175"/>
+      <c r="C61" s="175"/>
       <c r="D61" s="2">
         <v>3</v>
       </c>
@@ -6514,9 +6736,9 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="132"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
+      <c r="A62" s="175"/>
+      <c r="B62" s="175"/>
+      <c r="C62" s="175"/>
       <c r="D62" s="2">
         <v>4</v>
       </c>
@@ -6531,9 +6753,9 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="132"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="132"/>
+      <c r="A63" s="175"/>
+      <c r="B63" s="175"/>
+      <c r="C63" s="175"/>
       <c r="D63" s="2">
         <v>5</v>
       </c>
@@ -6545,9 +6767,9 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="132"/>
-      <c r="B64" s="132"/>
-      <c r="C64" s="132"/>
+      <c r="A64" s="175"/>
+      <c r="B64" s="175"/>
+      <c r="C64" s="175"/>
       <c r="D64" s="2">
         <v>6</v>
       </c>
@@ -6558,10 +6780,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="132"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="132"/>
+    <row r="65" spans="1:13">
+      <c r="A65" s="175"/>
+      <c r="B65" s="175"/>
+      <c r="C65" s="175"/>
       <c r="D65" s="2">
         <v>7</v>
       </c>
@@ -6575,10 +6797,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="132"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
+    <row r="66" spans="1:13">
+      <c r="A66" s="175"/>
+      <c r="B66" s="175"/>
+      <c r="C66" s="175"/>
       <c r="D66" s="2">
         <v>8</v>
       </c>
@@ -6592,10 +6814,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="132"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="132"/>
+    <row r="67" spans="1:13">
+      <c r="A67" s="175"/>
+      <c r="B67" s="175"/>
+      <c r="C67" s="175"/>
       <c r="D67" s="2">
         <v>9</v>
       </c>
@@ -6606,10 +6828,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="132"/>
-      <c r="B68" s="132"/>
-      <c r="C68" s="132"/>
+    <row r="68" spans="1:13">
+      <c r="A68" s="175"/>
+      <c r="B68" s="175"/>
+      <c r="C68" s="175"/>
       <c r="D68" s="2">
         <v>10</v>
       </c>
@@ -6619,11 +6841,14 @@
       <c r="G68" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="132"/>
-      <c r="B69" s="132"/>
-      <c r="C69" s="132"/>
+      <c r="M68" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="175"/>
+      <c r="B69" s="175"/>
+      <c r="C69" s="175"/>
       <c r="D69" s="2">
         <v>11</v>
       </c>
@@ -6637,10 +6862,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="132"/>
-      <c r="B70" s="132"/>
-      <c r="C70" s="132"/>
+    <row r="70" spans="1:13">
+      <c r="A70" s="175"/>
+      <c r="B70" s="175"/>
+      <c r="C70" s="175"/>
       <c r="D70" s="2">
         <v>12</v>
       </c>
@@ -6654,10 +6879,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="132"/>
-      <c r="B71" s="132"/>
-      <c r="C71" s="132"/>
+    <row r="71" spans="1:13">
+      <c r="A71" s="175"/>
+      <c r="B71" s="175"/>
+      <c r="C71" s="175"/>
       <c r="D71" s="2">
         <v>13</v>
       </c>
@@ -6667,11 +6892,14 @@
       <c r="G71" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="133"/>
-      <c r="B72" s="133"/>
-      <c r="C72" s="133"/>
+      <c r="M71" s="103" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="176"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="176"/>
       <c r="D72" s="27">
         <v>14</v>
       </c>
@@ -6680,21 +6908,23 @@
         <v>107</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H72" s="27"/>
-      <c r="I72" s="57"/>
+      <c r="I72" s="178" t="s">
+        <v>320</v>
+      </c>
       <c r="J72" s="27"/>
       <c r="K72" s="57"/>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="131">
+    <row r="73" spans="1:13">
+      <c r="A73" s="174">
         <v>54</v>
       </c>
-      <c r="B73" s="131">
+      <c r="B73" s="174">
         <v>10</v>
       </c>
-      <c r="C73" s="131" t="s">
+      <c r="C73" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D73" s="67">
@@ -6714,10 +6944,10 @@
       <c r="J73" s="67"/>
       <c r="K73" s="91"/>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="132"/>
-      <c r="B74" s="132"/>
-      <c r="C74" s="132"/>
+    <row r="74" spans="1:13">
+      <c r="A74" s="175"/>
+      <c r="B74" s="175"/>
+      <c r="C74" s="175"/>
       <c r="D74" s="2">
         <v>5</v>
       </c>
@@ -6731,10 +6961,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="132"/>
-      <c r="B75" s="132"/>
-      <c r="C75" s="132"/>
+    <row r="75" spans="1:13">
+      <c r="A75" s="175"/>
+      <c r="B75" s="175"/>
+      <c r="C75" s="175"/>
       <c r="D75" s="2">
         <v>6</v>
       </c>
@@ -6748,10 +6978,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="132"/>
-      <c r="B76" s="132"/>
-      <c r="C76" s="132"/>
+    <row r="76" spans="1:13">
+      <c r="A76" s="175"/>
+      <c r="B76" s="175"/>
+      <c r="C76" s="175"/>
       <c r="D76" s="2">
         <v>7</v>
       </c>
@@ -6762,10 +6992,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="132"/>
-      <c r="B77" s="132"/>
-      <c r="C77" s="132"/>
+    <row r="77" spans="1:13">
+      <c r="A77" s="175"/>
+      <c r="B77" s="175"/>
+      <c r="C77" s="175"/>
       <c r="D77" s="2">
         <v>10</v>
       </c>
@@ -6776,10 +7006,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="132"/>
-      <c r="B78" s="132"/>
-      <c r="C78" s="132"/>
+    <row r="78" spans="1:13">
+      <c r="A78" s="175"/>
+      <c r="B78" s="175"/>
+      <c r="C78" s="175"/>
       <c r="D78" s="2">
         <v>11</v>
       </c>
@@ -6789,11 +7019,14 @@
       <c r="G78" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="132"/>
-      <c r="B79" s="132"/>
-      <c r="C79" s="132"/>
+      <c r="M78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="175"/>
+      <c r="B79" s="175"/>
+      <c r="C79" s="175"/>
       <c r="D79" s="2">
         <v>12</v>
       </c>
@@ -6803,11 +7036,14 @@
       <c r="G79" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="132"/>
-      <c r="B80" s="132"/>
-      <c r="C80" s="132"/>
+      <c r="M79" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="175"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="175"/>
       <c r="D80" s="2">
         <v>13</v>
       </c>
@@ -6821,10 +7057,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="132"/>
-      <c r="B81" s="132"/>
-      <c r="C81" s="132" t="s">
+    <row r="81" spans="1:13">
+      <c r="A81" s="175"/>
+      <c r="B81" s="175"/>
+      <c r="C81" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D81" s="2">
@@ -6843,10 +7079,10 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="133"/>
-      <c r="B82" s="133"/>
-      <c r="C82" s="133"/>
+    <row r="82" spans="1:13">
+      <c r="A82" s="176"/>
+      <c r="B82" s="176"/>
+      <c r="C82" s="176"/>
       <c r="D82" s="27">
         <v>8</v>
       </c>
@@ -6868,14 +7104,14 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="131">
+    <row r="83" spans="1:13">
+      <c r="A83" s="174">
         <v>55</v>
       </c>
-      <c r="B83" s="131">
+      <c r="B83" s="174">
         <v>8</v>
       </c>
-      <c r="C83" s="131" t="s">
+      <c r="C83" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D83" s="67">
@@ -6889,16 +7125,16 @@
         <v>107</v>
       </c>
       <c r="H83" s="67"/>
-      <c r="I83" s="134" t="s">
+      <c r="I83" s="109" t="s">
         <v>211</v>
       </c>
       <c r="J83" s="67"/>
       <c r="K83" s="91"/>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="132"/>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
+    <row r="84" spans="1:13">
+      <c r="A84" s="175"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
       <c r="D84" s="2">
         <v>3</v>
       </c>
@@ -6912,10 +7148,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="132"/>
-      <c r="B85" s="132"/>
-      <c r="C85" s="132"/>
+    <row r="85" spans="1:13">
+      <c r="A85" s="175"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
       <c r="D85" s="2">
         <v>5</v>
       </c>
@@ -6929,10 +7165,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="132"/>
-      <c r="B86" s="132"/>
-      <c r="C86" s="132"/>
+    <row r="86" spans="1:13">
+      <c r="A86" s="175"/>
+      <c r="B86" s="175"/>
+      <c r="C86" s="175"/>
       <c r="D86" s="2">
         <v>6</v>
       </c>
@@ -6945,11 +7181,14 @@
       <c r="I86" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="132"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="132"/>
+      <c r="M86" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="175"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="175"/>
       <c r="D87" s="2">
         <v>7</v>
       </c>
@@ -6962,11 +7201,14 @@
       <c r="I87" s="92" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="132"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="132"/>
+      <c r="M87" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="175"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
       <c r="D88" s="2">
         <v>9</v>
       </c>
@@ -6977,10 +7219,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="132"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="132" t="s">
+    <row r="89" spans="1:13">
+      <c r="A89" s="175"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D89" s="2">
@@ -7002,10 +7244,10 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
+    <row r="90" spans="1:13">
+      <c r="A90" s="176"/>
+      <c r="B90" s="176"/>
+      <c r="C90" s="176"/>
       <c r="D90" s="27">
         <v>8</v>
       </c>
@@ -7025,14 +7267,14 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="131">
+    <row r="91" spans="1:13">
+      <c r="A91" s="174">
         <v>56</v>
       </c>
-      <c r="B91" s="131">
+      <c r="B91" s="174">
         <v>12</v>
       </c>
-      <c r="C91" s="131" t="s">
+      <c r="C91" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D91" s="67">
@@ -7050,10 +7292,10 @@
       <c r="J91" s="67"/>
       <c r="K91" s="91"/>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="132"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="132"/>
+    <row r="92" spans="1:13">
+      <c r="A92" s="175"/>
+      <c r="B92" s="175"/>
+      <c r="C92" s="175"/>
       <c r="D92" s="2">
         <v>1</v>
       </c>
@@ -7067,10 +7309,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="132"/>
-      <c r="B93" s="132"/>
-      <c r="C93" s="132"/>
+    <row r="93" spans="1:13">
+      <c r="A93" s="175"/>
+      <c r="B93" s="175"/>
+      <c r="C93" s="175"/>
       <c r="D93" s="2">
         <v>2</v>
       </c>
@@ -7084,10 +7326,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="132"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="132"/>
+    <row r="94" spans="1:13">
+      <c r="A94" s="175"/>
+      <c r="B94" s="175"/>
+      <c r="C94" s="175"/>
       <c r="D94" s="2">
         <v>4</v>
       </c>
@@ -7098,10 +7340,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="132"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="132"/>
+    <row r="95" spans="1:13">
+      <c r="A95" s="175"/>
+      <c r="B95" s="175"/>
+      <c r="C95" s="175"/>
       <c r="D95" s="2">
         <v>5</v>
       </c>
@@ -7115,10 +7357,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="132"/>
-      <c r="B96" s="132"/>
-      <c r="C96" s="132"/>
+    <row r="96" spans="1:13">
+      <c r="A96" s="175"/>
+      <c r="B96" s="175"/>
+      <c r="C96" s="175"/>
       <c r="D96" s="2">
         <v>8</v>
       </c>
@@ -7129,10 +7371,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="132"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="132"/>
+    <row r="97" spans="1:13">
+      <c r="A97" s="175"/>
+      <c r="B97" s="175"/>
+      <c r="C97" s="175"/>
       <c r="D97" s="2">
         <v>9</v>
       </c>
@@ -7143,13 +7385,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="132"/>
-      <c r="B98" s="132"/>
-      <c r="C98" s="132" t="s">
+    <row r="98" spans="1:13">
+      <c r="A98" s="175"/>
+      <c r="B98" s="175"/>
+      <c r="C98" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D98" s="132">
+      <c r="D98" s="175">
         <v>3</v>
       </c>
       <c r="E98" s="2">
@@ -7164,18 +7406,21 @@
       <c r="I98" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="J98" s="132">
+      <c r="J98" s="175">
         <v>0.03</v>
       </c>
-      <c r="K98" s="132">
+      <c r="K98" s="175">
         <v>4000</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="132"/>
-      <c r="B99" s="132"/>
-      <c r="C99" s="132"/>
-      <c r="D99" s="132"/>
+      <c r="M98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="175"/>
+      <c r="B99" s="175"/>
+      <c r="C99" s="175"/>
+      <c r="D99" s="175"/>
       <c r="E99" s="2">
         <v>1</v>
       </c>
@@ -7185,18 +7430,18 @@
       <c r="G99" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J99" s="132">
+      <c r="J99" s="175">
         <v>0.03</v>
       </c>
-      <c r="K99" s="132">
+      <c r="K99" s="175">
         <v>4000</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="132"/>
-      <c r="B100" s="132"/>
-      <c r="C100" s="132"/>
-      <c r="D100" s="132">
+    <row r="100" spans="1:13">
+      <c r="A100" s="175"/>
+      <c r="B100" s="175"/>
+      <c r="C100" s="175"/>
+      <c r="D100" s="175">
         <v>6</v>
       </c>
       <c r="E100" s="2">
@@ -7212,11 +7457,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="132"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="132"/>
-      <c r="D101" s="132"/>
+    <row r="101" spans="1:13">
+      <c r="A101" s="175"/>
+      <c r="B101" s="175"/>
+      <c r="C101" s="175"/>
+      <c r="D101" s="175"/>
       <c r="E101" s="2">
         <v>1</v>
       </c>
@@ -7229,11 +7474,14 @@
       <c r="I101" s="103" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="133"/>
-      <c r="B102" s="133"/>
-      <c r="C102" s="133"/>
+      <c r="M101" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="176"/>
+      <c r="B102" s="176"/>
+      <c r="C102" s="176"/>
       <c r="D102" s="27">
         <v>7</v>
       </c>
@@ -7251,14 +7499,14 @@
       <c r="J102" s="27"/>
       <c r="K102" s="57"/>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="131">
+    <row r="103" spans="1:13">
+      <c r="A103" s="174">
         <v>57</v>
       </c>
-      <c r="B103" s="131">
+      <c r="B103" s="174">
         <v>13</v>
       </c>
-      <c r="C103" s="131" t="s">
+      <c r="C103" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D103" s="67">
@@ -7278,10 +7526,10 @@
       <c r="J103" s="67"/>
       <c r="K103" s="91"/>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="132"/>
-      <c r="B104" s="132"/>
-      <c r="C104" s="132"/>
+    <row r="104" spans="1:13">
+      <c r="A104" s="175"/>
+      <c r="B104" s="175"/>
+      <c r="C104" s="175"/>
       <c r="D104" s="2">
         <v>1</v>
       </c>
@@ -7295,10 +7543,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="132"/>
-      <c r="B105" s="132"/>
-      <c r="C105" s="132"/>
+    <row r="105" spans="1:13">
+      <c r="A105" s="175"/>
+      <c r="B105" s="175"/>
+      <c r="C105" s="175"/>
       <c r="D105" s="2">
         <v>2</v>
       </c>
@@ -7309,10 +7557,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="132"/>
-      <c r="B106" s="132"/>
-      <c r="C106" s="132"/>
+    <row r="106" spans="1:13">
+      <c r="A106" s="175"/>
+      <c r="B106" s="175"/>
+      <c r="C106" s="175"/>
       <c r="D106" s="2">
         <v>3</v>
       </c>
@@ -7322,11 +7570,14 @@
       <c r="G106" s="93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="132"/>
-      <c r="B107" s="132"/>
-      <c r="C107" s="132"/>
+      <c r="M106" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="175"/>
+      <c r="B107" s="175"/>
+      <c r="C107" s="175"/>
       <c r="D107" s="2">
         <v>4</v>
       </c>
@@ -7340,10 +7591,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="132"/>
-      <c r="B108" s="132"/>
-      <c r="C108" s="132"/>
+    <row r="108" spans="1:13">
+      <c r="A108" s="175"/>
+      <c r="B108" s="175"/>
+      <c r="C108" s="175"/>
       <c r="D108" s="2">
         <v>5</v>
       </c>
@@ -7354,10 +7605,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="132"/>
-      <c r="B109" s="132"/>
-      <c r="C109" s="132"/>
+    <row r="109" spans="1:13">
+      <c r="A109" s="175"/>
+      <c r="B109" s="175"/>
+      <c r="C109" s="175"/>
       <c r="D109" s="2">
         <v>6</v>
       </c>
@@ -7367,11 +7618,14 @@
       <c r="G109" s="93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="132"/>
-      <c r="B110" s="132"/>
-      <c r="C110" s="132"/>
+      <c r="M109" s="103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="175"/>
+      <c r="B110" s="175"/>
+      <c r="C110" s="175"/>
       <c r="D110" s="2">
         <v>7</v>
       </c>
@@ -7382,10 +7636,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="132"/>
-      <c r="B111" s="132"/>
-      <c r="C111" s="132"/>
+    <row r="111" spans="1:13">
+      <c r="A111" s="175"/>
+      <c r="B111" s="175"/>
+      <c r="C111" s="175"/>
       <c r="D111" s="2">
         <v>8</v>
       </c>
@@ -7396,10 +7650,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="132"/>
-      <c r="B112" s="132"/>
-      <c r="C112" s="132"/>
+    <row r="112" spans="1:13">
+      <c r="A112" s="175"/>
+      <c r="B112" s="175"/>
+      <c r="C112" s="175"/>
       <c r="D112" s="2">
         <v>9</v>
       </c>
@@ -7410,10 +7664,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="132"/>
-      <c r="B113" s="132"/>
-      <c r="C113" s="132"/>
+    <row r="113" spans="1:13">
+      <c r="A113" s="175"/>
+      <c r="B113" s="175"/>
+      <c r="C113" s="175"/>
       <c r="D113" s="2">
         <v>11</v>
       </c>
@@ -7424,9 +7678,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="133"/>
-      <c r="B114" s="133"/>
+    <row r="114" spans="1:13">
+      <c r="A114" s="176"/>
+      <c r="B114" s="176"/>
       <c r="C114" s="27" t="s">
         <v>116</v>
       </c>
@@ -7451,14 +7705,14 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="131">
+    <row r="115" spans="1:13">
+      <c r="A115" s="174">
         <v>37</v>
       </c>
-      <c r="B115" s="131">
+      <c r="B115" s="174">
         <v>15</v>
       </c>
-      <c r="C115" s="131" t="s">
+      <c r="C115" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D115" s="67">
@@ -7472,16 +7726,16 @@
         <v>207</v>
       </c>
       <c r="H115" s="67"/>
-      <c r="I115" s="134" t="s">
+      <c r="I115" s="109" t="s">
         <v>210</v>
       </c>
       <c r="J115" s="67"/>
       <c r="K115" s="91"/>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="132"/>
-      <c r="B116" s="132"/>
-      <c r="C116" s="132"/>
+    <row r="116" spans="1:13">
+      <c r="A116" s="175"/>
+      <c r="B116" s="175"/>
+      <c r="C116" s="175"/>
       <c r="D116" s="2">
         <v>1</v>
       </c>
@@ -7495,10 +7749,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="132"/>
-      <c r="B117" s="132"/>
-      <c r="C117" s="132"/>
+    <row r="117" spans="1:13">
+      <c r="A117" s="175"/>
+      <c r="B117" s="175"/>
+      <c r="C117" s="175"/>
       <c r="D117" s="2">
         <v>3</v>
       </c>
@@ -7509,10 +7763,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="132"/>
-      <c r="B118" s="132"/>
-      <c r="C118" s="132"/>
+    <row r="118" spans="1:13">
+      <c r="A118" s="175"/>
+      <c r="B118" s="175"/>
+      <c r="C118" s="175"/>
       <c r="D118" s="2">
         <v>5</v>
       </c>
@@ -7526,10 +7780,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="132"/>
-      <c r="B119" s="132"/>
-      <c r="C119" s="132"/>
+    <row r="119" spans="1:13">
+      <c r="A119" s="175"/>
+      <c r="B119" s="175"/>
+      <c r="C119" s="175"/>
       <c r="D119" s="2">
         <v>6</v>
       </c>
@@ -7543,10 +7797,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="132"/>
-      <c r="B120" s="132"/>
-      <c r="C120" s="132"/>
+    <row r="120" spans="1:13">
+      <c r="A120" s="175"/>
+      <c r="B120" s="175"/>
+      <c r="C120" s="175"/>
       <c r="D120" s="2">
         <v>7</v>
       </c>
@@ -7557,10 +7811,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="132"/>
-      <c r="B121" s="132"/>
-      <c r="C121" s="132"/>
+    <row r="121" spans="1:13">
+      <c r="A121" s="175"/>
+      <c r="B121" s="175"/>
+      <c r="C121" s="175"/>
       <c r="D121" s="2">
         <v>8</v>
       </c>
@@ -7573,11 +7827,14 @@
       <c r="I121" s="92" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="132"/>
-      <c r="B122" s="132"/>
-      <c r="C122" s="132"/>
+      <c r="M121" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="175"/>
+      <c r="B122" s="175"/>
+      <c r="C122" s="175"/>
       <c r="D122" s="2">
         <v>9</v>
       </c>
@@ -7588,10 +7845,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="132"/>
-      <c r="B123" s="132"/>
-      <c r="C123" s="132"/>
+    <row r="123" spans="1:13">
+      <c r="A123" s="175"/>
+      <c r="B123" s="175"/>
+      <c r="C123" s="175"/>
       <c r="D123" s="2">
         <v>10</v>
       </c>
@@ -7602,10 +7859,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="132"/>
-      <c r="B124" s="132"/>
-      <c r="C124" s="132"/>
+    <row r="124" spans="1:13">
+      <c r="A124" s="175"/>
+      <c r="B124" s="175"/>
+      <c r="C124" s="175"/>
       <c r="D124" s="2">
         <v>11</v>
       </c>
@@ -7619,10 +7876,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="132"/>
-      <c r="B125" s="132"/>
-      <c r="C125" s="132"/>
+    <row r="125" spans="1:13">
+      <c r="A125" s="175"/>
+      <c r="B125" s="175"/>
+      <c r="C125" s="175"/>
       <c r="D125" s="2">
         <v>13</v>
       </c>
@@ -7633,10 +7890,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="132"/>
-      <c r="B126" s="132"/>
-      <c r="C126" s="132"/>
+    <row r="126" spans="1:13">
+      <c r="A126" s="175"/>
+      <c r="B126" s="175"/>
+      <c r="C126" s="175"/>
       <c r="D126" s="2">
         <v>14</v>
       </c>
@@ -7650,10 +7907,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="132"/>
-      <c r="B127" s="132"/>
-      <c r="C127" s="132" t="s">
+    <row r="127" spans="1:13">
+      <c r="A127" s="175"/>
+      <c r="B127" s="175"/>
+      <c r="C127" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D127" s="2">
@@ -7672,10 +7929,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="133"/>
-      <c r="B128" s="133"/>
-      <c r="C128" s="133"/>
+    <row r="128" spans="1:13">
+      <c r="A128" s="176"/>
+      <c r="B128" s="176"/>
+      <c r="C128" s="176"/>
       <c r="D128" s="27">
         <v>4</v>
       </c>
@@ -7699,14 +7956,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="131">
+    <row r="129" spans="1:13">
+      <c r="A129" s="174">
         <v>38</v>
       </c>
-      <c r="B129" s="131">
+      <c r="B129" s="174">
         <v>11</v>
       </c>
-      <c r="C129" s="131" t="s">
+      <c r="C129" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D129" s="67">
@@ -7724,10 +7981,10 @@
       <c r="J129" s="67"/>
       <c r="K129" s="91"/>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="132"/>
-      <c r="B130" s="132"/>
-      <c r="C130" s="132"/>
+    <row r="130" spans="1:13">
+      <c r="A130" s="175"/>
+      <c r="B130" s="175"/>
+      <c r="C130" s="175"/>
       <c r="D130" s="2">
         <v>1</v>
       </c>
@@ -7741,10 +7998,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="132"/>
-      <c r="B131" s="132"/>
-      <c r="C131" s="132"/>
+    <row r="131" spans="1:13">
+      <c r="A131" s="175"/>
+      <c r="B131" s="175"/>
+      <c r="C131" s="175"/>
       <c r="D131" s="2">
         <v>2</v>
       </c>
@@ -7755,10 +8012,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="132"/>
-      <c r="B132" s="132"/>
-      <c r="C132" s="132"/>
+    <row r="132" spans="1:13">
+      <c r="A132" s="175"/>
+      <c r="B132" s="175"/>
+      <c r="C132" s="175"/>
       <c r="D132" s="2">
         <v>3</v>
       </c>
@@ -7769,10 +8026,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="132"/>
-      <c r="B133" s="132"/>
-      <c r="C133" s="132"/>
+    <row r="133" spans="1:13">
+      <c r="A133" s="175"/>
+      <c r="B133" s="175"/>
+      <c r="C133" s="175"/>
       <c r="D133" s="2">
         <v>5</v>
       </c>
@@ -7783,10 +8040,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="132"/>
-      <c r="B134" s="132"/>
-      <c r="C134" s="132"/>
+    <row r="134" spans="1:13">
+      <c r="A134" s="175"/>
+      <c r="B134" s="175"/>
+      <c r="C134" s="175"/>
       <c r="D134" s="2">
         <v>6</v>
       </c>
@@ -7800,10 +8057,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="132"/>
-      <c r="B135" s="132"/>
-      <c r="C135" s="132"/>
+    <row r="135" spans="1:13">
+      <c r="A135" s="175"/>
+      <c r="B135" s="175"/>
+      <c r="C135" s="175"/>
       <c r="D135" s="2">
         <v>7</v>
       </c>
@@ -7817,10 +8074,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="132"/>
-      <c r="B136" s="132"/>
-      <c r="C136" s="132"/>
+    <row r="136" spans="1:13">
+      <c r="A136" s="175"/>
+      <c r="B136" s="175"/>
+      <c r="C136" s="175"/>
       <c r="D136" s="2">
         <v>8</v>
       </c>
@@ -7833,11 +8090,14 @@
       <c r="H136" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="132"/>
-      <c r="B137" s="132"/>
-      <c r="C137" s="132"/>
+      <c r="M136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="175"/>
+      <c r="B137" s="175"/>
+      <c r="C137" s="175"/>
       <c r="D137" s="2">
         <v>9</v>
       </c>
@@ -7851,13 +8111,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="132"/>
-      <c r="B138" s="132"/>
-      <c r="C138" s="132" t="s">
+    <row r="138" spans="1:13">
+      <c r="A138" s="175"/>
+      <c r="B138" s="175"/>
+      <c r="C138" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D138" s="132">
+      <c r="D138" s="175">
         <v>4</v>
       </c>
       <c r="E138" s="2">
@@ -7869,18 +8129,18 @@
       <c r="G138" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="J138" s="132">
+      <c r="J138" s="175">
         <v>0.05</v>
       </c>
-      <c r="K138" s="132">
+      <c r="K138" s="175">
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="133"/>
-      <c r="B139" s="133"/>
-      <c r="C139" s="133"/>
-      <c r="D139" s="133"/>
+    <row r="139" spans="1:13">
+      <c r="A139" s="176"/>
+      <c r="B139" s="176"/>
+      <c r="C139" s="176"/>
+      <c r="D139" s="176"/>
       <c r="E139" s="27">
         <v>1</v>
       </c>
@@ -7892,17 +8152,17 @@
       </c>
       <c r="H139" s="27"/>
       <c r="I139" s="57"/>
-      <c r="J139" s="133"/>
-      <c r="K139" s="133"/>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="131">
+      <c r="J139" s="176"/>
+      <c r="K139" s="176"/>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="174">
         <v>53</v>
       </c>
-      <c r="B140" s="131">
+      <c r="B140" s="174">
         <v>21</v>
       </c>
-      <c r="C140" s="131" t="s">
+      <c r="C140" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D140" s="67">
@@ -7916,16 +8176,16 @@
         <v>207</v>
       </c>
       <c r="H140" s="67"/>
-      <c r="I140" s="134" t="s">
+      <c r="I140" s="109" t="s">
         <v>222</v>
       </c>
       <c r="J140" s="67"/>
       <c r="K140" s="91"/>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="132"/>
-      <c r="B141" s="132"/>
-      <c r="C141" s="132"/>
+    <row r="141" spans="1:13">
+      <c r="A141" s="175"/>
+      <c r="B141" s="175"/>
+      <c r="C141" s="175"/>
       <c r="D141" s="2">
         <v>2</v>
       </c>
@@ -7939,10 +8199,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="132"/>
-      <c r="B142" s="132"/>
-      <c r="C142" s="132"/>
+    <row r="142" spans="1:13">
+      <c r="A142" s="175"/>
+      <c r="B142" s="175"/>
+      <c r="C142" s="175"/>
       <c r="D142" s="2">
         <v>4</v>
       </c>
@@ -7953,10 +8213,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="132"/>
-      <c r="B143" s="132"/>
-      <c r="C143" s="132"/>
+    <row r="143" spans="1:13">
+      <c r="A143" s="175"/>
+      <c r="B143" s="175"/>
+      <c r="C143" s="175"/>
       <c r="D143" s="2">
         <v>5</v>
       </c>
@@ -7970,10 +8230,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="132"/>
-      <c r="B144" s="132"/>
-      <c r="C144" s="132"/>
+    <row r="144" spans="1:13">
+      <c r="A144" s="175"/>
+      <c r="B144" s="175"/>
+      <c r="C144" s="175"/>
       <c r="D144" s="2">
         <v>7</v>
       </c>
@@ -7988,9 +8248,9 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="132"/>
-      <c r="B145" s="132"/>
-      <c r="C145" s="132"/>
+      <c r="A145" s="175"/>
+      <c r="B145" s="175"/>
+      <c r="C145" s="175"/>
       <c r="D145" s="2">
         <v>10</v>
       </c>
@@ -8005,9 +8265,9 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="132"/>
-      <c r="B146" s="132"/>
-      <c r="C146" s="132"/>
+      <c r="A146" s="175"/>
+      <c r="B146" s="175"/>
+      <c r="C146" s="175"/>
       <c r="D146" s="2">
         <v>13</v>
       </c>
@@ -8019,9 +8279,9 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="132"/>
-      <c r="B147" s="132"/>
-      <c r="C147" s="132" t="s">
+      <c r="A147" s="175"/>
+      <c r="B147" s="175"/>
+      <c r="C147" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D147" s="2">
@@ -8038,9 +8298,9 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="132"/>
-      <c r="B148" s="132"/>
-      <c r="C148" s="132"/>
+      <c r="A148" s="175"/>
+      <c r="B148" s="175"/>
+      <c r="C148" s="175"/>
       <c r="D148" s="2">
         <v>3</v>
       </c>
@@ -8055,10 +8315,10 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="132"/>
-      <c r="B149" s="132"/>
-      <c r="C149" s="132"/>
-      <c r="D149" s="132">
+      <c r="A149" s="175"/>
+      <c r="B149" s="175"/>
+      <c r="C149" s="175"/>
+      <c r="D149" s="175">
         <v>6</v>
       </c>
       <c r="E149" s="2">
@@ -8076,10 +8336,10 @@
       <c r="I149" s="2"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="132"/>
-      <c r="B150" s="132"/>
-      <c r="C150" s="132"/>
-      <c r="D150" s="132"/>
+      <c r="A150" s="175"/>
+      <c r="B150" s="175"/>
+      <c r="C150" s="175"/>
+      <c r="D150" s="175"/>
       <c r="E150" s="2">
         <v>1</v>
       </c>
@@ -8089,15 +8349,15 @@
       <c r="G150" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I150" s="132" t="s">
+      <c r="I150" s="175" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="132"/>
-      <c r="B151" s="132"/>
-      <c r="C151" s="132"/>
-      <c r="D151" s="132"/>
+      <c r="A151" s="175"/>
+      <c r="B151" s="175"/>
+      <c r="C151" s="175"/>
+      <c r="D151" s="175"/>
       <c r="E151" s="2">
         <v>2</v>
       </c>
@@ -8107,13 +8367,13 @@
       <c r="G151" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I151" s="132"/>
+      <c r="I151" s="175"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="132"/>
-      <c r="B152" s="132"/>
-      <c r="C152" s="132"/>
-      <c r="D152" s="132">
+      <c r="A152" s="175"/>
+      <c r="B152" s="175"/>
+      <c r="C152" s="175"/>
+      <c r="D152" s="175">
         <v>9</v>
       </c>
       <c r="E152" s="2">
@@ -8130,10 +8390,10 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="132"/>
-      <c r="B153" s="132"/>
-      <c r="C153" s="132"/>
-      <c r="D153" s="132"/>
+      <c r="A153" s="175"/>
+      <c r="B153" s="175"/>
+      <c r="C153" s="175"/>
+      <c r="D153" s="175"/>
       <c r="E153" s="2">
         <v>1</v>
       </c>
@@ -8148,10 +8408,10 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="132"/>
-      <c r="B154" s="132"/>
-      <c r="C154" s="132"/>
-      <c r="D154" s="132">
+      <c r="A154" s="175"/>
+      <c r="B154" s="175"/>
+      <c r="C154" s="175"/>
+      <c r="D154" s="175">
         <v>8</v>
       </c>
       <c r="E154" s="2">
@@ -8174,10 +8434,10 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="132"/>
-      <c r="B155" s="132"/>
-      <c r="C155" s="132"/>
-      <c r="D155" s="132"/>
+      <c r="A155" s="175"/>
+      <c r="B155" s="175"/>
+      <c r="C155" s="175"/>
+      <c r="D155" s="175"/>
       <c r="E155" s="2">
         <v>1</v>
       </c>
@@ -8198,10 +8458,10 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="132"/>
-      <c r="B156" s="132"/>
-      <c r="C156" s="132"/>
-      <c r="D156" s="132">
+      <c r="A156" s="175"/>
+      <c r="B156" s="175"/>
+      <c r="C156" s="175"/>
+      <c r="D156" s="175">
         <v>12</v>
       </c>
       <c r="E156" s="2">
@@ -8212,19 +8472,19 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="132"/>
-      <c r="B157" s="132"/>
-      <c r="C157" s="132"/>
-      <c r="D157" s="132"/>
+      <c r="A157" s="175"/>
+      <c r="B157" s="175"/>
+      <c r="C157" s="175"/>
+      <c r="D157" s="175"/>
       <c r="E157" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="132"/>
-      <c r="B158" s="132"/>
-      <c r="C158" s="132"/>
-      <c r="D158" s="132">
+      <c r="A158" s="175"/>
+      <c r="B158" s="175"/>
+      <c r="C158" s="175"/>
+      <c r="D158" s="175">
         <v>14</v>
       </c>
       <c r="E158" s="2">
@@ -8241,10 +8501,10 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="133"/>
-      <c r="B159" s="133"/>
-      <c r="C159" s="133"/>
-      <c r="D159" s="133"/>
+      <c r="A159" s="176"/>
+      <c r="B159" s="176"/>
+      <c r="C159" s="176"/>
+      <c r="D159" s="176"/>
       <c r="E159" s="27">
         <v>1</v>
       </c>
@@ -8262,13 +8522,13 @@
       <c r="K159" s="57"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="131">
+      <c r="A160" s="174">
         <v>52</v>
       </c>
-      <c r="B160" s="131">
+      <c r="B160" s="174">
         <v>14</v>
       </c>
-      <c r="C160" s="131" t="s">
+      <c r="C160" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D160" s="67">
@@ -8286,10 +8546,10 @@
       <c r="J160" s="67"/>
       <c r="K160" s="91"/>
     </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="132"/>
-      <c r="B161" s="132"/>
-      <c r="C161" s="132"/>
+    <row r="161" spans="1:13">
+      <c r="A161" s="175"/>
+      <c r="B161" s="175"/>
+      <c r="C161" s="175"/>
       <c r="D161" s="2">
         <v>7</v>
       </c>
@@ -8300,10 +8560,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="132"/>
-      <c r="B162" s="132"/>
-      <c r="C162" s="132"/>
+    <row r="162" spans="1:13">
+      <c r="A162" s="175"/>
+      <c r="B162" s="175"/>
+      <c r="C162" s="175"/>
       <c r="D162" s="2">
         <v>8</v>
       </c>
@@ -8317,10 +8577,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="132"/>
-      <c r="B163" s="132"/>
-      <c r="C163" s="132"/>
+    <row r="163" spans="1:13">
+      <c r="A163" s="175"/>
+      <c r="B163" s="175"/>
+      <c r="C163" s="175"/>
       <c r="D163" s="2">
         <v>10</v>
       </c>
@@ -8331,27 +8591,30 @@
         <v>106</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="132"/>
-      <c r="B164" s="132"/>
-      <c r="C164" s="132"/>
+    <row r="164" spans="1:13">
+      <c r="A164" s="175"/>
+      <c r="B164" s="175"/>
+      <c r="C164" s="175"/>
       <c r="D164" s="2">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G164" s="9" t="s">
-        <v>106</v>
+      <c r="G164" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="I164" s="104" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="132"/>
-      <c r="B165" s="132"/>
-      <c r="C165" s="132"/>
+      <c r="M164" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="175"/>
+      <c r="B165" s="175"/>
+      <c r="C165" s="175"/>
       <c r="D165" s="2">
         <v>13</v>
       </c>
@@ -8365,10 +8628,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="132"/>
-      <c r="B166" s="132"/>
-      <c r="C166" s="132"/>
+    <row r="166" spans="1:13">
+      <c r="A166" s="175"/>
+      <c r="B166" s="175"/>
+      <c r="C166" s="175"/>
       <c r="D166" s="2">
         <v>14</v>
       </c>
@@ -8382,13 +8645,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="132"/>
-      <c r="B167" s="132"/>
-      <c r="C167" s="132" t="s">
+    <row r="167" spans="1:13">
+      <c r="A167" s="175"/>
+      <c r="B167" s="175"/>
+      <c r="C167" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D167" s="132">
+      <c r="D167" s="175">
         <v>1</v>
       </c>
       <c r="E167" s="2">
@@ -8403,18 +8666,18 @@
       <c r="I167" t="s">
         <v>157</v>
       </c>
-      <c r="J167" s="132">
+      <c r="J167" s="175">
         <v>0.03</v>
       </c>
-      <c r="K167" s="132">
+      <c r="K167" s="175">
         <v>4000</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
-      <c r="A168" s="132"/>
-      <c r="B168" s="132"/>
-      <c r="C168" s="132"/>
-      <c r="D168" s="132"/>
+    <row r="168" spans="1:13">
+      <c r="A168" s="175"/>
+      <c r="B168" s="175"/>
+      <c r="C168" s="175"/>
+      <c r="D168" s="175"/>
       <c r="E168" s="2">
         <v>1</v>
       </c>
@@ -8427,14 +8690,14 @@
       <c r="I168" t="s">
         <v>219</v>
       </c>
-      <c r="J168" s="132"/>
-      <c r="K168" s="132"/>
-    </row>
-    <row r="169" spans="1:11" ht="17" customHeight="1">
-      <c r="A169" s="132"/>
-      <c r="B169" s="132"/>
-      <c r="C169" s="132"/>
-      <c r="D169" s="132"/>
+      <c r="J168" s="175"/>
+      <c r="K168" s="175"/>
+    </row>
+    <row r="169" spans="1:13" ht="17" customHeight="1">
+      <c r="A169" s="175"/>
+      <c r="B169" s="175"/>
+      <c r="C169" s="175"/>
+      <c r="D169" s="175"/>
       <c r="E169" s="2">
         <v>2</v>
       </c>
@@ -8447,14 +8710,14 @@
       <c r="I169" t="s">
         <v>128</v>
       </c>
-      <c r="J169" s="132"/>
-      <c r="K169" s="132"/>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170" s="132"/>
-      <c r="B170" s="132"/>
-      <c r="C170" s="132"/>
-      <c r="D170" s="132">
+      <c r="J169" s="175"/>
+      <c r="K169" s="175"/>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="175"/>
+      <c r="B170" s="175"/>
+      <c r="C170" s="175"/>
+      <c r="D170" s="175">
         <v>6</v>
       </c>
       <c r="E170" s="2">
@@ -8472,12 +8735,15 @@
       <c r="K170">
         <v>4000</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="132"/>
-      <c r="B171" s="132"/>
-      <c r="C171" s="132"/>
-      <c r="D171" s="132"/>
+      <c r="M170" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="175"/>
+      <c r="B171" s="175"/>
+      <c r="C171" s="175"/>
+      <c r="D171" s="175"/>
       <c r="E171" s="2">
         <v>1</v>
       </c>
@@ -8491,11 +8757,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
-      <c r="A172" s="132"/>
-      <c r="B172" s="132"/>
-      <c r="C172" s="132"/>
-      <c r="D172" s="132">
+    <row r="172" spans="1:13">
+      <c r="A172" s="175"/>
+      <c r="B172" s="175"/>
+      <c r="C172" s="175"/>
+      <c r="D172" s="175">
         <v>9</v>
       </c>
       <c r="E172" s="2">
@@ -8511,11 +8777,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
-      <c r="A173" s="133"/>
-      <c r="B173" s="133"/>
-      <c r="C173" s="133"/>
-      <c r="D173" s="133"/>
+    <row r="173" spans="1:13">
+      <c r="A173" s="176"/>
+      <c r="B173" s="176"/>
+      <c r="C173" s="176"/>
+      <c r="D173" s="176"/>
       <c r="E173" s="27">
         <v>1</v>
       </c>
@@ -8532,14 +8798,14 @@
       <c r="J173" s="27"/>
       <c r="K173" s="57"/>
     </row>
-    <row r="174" spans="1:11">
-      <c r="A174" s="131">
+    <row r="174" spans="1:13">
+      <c r="A174" s="174">
         <v>51</v>
       </c>
-      <c r="B174" s="131">
+      <c r="B174" s="174">
         <v>16</v>
       </c>
-      <c r="C174" s="131" t="s">
+      <c r="C174" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D174" s="67">
@@ -8559,10 +8825,10 @@
       <c r="J174" s="67"/>
       <c r="K174" s="91"/>
     </row>
-    <row r="175" spans="1:11">
-      <c r="A175" s="132"/>
-      <c r="B175" s="132"/>
-      <c r="C175" s="132"/>
+    <row r="175" spans="1:13">
+      <c r="A175" s="175"/>
+      <c r="B175" s="175"/>
+      <c r="C175" s="175"/>
       <c r="D175" s="2">
         <v>1</v>
       </c>
@@ -8576,10 +8842,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
-      <c r="A176" s="132"/>
-      <c r="B176" s="132"/>
-      <c r="C176" s="132"/>
+    <row r="176" spans="1:13">
+      <c r="A176" s="175"/>
+      <c r="B176" s="175"/>
+      <c r="C176" s="175"/>
       <c r="D176" s="2">
         <v>3</v>
       </c>
@@ -8594,9 +8860,9 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="132"/>
-      <c r="B177" s="132"/>
-      <c r="C177" s="132"/>
+      <c r="A177" s="175"/>
+      <c r="B177" s="175"/>
+      <c r="C177" s="175"/>
       <c r="D177" s="2">
         <v>5</v>
       </c>
@@ -8611,9 +8877,9 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="132"/>
-      <c r="B178" s="132"/>
-      <c r="C178" s="132"/>
+      <c r="A178" s="175"/>
+      <c r="B178" s="175"/>
+      <c r="C178" s="175"/>
       <c r="D178" s="2">
         <v>7</v>
       </c>
@@ -8628,9 +8894,9 @@
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="132"/>
-      <c r="B179" s="132"/>
-      <c r="C179" s="132"/>
+      <c r="A179" s="175"/>
+      <c r="B179" s="175"/>
+      <c r="C179" s="175"/>
       <c r="D179" s="2">
         <v>8</v>
       </c>
@@ -8645,9 +8911,9 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="132"/>
-      <c r="B180" s="132"/>
-      <c r="C180" s="132"/>
+      <c r="A180" s="175"/>
+      <c r="B180" s="175"/>
+      <c r="C180" s="175"/>
       <c r="D180" s="2">
         <v>12</v>
       </c>
@@ -8659,9 +8925,9 @@
       </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="132"/>
-      <c r="B181" s="132"/>
-      <c r="C181" s="132"/>
+      <c r="A181" s="175"/>
+      <c r="B181" s="175"/>
+      <c r="C181" s="175"/>
       <c r="D181" s="2">
         <v>13</v>
       </c>
@@ -8679,9 +8945,9 @@
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="132"/>
-      <c r="B182" s="132"/>
-      <c r="C182" s="132" t="s">
+      <c r="A182" s="175"/>
+      <c r="B182" s="175"/>
+      <c r="C182" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D182" s="2">
@@ -8695,9 +8961,9 @@
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="132"/>
-      <c r="B183" s="132"/>
-      <c r="C183" s="132"/>
+      <c r="A183" s="175"/>
+      <c r="B183" s="175"/>
+      <c r="C183" s="175"/>
       <c r="D183" s="2">
         <v>4</v>
       </c>
@@ -8709,10 +8975,10 @@
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="132"/>
-      <c r="B184" s="132"/>
-      <c r="C184" s="132"/>
-      <c r="D184" s="132">
+      <c r="A184" s="175"/>
+      <c r="B184" s="175"/>
+      <c r="C184" s="175"/>
+      <c r="D184" s="175">
         <v>6</v>
       </c>
       <c r="E184" s="2">
@@ -8732,10 +8998,10 @@
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="132"/>
-      <c r="B185" s="132"/>
-      <c r="C185" s="132"/>
-      <c r="D185" s="132"/>
+      <c r="A185" s="175"/>
+      <c r="B185" s="175"/>
+      <c r="C185" s="175"/>
+      <c r="D185" s="175"/>
       <c r="E185" s="2">
         <v>1</v>
       </c>
@@ -8750,10 +9016,10 @@
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="132"/>
-      <c r="B186" s="132"/>
-      <c r="C186" s="132"/>
-      <c r="D186" s="132">
+      <c r="A186" s="175"/>
+      <c r="B186" s="175"/>
+      <c r="C186" s="175"/>
+      <c r="D186" s="175">
         <v>10</v>
       </c>
       <c r="E186" s="2">
@@ -8765,18 +9031,18 @@
       <c r="G186" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J186" s="132">
+      <c r="J186" s="175">
         <v>0.03</v>
       </c>
-      <c r="K186" s="132">
+      <c r="K186" s="175">
         <v>3000</v>
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="132"/>
-      <c r="B187" s="132"/>
-      <c r="C187" s="132"/>
-      <c r="D187" s="132"/>
+      <c r="A187" s="175"/>
+      <c r="B187" s="175"/>
+      <c r="C187" s="175"/>
+      <c r="D187" s="175"/>
       <c r="E187" s="2">
         <v>1</v>
       </c>
@@ -8789,16 +9055,16 @@
       <c r="I187" t="s">
         <v>162</v>
       </c>
-      <c r="J187" s="132"/>
-      <c r="K187" s="132">
+      <c r="J187" s="175"/>
+      <c r="K187" s="175">
         <v>3000</v>
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="132"/>
-      <c r="B188" s="132"/>
-      <c r="C188" s="132"/>
-      <c r="D188" s="132">
+      <c r="A188" s="175"/>
+      <c r="B188" s="175"/>
+      <c r="C188" s="175"/>
+      <c r="D188" s="175">
         <v>11</v>
       </c>
       <c r="E188" s="2">
@@ -8813,18 +9079,18 @@
       <c r="H188" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J188" s="132">
+      <c r="J188" s="175">
         <v>0.03</v>
       </c>
-      <c r="K188" s="132">
+      <c r="K188" s="175">
         <v>3000</v>
       </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="133"/>
-      <c r="B189" s="133"/>
-      <c r="C189" s="133"/>
-      <c r="D189" s="133"/>
+      <c r="A189" s="176"/>
+      <c r="B189" s="176"/>
+      <c r="C189" s="176"/>
+      <c r="D189" s="176"/>
       <c r="E189" s="27">
         <v>1</v>
       </c>
@@ -8838,19 +9104,19 @@
       <c r="I189" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="J189" s="133"/>
-      <c r="K189" s="133">
+      <c r="J189" s="176"/>
+      <c r="K189" s="176">
         <v>3000</v>
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="131">
+      <c r="A190" s="174">
         <v>49</v>
       </c>
-      <c r="B190" s="131">
+      <c r="B190" s="174">
         <v>25</v>
       </c>
-      <c r="C190" s="131" t="s">
+      <c r="C190" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D190" s="67">
@@ -8870,9 +9136,9 @@
       <c r="K190" s="91"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="132"/>
-      <c r="B191" s="132"/>
-      <c r="C191" s="132"/>
+      <c r="A191" s="175"/>
+      <c r="B191" s="175"/>
+      <c r="C191" s="175"/>
       <c r="D191" s="2">
         <v>2</v>
       </c>
@@ -8888,9 +9154,9 @@
       </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="132"/>
-      <c r="B192" s="132"/>
-      <c r="C192" s="132"/>
+      <c r="A192" s="175"/>
+      <c r="B192" s="175"/>
+      <c r="C192" s="175"/>
       <c r="D192" s="2">
         <v>3</v>
       </c>
@@ -8904,10 +9170,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
-      <c r="A193" s="132"/>
-      <c r="B193" s="132"/>
-      <c r="C193" s="132"/>
+    <row r="193" spans="1:13">
+      <c r="A193" s="175"/>
+      <c r="B193" s="175"/>
+      <c r="C193" s="175"/>
       <c r="D193" s="2">
         <v>7</v>
       </c>
@@ -8918,10 +9184,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
-      <c r="A194" s="132"/>
-      <c r="B194" s="132"/>
-      <c r="C194" s="132"/>
+    <row r="194" spans="1:13">
+      <c r="A194" s="175"/>
+      <c r="B194" s="175"/>
+      <c r="C194" s="175"/>
       <c r="D194" s="2">
         <v>8</v>
       </c>
@@ -8932,10 +9198,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
-      <c r="A195" s="132"/>
-      <c r="B195" s="132"/>
-      <c r="C195" s="132"/>
+    <row r="195" spans="1:13">
+      <c r="A195" s="175"/>
+      <c r="B195" s="175"/>
+      <c r="C195" s="175"/>
       <c r="D195" s="2">
         <v>12</v>
       </c>
@@ -8946,10 +9212,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
-      <c r="A196" s="132"/>
-      <c r="B196" s="132"/>
-      <c r="C196" s="132"/>
+    <row r="196" spans="1:13">
+      <c r="A196" s="175"/>
+      <c r="B196" s="175"/>
+      <c r="C196" s="175"/>
       <c r="D196" s="2">
         <v>13</v>
       </c>
@@ -8960,10 +9226,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
-      <c r="A197" s="132"/>
-      <c r="B197" s="132"/>
-      <c r="C197" s="132"/>
+    <row r="197" spans="1:13">
+      <c r="A197" s="175"/>
+      <c r="B197" s="175"/>
+      <c r="C197" s="175"/>
       <c r="D197" s="2">
         <v>14</v>
       </c>
@@ -8974,10 +9240,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
-      <c r="A198" s="132"/>
-      <c r="B198" s="132"/>
-      <c r="C198" s="132"/>
+    <row r="198" spans="1:13">
+      <c r="A198" s="175"/>
+      <c r="B198" s="175"/>
+      <c r="C198" s="175"/>
       <c r="D198" s="2">
         <v>15</v>
       </c>
@@ -8988,10 +9254,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
-      <c r="A199" s="132"/>
-      <c r="B199" s="132"/>
-      <c r="C199" s="132"/>
+    <row r="199" spans="1:13">
+      <c r="A199" s="175"/>
+      <c r="B199" s="175"/>
+      <c r="C199" s="175"/>
       <c r="D199" s="2">
         <v>16</v>
       </c>
@@ -9004,11 +9270,14 @@
       <c r="I199" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200" s="132"/>
-      <c r="B200" s="132"/>
-      <c r="C200" s="132"/>
+      <c r="M199" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="175"/>
+      <c r="B200" s="175"/>
+      <c r="C200" s="175"/>
       <c r="D200" s="2">
         <v>18</v>
       </c>
@@ -9019,10 +9288,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
-      <c r="A201" s="132"/>
-      <c r="B201" s="132"/>
-      <c r="C201" s="132"/>
+    <row r="201" spans="1:13">
+      <c r="A201" s="175"/>
+      <c r="B201" s="175"/>
+      <c r="C201" s="175"/>
       <c r="D201" s="2">
         <v>19</v>
       </c>
@@ -9036,10 +9305,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
-      <c r="A202" s="132"/>
-      <c r="B202" s="132"/>
-      <c r="C202" s="132"/>
+    <row r="202" spans="1:13">
+      <c r="A202" s="175"/>
+      <c r="B202" s="175"/>
+      <c r="C202" s="175"/>
       <c r="D202" s="2">
         <v>22</v>
       </c>
@@ -9050,52 +9319,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
-      <c r="A203" s="132"/>
-      <c r="B203" s="132"/>
-      <c r="C203" s="132" t="s">
+    <row r="203" spans="1:13">
+      <c r="A203" s="175"/>
+      <c r="B203" s="175"/>
+      <c r="C203" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D203" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
-      <c r="A204" s="132"/>
-      <c r="B204" s="132"/>
-      <c r="C204" s="132"/>
+    <row r="204" spans="1:13">
+      <c r="A204" s="175"/>
+      <c r="B204" s="175"/>
+      <c r="C204" s="175"/>
       <c r="D204" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
-      <c r="A205" s="132"/>
-      <c r="B205" s="132"/>
-      <c r="C205" s="132"/>
+    <row r="205" spans="1:13">
+      <c r="A205" s="175"/>
+      <c r="B205" s="175"/>
+      <c r="C205" s="175"/>
       <c r="D205" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
-      <c r="A206" s="132"/>
-      <c r="B206" s="132"/>
-      <c r="C206" s="132"/>
+    <row r="206" spans="1:13">
+      <c r="A206" s="175"/>
+      <c r="B206" s="175"/>
+      <c r="C206" s="175"/>
       <c r="D206" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
-      <c r="A207" s="132"/>
-      <c r="B207" s="132"/>
-      <c r="C207" s="132"/>
+    <row r="207" spans="1:13">
+      <c r="A207" s="175"/>
+      <c r="B207" s="175"/>
+      <c r="C207" s="175"/>
       <c r="D207" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
-      <c r="A208" s="133"/>
-      <c r="B208" s="133"/>
-      <c r="C208" s="133"/>
+    <row r="208" spans="1:13">
+      <c r="A208" s="176"/>
+      <c r="B208" s="176"/>
+      <c r="C208" s="176"/>
       <c r="D208" s="27">
         <v>20</v>
       </c>
@@ -9115,14 +9384,14 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
-      <c r="A209" s="131">
+    <row r="209" spans="1:13">
+      <c r="A209" s="174">
         <v>50</v>
       </c>
-      <c r="B209" s="131">
+      <c r="B209" s="174">
         <v>22</v>
       </c>
-      <c r="C209" s="131" t="s">
+      <c r="C209" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D209" s="67">
@@ -9140,10 +9409,10 @@
       <c r="J209" s="67"/>
       <c r="K209" s="91"/>
     </row>
-    <row r="210" spans="1:11">
-      <c r="A210" s="132"/>
-      <c r="B210" s="132"/>
-      <c r="C210" s="132"/>
+    <row r="210" spans="1:13">
+      <c r="A210" s="175"/>
+      <c r="B210" s="175"/>
+      <c r="C210" s="175"/>
       <c r="D210" s="2">
         <v>2</v>
       </c>
@@ -9157,10 +9426,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
-      <c r="A211" s="132"/>
-      <c r="B211" s="132"/>
-      <c r="C211" s="132"/>
+    <row r="211" spans="1:13">
+      <c r="A211" s="175"/>
+      <c r="B211" s="175"/>
+      <c r="C211" s="175"/>
       <c r="D211" s="2">
         <v>3</v>
       </c>
@@ -9171,10 +9440,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
-      <c r="A212" s="132"/>
-      <c r="B212" s="132"/>
-      <c r="C212" s="132"/>
+    <row r="212" spans="1:13">
+      <c r="A212" s="175"/>
+      <c r="B212" s="175"/>
+      <c r="C212" s="175"/>
       <c r="D212" s="2">
         <v>7</v>
       </c>
@@ -9188,10 +9457,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
-      <c r="A213" s="132"/>
-      <c r="B213" s="132"/>
-      <c r="C213" s="132"/>
+    <row r="213" spans="1:13">
+      <c r="A213" s="175"/>
+      <c r="B213" s="175"/>
+      <c r="C213" s="175"/>
       <c r="D213" s="2">
         <v>8</v>
       </c>
@@ -9205,10 +9474,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
-      <c r="A214" s="132"/>
-      <c r="B214" s="132"/>
-      <c r="C214" s="132"/>
+    <row r="214" spans="1:13">
+      <c r="A214" s="175"/>
+      <c r="B214" s="175"/>
+      <c r="C214" s="175"/>
       <c r="D214" s="2">
         <v>9</v>
       </c>
@@ -9219,10 +9488,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
-      <c r="A215" s="132"/>
-      <c r="B215" s="132"/>
-      <c r="C215" s="132"/>
+    <row r="215" spans="1:13">
+      <c r="A215" s="175"/>
+      <c r="B215" s="175"/>
+      <c r="C215" s="175"/>
       <c r="D215" s="2">
         <v>10</v>
       </c>
@@ -9233,10 +9502,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
-      <c r="A216" s="132"/>
-      <c r="B216" s="132"/>
-      <c r="C216" s="132"/>
+    <row r="216" spans="1:13">
+      <c r="A216" s="175"/>
+      <c r="B216" s="175"/>
+      <c r="C216" s="175"/>
       <c r="D216" s="2">
         <v>13</v>
       </c>
@@ -9250,10 +9519,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
-      <c r="A217" s="132"/>
-      <c r="B217" s="132"/>
-      <c r="C217" s="132"/>
+    <row r="217" spans="1:13">
+      <c r="A217" s="175"/>
+      <c r="B217" s="175"/>
+      <c r="C217" s="175"/>
       <c r="D217" s="2">
         <v>14</v>
       </c>
@@ -9267,10 +9536,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
-      <c r="A218" s="132"/>
-      <c r="B218" s="132"/>
-      <c r="C218" s="132"/>
+    <row r="218" spans="1:13">
+      <c r="A218" s="175"/>
+      <c r="B218" s="175"/>
+      <c r="C218" s="175"/>
       <c r="D218" s="2">
         <v>15</v>
       </c>
@@ -9281,10 +9550,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
-      <c r="A219" s="132"/>
-      <c r="B219" s="132"/>
-      <c r="C219" s="132"/>
+    <row r="219" spans="1:13">
+      <c r="A219" s="175"/>
+      <c r="B219" s="175"/>
+      <c r="C219" s="175"/>
       <c r="D219" s="2">
         <v>16</v>
       </c>
@@ -9295,10 +9564,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
-      <c r="A220" s="132"/>
-      <c r="B220" s="132"/>
-      <c r="C220" s="132"/>
+    <row r="220" spans="1:13">
+      <c r="A220" s="175"/>
+      <c r="B220" s="175"/>
+      <c r="C220" s="175"/>
       <c r="D220" s="2">
         <v>17</v>
       </c>
@@ -9309,10 +9578,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
-      <c r="A221" s="132"/>
-      <c r="B221" s="132"/>
-      <c r="C221" s="132"/>
+    <row r="221" spans="1:13">
+      <c r="A221" s="175"/>
+      <c r="B221" s="175"/>
+      <c r="C221" s="175"/>
       <c r="D221" s="2">
         <v>18</v>
       </c>
@@ -9323,10 +9592,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
-      <c r="A222" s="132"/>
-      <c r="B222" s="132"/>
-      <c r="C222" s="132"/>
+    <row r="222" spans="1:13">
+      <c r="A222" s="175"/>
+      <c r="B222" s="175"/>
+      <c r="C222" s="175"/>
       <c r="D222" s="2">
         <v>19</v>
       </c>
@@ -9340,10 +9609,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
-      <c r="A223" s="132"/>
-      <c r="B223" s="132"/>
-      <c r="C223" s="132"/>
+    <row r="223" spans="1:13">
+      <c r="A223" s="175"/>
+      <c r="B223" s="175"/>
+      <c r="C223" s="175"/>
       <c r="D223" s="2">
         <v>20</v>
       </c>
@@ -9351,16 +9620,19 @@
         <v>107</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="I223" s="92" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="224" spans="1:11">
-      <c r="A224" s="132"/>
-      <c r="B224" s="132"/>
-      <c r="C224" s="132"/>
+      <c r="M223" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" s="175"/>
+      <c r="B224" s="175"/>
+      <c r="C224" s="175"/>
       <c r="D224" s="2">
         <v>21</v>
       </c>
@@ -9374,10 +9646,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
-      <c r="A225" s="132"/>
-      <c r="B225" s="132"/>
-      <c r="C225" s="132"/>
+    <row r="225" spans="1:13">
+      <c r="A225" s="175"/>
+      <c r="B225" s="175"/>
+      <c r="C225" s="175"/>
       <c r="D225" s="2">
         <v>22</v>
       </c>
@@ -9387,11 +9659,14 @@
       <c r="G225" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="A226" s="132"/>
-      <c r="B226" s="132"/>
-      <c r="C226" s="132"/>
+      <c r="M225" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
+      <c r="A226" s="175"/>
+      <c r="B226" s="175"/>
+      <c r="C226" s="175"/>
       <c r="D226" s="2">
         <v>24</v>
       </c>
@@ -9405,10 +9680,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
-      <c r="A227" s="132"/>
-      <c r="B227" s="132"/>
-      <c r="C227" s="132" t="s">
+    <row r="227" spans="1:13">
+      <c r="A227" s="175"/>
+      <c r="B227" s="175"/>
+      <c r="C227" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D227" s="2">
@@ -9430,10 +9705,10 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
-      <c r="A228" s="132"/>
-      <c r="B228" s="132"/>
-      <c r="C228" s="132"/>
+    <row r="228" spans="1:13">
+      <c r="A228" s="175"/>
+      <c r="B228" s="175"/>
+      <c r="C228" s="175"/>
       <c r="D228" s="2">
         <v>11</v>
       </c>
@@ -9450,11 +9725,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
-      <c r="A229" s="132"/>
-      <c r="B229" s="132"/>
-      <c r="C229" s="132"/>
-      <c r="D229" s="132">
+    <row r="229" spans="1:13">
+      <c r="A229" s="175"/>
+      <c r="B229" s="175"/>
+      <c r="C229" s="175"/>
+      <c r="D229" s="175">
         <v>6</v>
       </c>
       <c r="E229" s="2">
@@ -9479,11 +9754,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
-      <c r="A230" s="133"/>
-      <c r="B230" s="133"/>
-      <c r="C230" s="133"/>
-      <c r="D230" s="133"/>
+    <row r="230" spans="1:13">
+      <c r="A230" s="176"/>
+      <c r="B230" s="176"/>
+      <c r="C230" s="176"/>
+      <c r="D230" s="176"/>
       <c r="E230" s="27">
         <v>1</v>
       </c>
@@ -9498,14 +9773,14 @@
       <c r="J230" s="27"/>
       <c r="K230" s="57"/>
     </row>
-    <row r="231" spans="1:11">
-      <c r="A231" s="131">
+    <row r="231" spans="1:13">
+      <c r="A231" s="174">
         <v>39</v>
       </c>
-      <c r="B231" s="131">
+      <c r="B231" s="174">
         <v>9</v>
       </c>
-      <c r="C231" s="131" t="s">
+      <c r="C231" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D231" s="67">
@@ -9525,10 +9800,10 @@
       <c r="J231" s="67"/>
       <c r="K231" s="91"/>
     </row>
-    <row r="232" spans="1:11">
-      <c r="A232" s="132"/>
-      <c r="B232" s="132"/>
-      <c r="C232" s="132"/>
+    <row r="232" spans="1:13">
+      <c r="A232" s="175"/>
+      <c r="B232" s="175"/>
+      <c r="C232" s="175"/>
       <c r="D232" s="2">
         <v>3</v>
       </c>
@@ -9539,10 +9814,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
-      <c r="A233" s="132"/>
-      <c r="B233" s="132"/>
-      <c r="C233" s="132"/>
+    <row r="233" spans="1:13">
+      <c r="A233" s="175"/>
+      <c r="B233" s="175"/>
+      <c r="C233" s="175"/>
       <c r="D233" s="2">
         <v>6</v>
       </c>
@@ -9556,10 +9831,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
-      <c r="A234" s="132"/>
-      <c r="B234" s="132"/>
-      <c r="C234" s="132"/>
+    <row r="234" spans="1:13">
+      <c r="A234" s="175"/>
+      <c r="B234" s="175"/>
+      <c r="C234" s="175"/>
       <c r="D234" s="2">
         <v>7</v>
       </c>
@@ -9570,10 +9845,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
-      <c r="A235" s="132"/>
-      <c r="B235" s="132"/>
-      <c r="C235" s="132"/>
+    <row r="235" spans="1:13">
+      <c r="A235" s="175"/>
+      <c r="B235" s="175"/>
+      <c r="C235" s="175"/>
       <c r="D235" s="2">
         <v>8</v>
       </c>
@@ -9584,10 +9859,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
-      <c r="A236" s="132"/>
-      <c r="B236" s="132"/>
-      <c r="C236" s="132"/>
+    <row r="236" spans="1:13">
+      <c r="A236" s="175"/>
+      <c r="B236" s="175"/>
+      <c r="C236" s="175"/>
       <c r="D236" s="2">
         <v>11</v>
       </c>
@@ -9601,13 +9876,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
-      <c r="A237" s="132"/>
-      <c r="B237" s="132"/>
-      <c r="C237" s="132" t="s">
+    <row r="237" spans="1:13">
+      <c r="A237" s="175"/>
+      <c r="B237" s="175"/>
+      <c r="C237" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="132">
+      <c r="D237" s="175">
         <v>9</v>
       </c>
       <c r="E237" s="2">
@@ -9622,18 +9897,18 @@
       <c r="H237" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J237" s="132">
+      <c r="J237" s="175">
         <v>0.04</v>
       </c>
-      <c r="K237" s="132">
+      <c r="K237" s="175">
         <v>1000</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
-      <c r="A238" s="132"/>
-      <c r="B238" s="132"/>
-      <c r="C238" s="132"/>
-      <c r="D238" s="132"/>
+    <row r="238" spans="1:13">
+      <c r="A238" s="175"/>
+      <c r="B238" s="175"/>
+      <c r="C238" s="175"/>
+      <c r="D238" s="175"/>
       <c r="E238" s="2">
         <v>1</v>
       </c>
@@ -9646,13 +9921,13 @@
       <c r="H238" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J238" s="132"/>
-      <c r="K238" s="132"/>
-    </row>
-    <row r="239" spans="1:11">
-      <c r="A239" s="133"/>
-      <c r="B239" s="133"/>
-      <c r="C239" s="133"/>
+      <c r="J238" s="175"/>
+      <c r="K238" s="175"/>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="176"/>
+      <c r="B239" s="176"/>
+      <c r="C239" s="176"/>
       <c r="D239" s="27">
         <v>10</v>
       </c>
@@ -9674,14 +9949,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
-      <c r="A240" s="131">
+    <row r="240" spans="1:13">
+      <c r="A240" s="174">
         <v>40</v>
       </c>
-      <c r="B240" s="131">
+      <c r="B240" s="174">
         <v>13</v>
       </c>
-      <c r="C240" s="131" t="s">
+      <c r="C240" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D240" s="67">
@@ -9700,9 +9975,9 @@
       <c r="K240" s="91"/>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="132"/>
-      <c r="B241" s="132"/>
-      <c r="C241" s="132"/>
+      <c r="A241" s="175"/>
+      <c r="B241" s="175"/>
+      <c r="C241" s="175"/>
       <c r="D241" s="2">
         <v>2</v>
       </c>
@@ -9714,9 +9989,9 @@
       </c>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="132"/>
-      <c r="B242" s="132"/>
-      <c r="C242" s="132"/>
+      <c r="A242" s="175"/>
+      <c r="B242" s="175"/>
+      <c r="C242" s="175"/>
       <c r="D242" s="2">
         <v>5</v>
       </c>
@@ -9728,9 +10003,9 @@
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="132"/>
-      <c r="B243" s="132"/>
-      <c r="C243" s="132"/>
+      <c r="A243" s="175"/>
+      <c r="B243" s="175"/>
+      <c r="C243" s="175"/>
       <c r="D243" s="2">
         <v>6</v>
       </c>
@@ -9742,9 +10017,9 @@
       </c>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="132"/>
-      <c r="B244" s="132"/>
-      <c r="C244" s="132"/>
+      <c r="A244" s="175"/>
+      <c r="B244" s="175"/>
+      <c r="C244" s="175"/>
       <c r="D244" s="2">
         <v>7</v>
       </c>
@@ -9759,9 +10034,9 @@
       </c>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="132"/>
-      <c r="B245" s="132"/>
-      <c r="C245" s="132"/>
+      <c r="A245" s="175"/>
+      <c r="B245" s="175"/>
+      <c r="C245" s="175"/>
       <c r="D245" s="2">
         <v>8</v>
       </c>
@@ -9776,9 +10051,9 @@
       </c>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="132"/>
-      <c r="B246" s="132"/>
-      <c r="C246" s="132"/>
+      <c r="A246" s="175"/>
+      <c r="B246" s="175"/>
+      <c r="C246" s="175"/>
       <c r="D246" s="2">
         <v>9</v>
       </c>
@@ -9793,9 +10068,9 @@
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="132"/>
-      <c r="B247" s="132"/>
-      <c r="C247" s="132" t="s">
+      <c r="A247" s="175"/>
+      <c r="B247" s="175"/>
+      <c r="C247" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D247" s="2">
@@ -9815,10 +10090,10 @@
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="132"/>
-      <c r="B248" s="132"/>
-      <c r="C248" s="132"/>
-      <c r="D248" s="132">
+      <c r="A248" s="175"/>
+      <c r="B248" s="175"/>
+      <c r="C248" s="175"/>
+      <c r="D248" s="175">
         <v>10</v>
       </c>
       <c r="E248" s="2">
@@ -9841,10 +10116,10 @@
       </c>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="132"/>
-      <c r="B249" s="132"/>
-      <c r="C249" s="132"/>
-      <c r="D249" s="132"/>
+      <c r="A249" s="175"/>
+      <c r="B249" s="175"/>
+      <c r="C249" s="175"/>
+      <c r="D249" s="175"/>
       <c r="E249" s="2">
         <v>1</v>
       </c>
@@ -9859,9 +10134,9 @@
       </c>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="132"/>
-      <c r="B250" s="132"/>
-      <c r="C250" s="132"/>
+      <c r="A250" s="175"/>
+      <c r="B250" s="175"/>
+      <c r="C250" s="175"/>
       <c r="D250" s="2">
         <v>4</v>
       </c>
@@ -9876,10 +10151,10 @@
       </c>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="132"/>
-      <c r="B251" s="132"/>
-      <c r="C251" s="132"/>
-      <c r="D251" s="132" t="s">
+      <c r="A251" s="175"/>
+      <c r="B251" s="175"/>
+      <c r="C251" s="175"/>
+      <c r="D251" s="175" t="s">
         <v>172</v>
       </c>
       <c r="E251" s="2">
@@ -9902,10 +10177,10 @@
       </c>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="133"/>
-      <c r="B252" s="133"/>
-      <c r="C252" s="133"/>
-      <c r="D252" s="133"/>
+      <c r="A252" s="176"/>
+      <c r="B252" s="176"/>
+      <c r="C252" s="176"/>
+      <c r="D252" s="176"/>
       <c r="E252" s="27">
         <v>1</v>
       </c>
@@ -9923,13 +10198,13 @@
       <c r="K252" s="57"/>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="131">
+      <c r="A253" s="174">
         <v>73</v>
       </c>
-      <c r="B253" s="131">
+      <c r="B253" s="174">
         <v>12</v>
       </c>
-      <c r="C253" s="131" t="s">
+      <c r="C253" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D253" s="67">
@@ -9950,9 +10225,9 @@
       <c r="K253" s="91"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="132"/>
-      <c r="B254" s="132"/>
-      <c r="C254" s="132"/>
+      <c r="A254" s="175"/>
+      <c r="B254" s="175"/>
+      <c r="C254" s="175"/>
       <c r="D254" s="2">
         <v>4</v>
       </c>
@@ -9964,9 +10239,9 @@
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="132"/>
-      <c r="B255" s="132"/>
-      <c r="C255" s="132"/>
+      <c r="A255" s="175"/>
+      <c r="B255" s="175"/>
+      <c r="C255" s="175"/>
       <c r="D255" s="2">
         <v>5</v>
       </c>
@@ -9981,9 +10256,9 @@
       </c>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="132"/>
-      <c r="B256" s="132"/>
-      <c r="C256" s="132"/>
+      <c r="A256" s="175"/>
+      <c r="B256" s="175"/>
+      <c r="C256" s="175"/>
       <c r="D256" s="2">
         <v>6</v>
       </c>
@@ -9997,10 +10272,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
-      <c r="A257" s="132"/>
-      <c r="B257" s="132"/>
-      <c r="C257" s="132"/>
+    <row r="257" spans="1:13">
+      <c r="A257" s="175"/>
+      <c r="B257" s="175"/>
+      <c r="C257" s="175"/>
       <c r="D257" s="2">
         <v>8</v>
       </c>
@@ -10014,10 +10289,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
-      <c r="A258" s="132"/>
-      <c r="B258" s="132"/>
-      <c r="C258" s="132"/>
+    <row r="258" spans="1:13">
+      <c r="A258" s="175"/>
+      <c r="B258" s="175"/>
+      <c r="C258" s="175"/>
       <c r="D258" s="2">
         <v>10</v>
       </c>
@@ -10031,10 +10306,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
-      <c r="A259" s="132"/>
-      <c r="B259" s="132"/>
-      <c r="C259" s="132" t="s">
+    <row r="259" spans="1:13">
+      <c r="A259" s="175"/>
+      <c r="B259" s="175"/>
+      <c r="C259" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D259" s="2">
@@ -10052,11 +10327,14 @@
       <c r="K259">
         <v>4000</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
-      <c r="A260" s="132"/>
-      <c r="B260" s="132"/>
-      <c r="C260" s="132"/>
+      <c r="M259" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260" s="175"/>
+      <c r="B260" s="175"/>
+      <c r="C260" s="175"/>
       <c r="D260" s="2">
         <v>3</v>
       </c>
@@ -10076,10 +10354,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
-      <c r="A261" s="132"/>
-      <c r="B261" s="132"/>
-      <c r="C261" s="132"/>
+    <row r="261" spans="1:13">
+      <c r="A261" s="175"/>
+      <c r="B261" s="175"/>
+      <c r="C261" s="175"/>
       <c r="D261" s="2">
         <v>7</v>
       </c>
@@ -10093,10 +10371,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
-      <c r="A262" s="132"/>
-      <c r="B262" s="132"/>
-      <c r="C262" s="132"/>
+    <row r="262" spans="1:13">
+      <c r="A262" s="175"/>
+      <c r="B262" s="175"/>
+      <c r="C262" s="175"/>
       <c r="D262" s="2">
         <v>9</v>
       </c>
@@ -10113,10 +10391,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
-      <c r="A263" s="132"/>
-      <c r="B263" s="132"/>
-      <c r="C263" s="132"/>
+    <row r="263" spans="1:13">
+      <c r="A263" s="175"/>
+      <c r="B263" s="175"/>
+      <c r="C263" s="175"/>
       <c r="D263" s="2">
         <v>11</v>
       </c>
@@ -10136,10 +10414,10 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
-      <c r="A264" s="133"/>
-      <c r="B264" s="133"/>
-      <c r="C264" s="133"/>
+    <row r="264" spans="1:13">
+      <c r="A264" s="176"/>
+      <c r="B264" s="176"/>
+      <c r="C264" s="176"/>
       <c r="D264" s="27">
         <v>12</v>
       </c>
@@ -10161,14 +10439,14 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
-      <c r="A265" s="131">
+    <row r="265" spans="1:13">
+      <c r="A265" s="174">
         <v>74</v>
       </c>
-      <c r="B265" s="131">
+      <c r="B265" s="174">
         <v>9</v>
       </c>
-      <c r="C265" s="131" t="s">
+      <c r="C265" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D265" s="67">
@@ -10184,16 +10462,19 @@
       <c r="H265" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I265" s="134" t="s">
+      <c r="I265" s="109" t="s">
         <v>177</v>
       </c>
       <c r="J265" s="67"/>
       <c r="K265" s="91"/>
-    </row>
-    <row r="266" spans="1:11">
-      <c r="A266" s="132"/>
-      <c r="B266" s="132"/>
-      <c r="C266" s="132"/>
+      <c r="M265" s="100" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
+      <c r="A266" s="175"/>
+      <c r="B266" s="175"/>
+      <c r="C266" s="175"/>
       <c r="D266" s="2">
         <v>3</v>
       </c>
@@ -10204,10 +10485,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
-      <c r="A267" s="132"/>
-      <c r="B267" s="132"/>
-      <c r="C267" s="132" t="s">
+    <row r="267" spans="1:13">
+      <c r="A267" s="175"/>
+      <c r="B267" s="175"/>
+      <c r="C267" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D267" s="2">
@@ -10217,7 +10498,7 @@
         <v>107</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="I267" t="s">
         <v>173</v>
@@ -10228,11 +10509,14 @@
       <c r="K267">
         <v>2000</v>
       </c>
-    </row>
-    <row r="268" spans="1:11">
-      <c r="A268" s="132"/>
-      <c r="B268" s="132"/>
-      <c r="C268" s="132"/>
+      <c r="M267" s="100" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
+      <c r="A268" s="175"/>
+      <c r="B268" s="175"/>
+      <c r="C268" s="175"/>
       <c r="D268" s="2">
         <v>2</v>
       </c>
@@ -10249,10 +10533,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
-      <c r="A269" s="132"/>
-      <c r="B269" s="132"/>
-      <c r="C269" s="132"/>
+    <row r="269" spans="1:13">
+      <c r="A269" s="175"/>
+      <c r="B269" s="175"/>
+      <c r="C269" s="175"/>
       <c r="D269" s="2">
         <v>7</v>
       </c>
@@ -10269,11 +10553,11 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
-      <c r="A270" s="132"/>
-      <c r="B270" s="132"/>
-      <c r="C270" s="132"/>
-      <c r="D270" s="132">
+    <row r="270" spans="1:13">
+      <c r="A270" s="175"/>
+      <c r="B270" s="175"/>
+      <c r="C270" s="175"/>
+      <c r="D270" s="175">
         <v>5</v>
       </c>
       <c r="E270" s="2">
@@ -10295,11 +10579,11 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
-      <c r="A271" s="132"/>
-      <c r="B271" s="132"/>
-      <c r="C271" s="132"/>
-      <c r="D271" s="132"/>
+    <row r="271" spans="1:13">
+      <c r="A271" s="175"/>
+      <c r="B271" s="175"/>
+      <c r="C271" s="175"/>
+      <c r="D271" s="175"/>
       <c r="E271" s="2">
         <v>1</v>
       </c>
@@ -10313,11 +10597,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
-      <c r="A272" s="132"/>
-      <c r="B272" s="132"/>
-      <c r="C272" s="132"/>
-      <c r="D272" s="132">
+    <row r="272" spans="1:13">
+      <c r="A272" s="175"/>
+      <c r="B272" s="175"/>
+      <c r="C272" s="175"/>
+      <c r="D272" s="175">
         <v>6</v>
       </c>
       <c r="E272" s="2">
@@ -10341,12 +10625,15 @@
       <c r="K272">
         <v>2000</v>
       </c>
-    </row>
-    <row r="273" spans="1:11">
-      <c r="A273" s="133"/>
-      <c r="B273" s="133"/>
-      <c r="C273" s="133"/>
-      <c r="D273" s="133"/>
+      <c r="M272" s="100" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="A273" s="176"/>
+      <c r="B273" s="176"/>
+      <c r="C273" s="176"/>
+      <c r="D273" s="176"/>
       <c r="E273" s="27">
         <v>1</v>
       </c>
@@ -10361,14 +10648,14 @@
       <c r="J273" s="27"/>
       <c r="K273" s="57"/>
     </row>
-    <row r="274" spans="1:11">
-      <c r="A274" s="131">
+    <row r="274" spans="1:13">
+      <c r="A274" s="174">
         <v>63</v>
       </c>
-      <c r="B274" s="131">
+      <c r="B274" s="174">
         <v>9</v>
       </c>
-      <c r="C274" s="131" t="s">
+      <c r="C274" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D274" s="67">
@@ -10387,11 +10674,14 @@
       </c>
       <c r="J274" s="67"/>
       <c r="K274" s="91"/>
-    </row>
-    <row r="275" spans="1:11">
-      <c r="A275" s="132"/>
-      <c r="B275" s="132"/>
-      <c r="C275" s="132"/>
+      <c r="M274" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13">
+      <c r="A275" s="175"/>
+      <c r="B275" s="175"/>
+      <c r="C275" s="175"/>
       <c r="D275" s="2">
         <v>2</v>
       </c>
@@ -10402,10 +10692,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
-      <c r="A276" s="132"/>
-      <c r="B276" s="132"/>
-      <c r="C276" s="132"/>
+    <row r="276" spans="1:13">
+      <c r="A276" s="175"/>
+      <c r="B276" s="175"/>
+      <c r="C276" s="175"/>
       <c r="D276" s="2">
         <v>4</v>
       </c>
@@ -10416,10 +10706,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
-      <c r="A277" s="132"/>
-      <c r="B277" s="132"/>
-      <c r="C277" s="132"/>
+    <row r="277" spans="1:13">
+      <c r="A277" s="175"/>
+      <c r="B277" s="175"/>
+      <c r="C277" s="175"/>
       <c r="D277" s="2">
         <v>5</v>
       </c>
@@ -10433,10 +10723,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
-      <c r="A278" s="132"/>
-      <c r="B278" s="132"/>
-      <c r="C278" s="132"/>
+    <row r="278" spans="1:13">
+      <c r="A278" s="175"/>
+      <c r="B278" s="175"/>
+      <c r="C278" s="175"/>
       <c r="D278" s="2">
         <v>7</v>
       </c>
@@ -10450,13 +10740,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
-      <c r="A279" s="132"/>
-      <c r="B279" s="132"/>
-      <c r="C279" s="132" t="s">
+    <row r="279" spans="1:13">
+      <c r="A279" s="175"/>
+      <c r="B279" s="175"/>
+      <c r="C279" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D279" s="132">
+      <c r="D279" s="175">
         <v>3</v>
       </c>
       <c r="E279" s="2">
@@ -10472,11 +10762,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
-      <c r="A280" s="132"/>
-      <c r="B280" s="132"/>
-      <c r="C280" s="132"/>
-      <c r="D280" s="132"/>
+    <row r="280" spans="1:13">
+      <c r="A280" s="175"/>
+      <c r="B280" s="175"/>
+      <c r="C280" s="175"/>
+      <c r="D280" s="175"/>
       <c r="E280" s="2">
         <v>1</v>
       </c>
@@ -10490,11 +10780,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
-      <c r="A281" s="132"/>
-      <c r="B281" s="132"/>
-      <c r="C281" s="132"/>
-      <c r="D281" s="132">
+    <row r="281" spans="1:13">
+      <c r="A281" s="175"/>
+      <c r="B281" s="175"/>
+      <c r="C281" s="175"/>
+      <c r="D281" s="175">
         <v>6</v>
       </c>
       <c r="E281" s="2">
@@ -10506,18 +10796,18 @@
       <c r="G281" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="J281" s="132">
+      <c r="J281" s="175">
         <v>0.06</v>
       </c>
-      <c r="K281" s="132">
+      <c r="K281" s="175">
         <v>1000</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
-      <c r="A282" s="133"/>
-      <c r="B282" s="133"/>
-      <c r="C282" s="133"/>
-      <c r="D282" s="133"/>
+    <row r="282" spans="1:13">
+      <c r="A282" s="176"/>
+      <c r="B282" s="176"/>
+      <c r="C282" s="176"/>
+      <c r="D282" s="176"/>
       <c r="E282" s="27">
         <v>1</v>
       </c>
@@ -10531,17 +10821,17 @@
         <v>169</v>
       </c>
       <c r="I282" s="57"/>
-      <c r="J282" s="133"/>
-      <c r="K282" s="133"/>
-    </row>
-    <row r="283" spans="1:11">
-      <c r="A283" s="131">
+      <c r="J282" s="176"/>
+      <c r="K282" s="176"/>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" s="174">
         <v>64</v>
       </c>
-      <c r="B283" s="131">
+      <c r="B283" s="174">
         <v>11</v>
       </c>
-      <c r="C283" s="131" t="s">
+      <c r="C283" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D283" s="67">
@@ -10561,10 +10851,10 @@
       <c r="J283" s="67"/>
       <c r="K283" s="91"/>
     </row>
-    <row r="284" spans="1:11">
-      <c r="A284" s="132"/>
-      <c r="B284" s="132"/>
-      <c r="C284" s="132"/>
+    <row r="284" spans="1:13">
+      <c r="A284" s="175"/>
+      <c r="B284" s="175"/>
+      <c r="C284" s="175"/>
       <c r="D284" s="2">
         <v>2</v>
       </c>
@@ -10575,10 +10865,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
-      <c r="A285" s="132"/>
-      <c r="B285" s="132"/>
-      <c r="C285" s="132"/>
+    <row r="285" spans="1:13">
+      <c r="A285" s="175"/>
+      <c r="B285" s="175"/>
+      <c r="C285" s="175"/>
       <c r="D285" s="2">
         <v>3</v>
       </c>
@@ -10589,10 +10879,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
-      <c r="A286" s="132"/>
-      <c r="B286" s="132"/>
-      <c r="C286" s="132"/>
+    <row r="286" spans="1:13">
+      <c r="A286" s="175"/>
+      <c r="B286" s="175"/>
+      <c r="C286" s="175"/>
       <c r="D286" s="2">
         <v>4</v>
       </c>
@@ -10603,10 +10893,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
-      <c r="A287" s="132"/>
-      <c r="B287" s="132"/>
-      <c r="C287" s="132"/>
+    <row r="287" spans="1:13">
+      <c r="A287" s="175"/>
+      <c r="B287" s="175"/>
+      <c r="C287" s="175"/>
       <c r="D287" s="2">
         <v>5</v>
       </c>
@@ -10617,10 +10907,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
-      <c r="A288" s="132"/>
-      <c r="B288" s="132"/>
-      <c r="C288" s="132"/>
+    <row r="288" spans="1:13">
+      <c r="A288" s="175"/>
+      <c r="B288" s="175"/>
+      <c r="C288" s="175"/>
       <c r="D288" s="2">
         <v>7</v>
       </c>
@@ -10634,10 +10924,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
-      <c r="A289" s="132"/>
-      <c r="B289" s="132"/>
-      <c r="C289" s="132"/>
+    <row r="289" spans="1:13">
+      <c r="A289" s="175"/>
+      <c r="B289" s="175"/>
+      <c r="C289" s="175"/>
       <c r="D289" s="2">
         <v>8</v>
       </c>
@@ -10648,10 +10938,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
-      <c r="A290" s="132"/>
-      <c r="B290" s="132"/>
-      <c r="C290" s="132"/>
+    <row r="290" spans="1:13">
+      <c r="A290" s="175"/>
+      <c r="B290" s="175"/>
+      <c r="C290" s="175"/>
       <c r="D290" s="2">
         <v>11</v>
       </c>
@@ -10665,10 +10955,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
-      <c r="A291" s="132"/>
-      <c r="B291" s="132"/>
-      <c r="C291" s="132" t="s">
+    <row r="291" spans="1:13">
+      <c r="A291" s="175"/>
+      <c r="B291" s="175"/>
+      <c r="C291" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D291" s="2">
@@ -10690,11 +10980,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
-      <c r="A292" s="132"/>
-      <c r="B292" s="132"/>
-      <c r="C292" s="132"/>
-      <c r="D292" s="132">
+    <row r="292" spans="1:13">
+      <c r="A292" s="175"/>
+      <c r="B292" s="175"/>
+      <c r="C292" s="175"/>
+      <c r="D292" s="175">
         <v>0</v>
       </c>
       <c r="E292" s="2">
@@ -10713,11 +11003,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
-      <c r="A293" s="133"/>
-      <c r="B293" s="133"/>
-      <c r="C293" s="133"/>
-      <c r="D293" s="133"/>
+    <row r="293" spans="1:13">
+      <c r="A293" s="176"/>
+      <c r="B293" s="176"/>
+      <c r="C293" s="176"/>
+      <c r="D293" s="176"/>
       <c r="E293" s="27">
         <v>1</v>
       </c>
@@ -10734,14 +11024,14 @@
       <c r="J293" s="27"/>
       <c r="K293" s="57"/>
     </row>
-    <row r="294" spans="1:11">
-      <c r="A294" s="131">
+    <row r="294" spans="1:13">
+      <c r="A294" s="174">
         <v>65</v>
       </c>
-      <c r="B294" s="131">
+      <c r="B294" s="174">
         <v>13</v>
       </c>
-      <c r="C294" s="131" t="s">
+      <c r="C294" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D294" s="67">
@@ -10759,10 +11049,10 @@
       <c r="J294" s="67"/>
       <c r="K294" s="91"/>
     </row>
-    <row r="295" spans="1:11">
-      <c r="A295" s="132"/>
-      <c r="B295" s="132"/>
-      <c r="C295" s="132"/>
+    <row r="295" spans="1:13">
+      <c r="A295" s="175"/>
+      <c r="B295" s="175"/>
+      <c r="C295" s="175"/>
       <c r="D295" s="2">
         <v>1</v>
       </c>
@@ -10775,11 +11065,14 @@
       <c r="I295" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="296" spans="1:11">
-      <c r="A296" s="132"/>
-      <c r="B296" s="132"/>
-      <c r="C296" s="132"/>
+      <c r="M295" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" s="175"/>
+      <c r="B296" s="175"/>
+      <c r="C296" s="175"/>
       <c r="D296" s="2">
         <v>2</v>
       </c>
@@ -10792,11 +11085,14 @@
       <c r="I296" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="297" spans="1:11">
-      <c r="A297" s="132"/>
-      <c r="B297" s="132"/>
-      <c r="C297" s="132"/>
+      <c r="M296" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="175"/>
+      <c r="B297" s="175"/>
+      <c r="C297" s="175"/>
       <c r="D297" s="2">
         <v>3</v>
       </c>
@@ -10807,10 +11103,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
-      <c r="A298" s="132"/>
-      <c r="B298" s="132"/>
-      <c r="C298" s="132"/>
+    <row r="298" spans="1:13">
+      <c r="A298" s="175"/>
+      <c r="B298" s="175"/>
+      <c r="C298" s="175"/>
       <c r="D298" s="2">
         <v>4</v>
       </c>
@@ -10821,10 +11117,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
-      <c r="A299" s="132"/>
-      <c r="B299" s="132"/>
-      <c r="C299" s="132"/>
+    <row r="299" spans="1:13">
+      <c r="A299" s="175"/>
+      <c r="B299" s="175"/>
+      <c r="C299" s="175"/>
       <c r="D299" s="2">
         <v>6</v>
       </c>
@@ -10841,10 +11137,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
-      <c r="A300" s="132"/>
-      <c r="B300" s="132"/>
-      <c r="C300" s="132"/>
+    <row r="300" spans="1:13">
+      <c r="A300" s="175"/>
+      <c r="B300" s="175"/>
+      <c r="C300" s="175"/>
       <c r="D300" s="2">
         <v>7</v>
       </c>
@@ -10855,10 +11151,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
-      <c r="A301" s="132"/>
-      <c r="B301" s="132"/>
-      <c r="C301" s="132"/>
+    <row r="301" spans="1:13">
+      <c r="A301" s="175"/>
+      <c r="B301" s="175"/>
+      <c r="C301" s="175"/>
       <c r="D301" s="2">
         <v>8</v>
       </c>
@@ -10872,10 +11168,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
-      <c r="A302" s="132"/>
-      <c r="B302" s="132"/>
-      <c r="C302" s="132"/>
+    <row r="302" spans="1:13">
+      <c r="A302" s="175"/>
+      <c r="B302" s="175"/>
+      <c r="C302" s="175"/>
       <c r="D302" s="2">
         <v>9</v>
       </c>
@@ -10889,10 +11185,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
-      <c r="A303" s="132"/>
-      <c r="B303" s="132"/>
-      <c r="C303" s="132"/>
+    <row r="303" spans="1:13">
+      <c r="A303" s="175"/>
+      <c r="B303" s="175"/>
+      <c r="C303" s="175"/>
       <c r="D303" s="2">
         <v>10</v>
       </c>
@@ -10903,28 +11199,28 @@
         <v>106</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
-      <c r="A304" s="132"/>
-      <c r="B304" s="132"/>
-      <c r="C304" s="132"/>
-      <c r="D304" s="135">
+    <row r="304" spans="1:13">
+      <c r="A304" s="175"/>
+      <c r="B304" s="175"/>
+      <c r="C304" s="175"/>
+      <c r="D304" s="110">
         <v>11</v>
       </c>
-      <c r="E304" s="135"/>
-      <c r="F304" s="136" t="s">
-        <v>106</v>
-      </c>
-      <c r="G304" s="136" t="s">
+      <c r="E304" s="110"/>
+      <c r="F304" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="G304" s="111" t="s">
         <v>106</v>
       </c>
       <c r="H304" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
-      <c r="A305" s="132"/>
-      <c r="B305" s="132"/>
-      <c r="C305" s="132"/>
+    <row r="305" spans="1:13">
+      <c r="A305" s="175"/>
+      <c r="B305" s="175"/>
+      <c r="C305" s="175"/>
       <c r="D305" s="2">
         <v>12</v>
       </c>
@@ -10938,10 +11234,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
-      <c r="A306" s="132"/>
-      <c r="B306" s="132"/>
-      <c r="C306" s="132"/>
+    <row r="306" spans="1:13">
+      <c r="A306" s="175"/>
+      <c r="B306" s="175"/>
+      <c r="C306" s="175"/>
       <c r="D306" s="2">
         <v>13</v>
       </c>
@@ -10955,9 +11251,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
-      <c r="A307" s="133"/>
-      <c r="B307" s="133"/>
+    <row r="307" spans="1:13">
+      <c r="A307" s="176"/>
+      <c r="B307" s="176"/>
       <c r="C307" s="27" t="s">
         <v>116</v>
       </c>
@@ -10978,14 +11274,14 @@
       <c r="J307" s="27"/>
       <c r="K307" s="57"/>
     </row>
-    <row r="308" spans="1:11">
-      <c r="A308" s="131">
+    <row r="308" spans="1:13">
+      <c r="A308" s="174">
         <v>66</v>
       </c>
-      <c r="B308" s="131">
+      <c r="B308" s="174">
         <v>10</v>
       </c>
-      <c r="C308" s="131" t="s">
+      <c r="C308" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D308" s="67">
@@ -11003,10 +11299,10 @@
       <c r="J308" s="67"/>
       <c r="K308" s="91"/>
     </row>
-    <row r="309" spans="1:11">
-      <c r="A309" s="132"/>
-      <c r="B309" s="132"/>
-      <c r="C309" s="132"/>
+    <row r="309" spans="1:13">
+      <c r="A309" s="175"/>
+      <c r="B309" s="175"/>
+      <c r="C309" s="175"/>
       <c r="D309" s="2">
         <v>1</v>
       </c>
@@ -11016,11 +11312,14 @@
       <c r="G309" s="93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="310" spans="1:11">
-      <c r="A310" s="132"/>
-      <c r="B310" s="132"/>
-      <c r="C310" s="132"/>
+      <c r="M309" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" s="175"/>
+      <c r="B310" s="175"/>
+      <c r="C310" s="175"/>
       <c r="D310" s="2">
         <v>2</v>
       </c>
@@ -11031,10 +11330,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
-      <c r="A311" s="132"/>
-      <c r="B311" s="132"/>
-      <c r="C311" s="132"/>
+    <row r="311" spans="1:13">
+      <c r="A311" s="175"/>
+      <c r="B311" s="175"/>
+      <c r="C311" s="175"/>
       <c r="D311" s="2">
         <v>4</v>
       </c>
@@ -11045,10 +11344,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
-      <c r="A312" s="132"/>
-      <c r="B312" s="132"/>
-      <c r="C312" s="132"/>
+    <row r="312" spans="1:13">
+      <c r="A312" s="175"/>
+      <c r="B312" s="175"/>
+      <c r="C312" s="175"/>
       <c r="D312" s="2">
         <v>5</v>
       </c>
@@ -11059,10 +11358,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
-      <c r="A313" s="132"/>
-      <c r="B313" s="132"/>
-      <c r="C313" s="132"/>
+    <row r="313" spans="1:13">
+      <c r="A313" s="175"/>
+      <c r="B313" s="175"/>
+      <c r="C313" s="175"/>
       <c r="D313" s="2">
         <v>7</v>
       </c>
@@ -11073,10 +11372,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
-      <c r="A314" s="132"/>
-      <c r="B314" s="132"/>
-      <c r="C314" s="132" t="s">
+    <row r="314" spans="1:13">
+      <c r="A314" s="175"/>
+      <c r="B314" s="175"/>
+      <c r="C314" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D314" s="2">
@@ -11095,10 +11394,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
-      <c r="A315" s="132"/>
-      <c r="B315" s="132"/>
-      <c r="C315" s="132"/>
+    <row r="315" spans="1:13">
+      <c r="A315" s="175"/>
+      <c r="B315" s="175"/>
+      <c r="C315" s="175"/>
       <c r="D315" s="2">
         <v>6</v>
       </c>
@@ -11112,10 +11411,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
-      <c r="A316" s="132"/>
-      <c r="B316" s="132"/>
-      <c r="C316" s="132"/>
+    <row r="316" spans="1:13">
+      <c r="A316" s="175"/>
+      <c r="B316" s="175"/>
+      <c r="C316" s="175"/>
       <c r="D316" s="2">
         <v>8</v>
       </c>
@@ -11134,11 +11433,14 @@
       <c r="K316">
         <v>500</v>
       </c>
-    </row>
-    <row r="317" spans="1:11">
-      <c r="A317" s="133"/>
-      <c r="B317" s="133"/>
-      <c r="C317" s="133"/>
+      <c r="M316" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
+      <c r="A317" s="176"/>
+      <c r="B317" s="176"/>
+      <c r="C317" s="176"/>
       <c r="D317" s="27">
         <v>9</v>
       </c>
@@ -11146,7 +11448,7 @@
       <c r="F317" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="G317" s="137" t="s">
+      <c r="G317" s="112" t="s">
         <v>234</v>
       </c>
       <c r="H317" s="27" t="s">
@@ -11162,14 +11464,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
-      <c r="A318" s="131">
+    <row r="318" spans="1:13">
+      <c r="A318" s="174">
         <v>75</v>
       </c>
-      <c r="B318" s="131">
+      <c r="B318" s="174">
         <v>14</v>
       </c>
-      <c r="C318" s="131" t="s">
+      <c r="C318" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D318" s="67">
@@ -11189,10 +11491,10 @@
       <c r="J318" s="67"/>
       <c r="K318" s="91"/>
     </row>
-    <row r="319" spans="1:11">
-      <c r="A319" s="132"/>
-      <c r="B319" s="132"/>
-      <c r="C319" s="132"/>
+    <row r="319" spans="1:13">
+      <c r="A319" s="175"/>
+      <c r="B319" s="175"/>
+      <c r="C319" s="175"/>
       <c r="D319" s="2">
         <v>6</v>
       </c>
@@ -11206,10 +11508,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
-      <c r="A320" s="132"/>
-      <c r="B320" s="132"/>
-      <c r="C320" s="132"/>
+    <row r="320" spans="1:13">
+      <c r="A320" s="175"/>
+      <c r="B320" s="175"/>
+      <c r="C320" s="175"/>
       <c r="D320" s="2">
         <v>7</v>
       </c>
@@ -11220,10 +11522,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
-      <c r="A321" s="132"/>
-      <c r="B321" s="132"/>
-      <c r="C321" s="132"/>
+    <row r="321" spans="1:13">
+      <c r="A321" s="175"/>
+      <c r="B321" s="175"/>
+      <c r="C321" s="175"/>
       <c r="D321" s="2">
         <v>8</v>
       </c>
@@ -11237,10 +11539,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
-      <c r="A322" s="132"/>
-      <c r="B322" s="132"/>
-      <c r="C322" s="132"/>
+    <row r="322" spans="1:13">
+      <c r="A322" s="175"/>
+      <c r="B322" s="175"/>
+      <c r="C322" s="175"/>
       <c r="D322" s="2">
         <v>10</v>
       </c>
@@ -11251,10 +11553,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
-      <c r="A323" s="132"/>
-      <c r="B323" s="132"/>
-      <c r="C323" s="132"/>
+    <row r="323" spans="1:13">
+      <c r="A323" s="175"/>
+      <c r="B323" s="175"/>
+      <c r="C323" s="175"/>
       <c r="D323" s="2">
         <v>11</v>
       </c>
@@ -11264,11 +11566,14 @@
       <c r="G323" s="93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="324" spans="1:11">
-      <c r="A324" s="132"/>
-      <c r="B324" s="132"/>
-      <c r="C324" s="132"/>
+      <c r="M323" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
+      <c r="A324" s="175"/>
+      <c r="B324" s="175"/>
+      <c r="C324" s="175"/>
       <c r="D324" s="2">
         <v>12</v>
       </c>
@@ -11282,10 +11587,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
-      <c r="A325" s="132"/>
-      <c r="B325" s="132"/>
-      <c r="C325" s="132" t="s">
+    <row r="325" spans="1:13">
+      <c r="A325" s="175"/>
+      <c r="B325" s="175"/>
+      <c r="C325" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D325" s="2">
@@ -11307,10 +11612,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
-      <c r="A326" s="132"/>
-      <c r="B326" s="132"/>
-      <c r="C326" s="132"/>
+    <row r="326" spans="1:13">
+      <c r="A326" s="175"/>
+      <c r="B326" s="175"/>
+      <c r="C326" s="175"/>
       <c r="D326" s="2">
         <v>3</v>
       </c>
@@ -11330,10 +11635,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
-      <c r="A327" s="132"/>
-      <c r="B327" s="132"/>
-      <c r="C327" s="132"/>
+    <row r="327" spans="1:13">
+      <c r="A327" s="175"/>
+      <c r="B327" s="175"/>
+      <c r="C327" s="175"/>
       <c r="D327" s="2">
         <v>5</v>
       </c>
@@ -11347,11 +11652,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
-      <c r="A328" s="132"/>
-      <c r="B328" s="132"/>
-      <c r="C328" s="132"/>
-      <c r="D328" s="132">
+    <row r="328" spans="1:13">
+      <c r="A328" s="175"/>
+      <c r="B328" s="175"/>
+      <c r="C328" s="175"/>
+      <c r="D328" s="175">
         <v>9</v>
       </c>
       <c r="E328" s="2">
@@ -11373,11 +11678,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
-      <c r="A329" s="132"/>
-      <c r="B329" s="132"/>
-      <c r="C329" s="132"/>
-      <c r="D329" s="132"/>
+    <row r="329" spans="1:13">
+      <c r="A329" s="175"/>
+      <c r="B329" s="175"/>
+      <c r="C329" s="175"/>
+      <c r="D329" s="175"/>
       <c r="E329" s="2">
         <v>1</v>
       </c>
@@ -11397,11 +11702,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
-      <c r="A330" s="133"/>
-      <c r="B330" s="133"/>
-      <c r="C330" s="133"/>
-      <c r="D330" s="133"/>
+    <row r="330" spans="1:13">
+      <c r="A330" s="176"/>
+      <c r="B330" s="176"/>
+      <c r="C330" s="176"/>
+      <c r="D330" s="176"/>
       <c r="E330" s="27">
         <v>2</v>
       </c>
@@ -11424,14 +11729,14 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
-      <c r="A331" s="131">
+    <row r="331" spans="1:13">
+      <c r="A331" s="174">
         <v>76</v>
       </c>
-      <c r="B331" s="131">
+      <c r="B331" s="174">
         <v>22</v>
       </c>
-      <c r="C331" s="131" t="s">
+      <c r="C331" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D331" s="67">
@@ -11449,10 +11754,10 @@
       <c r="J331" s="67"/>
       <c r="K331" s="91"/>
     </row>
-    <row r="332" spans="1:11">
-      <c r="A332" s="132"/>
-      <c r="B332" s="132"/>
-      <c r="C332" s="132"/>
+    <row r="332" spans="1:13">
+      <c r="A332" s="175"/>
+      <c r="B332" s="175"/>
+      <c r="C332" s="175"/>
       <c r="D332" s="2">
         <v>4</v>
       </c>
@@ -11466,10 +11771,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
-      <c r="A333" s="132"/>
-      <c r="B333" s="132"/>
-      <c r="C333" s="132"/>
+    <row r="333" spans="1:13">
+      <c r="A333" s="175"/>
+      <c r="B333" s="175"/>
+      <c r="C333" s="175"/>
       <c r="D333" s="2">
         <v>5</v>
       </c>
@@ -11480,10 +11785,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
-      <c r="A334" s="132"/>
-      <c r="B334" s="132"/>
-      <c r="C334" s="132"/>
+    <row r="334" spans="1:13">
+      <c r="A334" s="175"/>
+      <c r="B334" s="175"/>
+      <c r="C334" s="175"/>
       <c r="D334" s="2">
         <v>9</v>
       </c>
@@ -11497,10 +11802,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
-      <c r="A335" s="132"/>
-      <c r="B335" s="132"/>
-      <c r="C335" s="132"/>
+    <row r="335" spans="1:13">
+      <c r="A335" s="175"/>
+      <c r="B335" s="175"/>
+      <c r="C335" s="175"/>
       <c r="D335" s="2">
         <v>13</v>
       </c>
@@ -11511,10 +11816,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
-      <c r="A336" s="132"/>
-      <c r="B336" s="132"/>
-      <c r="C336" s="132"/>
+    <row r="336" spans="1:13">
+      <c r="A336" s="175"/>
+      <c r="B336" s="175"/>
+      <c r="C336" s="175"/>
       <c r="D336" s="2">
         <v>14</v>
       </c>
@@ -11527,11 +11832,14 @@
       <c r="I336" s="104" t="s">
         <v>196</v>
       </c>
+      <c r="M336" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="337" spans="1:13">
-      <c r="A337" s="132"/>
-      <c r="B337" s="132"/>
-      <c r="C337" s="132" t="s">
+      <c r="A337" s="175"/>
+      <c r="B337" s="175"/>
+      <c r="C337" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D337" s="2">
@@ -11555,14 +11863,11 @@
       <c r="K337">
         <v>1500</v>
       </c>
-      <c r="M337" s="33">
-        <v>14</v>
-      </c>
     </row>
     <row r="338" spans="1:13">
-      <c r="A338" s="132"/>
-      <c r="B338" s="132"/>
-      <c r="C338" s="132"/>
+      <c r="A338" s="175"/>
+      <c r="B338" s="175"/>
+      <c r="C338" s="175"/>
       <c r="D338" s="2">
         <v>1</v>
       </c>
@@ -11575,14 +11880,11 @@
       <c r="I338" t="s">
         <v>197</v>
       </c>
-      <c r="M338" s="33">
-        <v>22</v>
-      </c>
     </row>
     <row r="339" spans="1:13">
-      <c r="A339" s="132"/>
-      <c r="B339" s="132"/>
-      <c r="C339" s="132"/>
+      <c r="A339" s="175"/>
+      <c r="B339" s="175"/>
+      <c r="C339" s="175"/>
       <c r="D339" s="2">
         <v>6</v>
       </c>
@@ -11591,15 +11893,12 @@
       <c r="I339" t="s">
         <v>199</v>
       </c>
-      <c r="M339" s="54">
-        <v>6</v>
-      </c>
     </row>
     <row r="340" spans="1:13">
-      <c r="A340" s="132"/>
-      <c r="B340" s="132"/>
-      <c r="C340" s="132"/>
-      <c r="D340" s="132">
+      <c r="A340" s="175"/>
+      <c r="B340" s="175"/>
+      <c r="C340" s="175"/>
+      <c r="D340" s="175">
         <v>7</v>
       </c>
       <c r="E340" s="2">
@@ -11614,21 +11913,21 @@
       <c r="H340" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J340" s="132" t="s">
+      <c r="J340" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="K340" s="132">
+      <c r="K340" s="175">
         <v>1000</v>
       </c>
-      <c r="M340" s="54">
-        <v>3</v>
+      <c r="M340" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:13">
-      <c r="A341" s="132"/>
-      <c r="B341" s="132"/>
-      <c r="C341" s="132"/>
-      <c r="D341" s="132"/>
+      <c r="A341" s="175"/>
+      <c r="B341" s="175"/>
+      <c r="C341" s="175"/>
+      <c r="D341" s="175"/>
       <c r="E341" s="2">
         <v>1</v>
       </c>
@@ -11641,17 +11940,14 @@
       <c r="I341" t="s">
         <v>198</v>
       </c>
-      <c r="J341" s="132"/>
-      <c r="K341" s="132"/>
-      <c r="M341" s="54">
-        <v>6</v>
-      </c>
+      <c r="J341" s="175"/>
+      <c r="K341" s="175"/>
     </row>
     <row r="342" spans="1:13">
-      <c r="A342" s="132"/>
-      <c r="B342" s="132"/>
-      <c r="C342" s="132"/>
-      <c r="D342" s="132">
+      <c r="A342" s="175"/>
+      <c r="B342" s="175"/>
+      <c r="C342" s="175"/>
+      <c r="D342" s="175">
         <v>8</v>
       </c>
       <c r="E342" s="2">
@@ -11663,21 +11959,18 @@
       <c r="G342" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="J342" s="132" t="s">
+      <c r="J342" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="K342" s="132">
+      <c r="K342" s="175">
         <v>1000</v>
       </c>
-      <c r="M342" s="85">
-        <v>4</v>
-      </c>
     </row>
     <row r="343" spans="1:13">
-      <c r="A343" s="132"/>
-      <c r="B343" s="132"/>
-      <c r="C343" s="132"/>
-      <c r="D343" s="132"/>
+      <c r="A343" s="175"/>
+      <c r="B343" s="175"/>
+      <c r="C343" s="175"/>
+      <c r="D343" s="175"/>
       <c r="E343" s="2">
         <v>1</v>
       </c>
@@ -11687,13 +11980,13 @@
       <c r="G343" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="J343" s="132"/>
-      <c r="K343" s="132"/>
+      <c r="J343" s="175"/>
+      <c r="K343" s="175"/>
     </row>
     <row r="344" spans="1:13">
-      <c r="A344" s="132"/>
-      <c r="B344" s="132"/>
-      <c r="C344" s="132"/>
+      <c r="A344" s="175"/>
+      <c r="B344" s="175"/>
+      <c r="C344" s="175"/>
       <c r="D344" s="2">
         <v>10</v>
       </c>
@@ -11708,9 +12001,9 @@
       </c>
     </row>
     <row r="345" spans="1:13">
-      <c r="A345" s="132"/>
-      <c r="B345" s="132"/>
-      <c r="C345" s="132"/>
+      <c r="A345" s="175"/>
+      <c r="B345" s="175"/>
+      <c r="C345" s="175"/>
       <c r="D345" s="2">
         <v>11</v>
       </c>
@@ -11722,9 +12015,9 @@
       </c>
     </row>
     <row r="346" spans="1:13">
-      <c r="A346" s="133"/>
-      <c r="B346" s="133"/>
-      <c r="C346" s="133"/>
+      <c r="A346" s="176"/>
+      <c r="B346" s="176"/>
+      <c r="C346" s="176"/>
       <c r="D346" s="27">
         <v>12</v>
       </c>
@@ -11743,13 +12036,13 @@
       <c r="K346" s="57"/>
     </row>
     <row r="347" spans="1:13">
-      <c r="A347" s="131">
+      <c r="A347" s="174">
         <v>67</v>
       </c>
-      <c r="B347" s="131">
+      <c r="B347" s="174">
         <v>6</v>
       </c>
-      <c r="C347" s="131" t="s">
+      <c r="C347" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D347" s="67">
@@ -11768,9 +12061,9 @@
       <c r="K347" s="91"/>
     </row>
     <row r="348" spans="1:13">
-      <c r="A348" s="132"/>
-      <c r="B348" s="132"/>
-      <c r="C348" s="132"/>
+      <c r="A348" s="175"/>
+      <c r="B348" s="175"/>
+      <c r="C348" s="175"/>
       <c r="D348" s="2">
         <v>2</v>
       </c>
@@ -11782,9 +12075,9 @@
       </c>
     </row>
     <row r="349" spans="1:13">
-      <c r="A349" s="132"/>
-      <c r="B349" s="132"/>
-      <c r="C349" s="132" t="s">
+      <c r="A349" s="175"/>
+      <c r="B349" s="175"/>
+      <c r="C349" s="175" t="s">
         <v>116</v>
       </c>
       <c r="D349" s="2">
@@ -11804,9 +12097,9 @@
       </c>
     </row>
     <row r="350" spans="1:13">
-      <c r="A350" s="132"/>
-      <c r="B350" s="132"/>
-      <c r="C350" s="132"/>
+      <c r="A350" s="175"/>
+      <c r="B350" s="175"/>
+      <c r="C350" s="175"/>
       <c r="D350" s="2">
         <v>4</v>
       </c>
@@ -11824,9 +12117,9 @@
       </c>
     </row>
     <row r="351" spans="1:13">
-      <c r="A351" s="133"/>
-      <c r="B351" s="133"/>
-      <c r="C351" s="133"/>
+      <c r="A351" s="176"/>
+      <c r="B351" s="176"/>
+      <c r="C351" s="176"/>
       <c r="D351" s="27">
         <v>5</v>
       </c>
@@ -11845,13 +12138,13 @@
       <c r="K351" s="57"/>
     </row>
     <row r="352" spans="1:13">
-      <c r="A352" s="131">
+      <c r="A352" s="174">
         <v>68</v>
       </c>
-      <c r="B352" s="131">
+      <c r="B352" s="174">
         <v>3</v>
       </c>
-      <c r="C352" s="131" t="s">
+      <c r="C352" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D352" s="67">
@@ -11869,10 +12162,10 @@
       <c r="J352" s="67"/>
       <c r="K352" s="91"/>
     </row>
-    <row r="353" spans="1:11">
-      <c r="A353" s="132"/>
-      <c r="B353" s="132"/>
-      <c r="C353" s="132"/>
+    <row r="353" spans="1:13">
+      <c r="A353" s="175"/>
+      <c r="B353" s="175"/>
+      <c r="C353" s="175"/>
       <c r="D353" s="2">
         <v>3</v>
       </c>
@@ -11885,10 +12178,13 @@
       <c r="I353" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="354" spans="1:11">
-      <c r="A354" s="133"/>
-      <c r="B354" s="133"/>
+      <c r="M353" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13">
+      <c r="A354" s="176"/>
+      <c r="B354" s="176"/>
       <c r="C354" s="27" t="s">
         <v>116</v>
       </c>
@@ -11911,14 +12207,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
-      <c r="A355" s="131">
+    <row r="355" spans="1:13">
+      <c r="A355" s="174">
         <v>69</v>
       </c>
-      <c r="B355" s="131">
+      <c r="B355" s="174">
         <v>6</v>
       </c>
-      <c r="C355" s="131" t="s">
+      <c r="C355" s="174" t="s">
         <v>115</v>
       </c>
       <c r="D355" s="67">
@@ -11936,10 +12232,10 @@
       <c r="J355" s="67"/>
       <c r="K355" s="91"/>
     </row>
-    <row r="356" spans="1:11">
-      <c r="A356" s="132"/>
-      <c r="B356" s="132"/>
-      <c r="C356" s="132"/>
+    <row r="356" spans="1:13">
+      <c r="A356" s="175"/>
+      <c r="B356" s="175"/>
+      <c r="C356" s="175"/>
       <c r="D356" s="2">
         <v>2</v>
       </c>
@@ -11950,10 +12246,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
-      <c r="A357" s="132"/>
-      <c r="B357" s="132"/>
-      <c r="C357" s="132"/>
+    <row r="357" spans="1:13">
+      <c r="A357" s="175"/>
+      <c r="B357" s="175"/>
+      <c r="C357" s="175"/>
       <c r="D357" s="2">
         <v>4</v>
       </c>
@@ -11964,13 +12260,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
-      <c r="A358" s="132"/>
-      <c r="B358" s="132"/>
-      <c r="C358" s="132" t="s">
+    <row r="358" spans="1:13">
+      <c r="A358" s="175"/>
+      <c r="B358" s="175"/>
+      <c r="C358" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D358" s="132">
+      <c r="D358" s="175">
         <v>0</v>
       </c>
       <c r="E358" s="2">
@@ -11983,11 +12279,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
-      <c r="A359" s="132"/>
-      <c r="B359" s="132"/>
-      <c r="C359" s="132"/>
-      <c r="D359" s="132"/>
+    <row r="359" spans="1:13">
+      <c r="A359" s="175"/>
+      <c r="B359" s="175"/>
+      <c r="C359" s="175"/>
+      <c r="D359" s="175"/>
       <c r="E359" s="2">
         <v>1</v>
       </c>
@@ -12007,10 +12303,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
-      <c r="A360" s="133"/>
-      <c r="B360" s="133"/>
-      <c r="C360" s="133"/>
+    <row r="360" spans="1:13">
+      <c r="A360" s="176"/>
+      <c r="B360" s="176"/>
+      <c r="C360" s="176"/>
       <c r="D360" s="27">
         <v>3</v>
       </c>
@@ -12030,11 +12326,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
-      <c r="A361" s="131">
+    <row r="361" spans="1:13">
+      <c r="A361" s="174">
         <v>70</v>
       </c>
-      <c r="B361" s="131">
+      <c r="B361" s="174">
         <v>4</v>
       </c>
       <c r="C361" s="67" t="s">
@@ -12055,13 +12351,13 @@
       <c r="J361" s="67"/>
       <c r="K361" s="91"/>
     </row>
-    <row r="362" spans="1:11">
-      <c r="A362" s="132"/>
-      <c r="B362" s="132"/>
-      <c r="C362" s="132" t="s">
+    <row r="362" spans="1:13">
+      <c r="A362" s="175"/>
+      <c r="B362" s="175"/>
+      <c r="C362" s="175" t="s">
         <v>116</v>
       </c>
-      <c r="D362" s="132">
+      <c r="D362" s="175">
         <v>0</v>
       </c>
       <c r="E362" s="2">
@@ -12080,11 +12376,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
-      <c r="A363" s="132"/>
-      <c r="B363" s="132"/>
-      <c r="C363" s="132"/>
-      <c r="D363" s="132"/>
+    <row r="363" spans="1:13">
+      <c r="A363" s="175"/>
+      <c r="B363" s="175"/>
+      <c r="C363" s="175"/>
+      <c r="D363" s="175"/>
       <c r="E363" s="2">
         <v>1</v>
       </c>
@@ -12101,10 +12397,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
-      <c r="A364" s="133"/>
-      <c r="B364" s="133"/>
-      <c r="C364" s="133"/>
+    <row r="364" spans="1:13">
+      <c r="A364" s="176"/>
+      <c r="B364" s="176"/>
+      <c r="C364" s="176"/>
       <c r="D364" s="27">
         <v>1</v>
       </c>
@@ -12245,6 +12541,8 @@
     <mergeCell ref="B129:B139"/>
     <mergeCell ref="B160:B173"/>
     <mergeCell ref="B140:B159"/>
+    <mergeCell ref="B58:B72"/>
+    <mergeCell ref="B73:B82"/>
     <mergeCell ref="J138:J139"/>
     <mergeCell ref="K138:K139"/>
     <mergeCell ref="C138:C139"/>
@@ -12261,16 +12559,6 @@
     <mergeCell ref="D98:D99"/>
     <mergeCell ref="A91:A102"/>
     <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A40:A57"/>
-    <mergeCell ref="A58:A72"/>
-    <mergeCell ref="C58:C72"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B40:B57"/>
-    <mergeCell ref="B58:B72"/>
-    <mergeCell ref="B73:B82"/>
     <mergeCell ref="B83:B90"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C10:C15"/>
@@ -12288,6 +12576,13 @@
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B32:B39"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A40:A57"/>
+    <mergeCell ref="A58:A72"/>
+    <mergeCell ref="C58:C72"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="A73:A82"/>
+    <mergeCell ref="C81:C82"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C9"/>
@@ -12297,6 +12592,7 @@
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="C32:C39"/>
     <mergeCell ref="C40:C54"/>
+    <mergeCell ref="B40:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12342,7 +12638,7 @@
       <c r="B2" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="138">
+      <c r="C2" s="113">
         <v>0.48541666666666666</v>
       </c>
       <c r="D2" s="8">
@@ -12359,7 +12655,7 @@
       <c r="B3" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C3" s="139">
+      <c r="C3" s="114">
         <v>0.47500000000000003</v>
       </c>
       <c r="D3" s="8">
@@ -12376,7 +12672,7 @@
       <c r="B4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="113">
         <v>0.47847222222222219</v>
       </c>
       <c r="D4" s="8">
@@ -12393,7 +12689,7 @@
       <c r="B5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="138">
+      <c r="C5" s="113">
         <v>0.48333333333333334</v>
       </c>
       <c r="D5" s="8">
@@ -12410,7 +12706,7 @@
       <c r="B6" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="113">
         <v>0.56041666666666667</v>
       </c>
       <c r="D6" s="8">
@@ -12427,7 +12723,7 @@
       <c r="B7" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="113">
         <v>0.55555555555555558</v>
       </c>
       <c r="D7" s="8">
@@ -12444,7 +12740,7 @@
       <c r="B8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="138">
+      <c r="C8" s="113">
         <v>0.45277777777777778</v>
       </c>
       <c r="D8" s="8">
@@ -12461,7 +12757,7 @@
       <c r="B9" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="138">
+      <c r="C9" s="113">
         <v>0.46388888888888885</v>
       </c>
       <c r="D9" s="8">
@@ -12478,7 +12774,7 @@
       <c r="B10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="113">
         <v>0.46597222222222223</v>
       </c>
       <c r="D10" s="8">
@@ -12495,7 +12791,7 @@
       <c r="B11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="113">
         <v>0.46875</v>
       </c>
       <c r="D11" s="8">
@@ -12512,7 +12808,7 @@
       <c r="B12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="139">
+      <c r="C12" s="114">
         <v>0.57638888888888895</v>
       </c>
       <c r="D12" s="8">
@@ -12529,7 +12825,7 @@
       <c r="B13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C13" s="139">
+      <c r="C13" s="114">
         <v>0.57847222222222217</v>
       </c>
       <c r="D13" s="8">
@@ -12546,7 +12842,7 @@
       <c r="B14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="138">
+      <c r="C14" s="113">
         <v>0.44930555555555557</v>
       </c>
       <c r="D14" s="8">
@@ -12563,7 +12859,7 @@
       <c r="B15" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="113">
         <v>0.44375000000000003</v>
       </c>
       <c r="D15" s="8">
@@ -12580,7 +12876,7 @@
       <c r="B16" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="113">
         <v>0.4381944444444445</v>
       </c>
       <c r="D16" s="8">
@@ -12597,7 +12893,7 @@
       <c r="B17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C17" s="138">
+      <c r="C17" s="113">
         <v>0.44097222222222227</v>
       </c>
       <c r="D17" s="8">
@@ -12614,7 +12910,7 @@
       <c r="B18" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C18" s="113">
         <v>0.44305555555555554</v>
       </c>
       <c r="D18" s="8">
@@ -12631,7 +12927,7 @@
       <c r="B19" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="139">
+      <c r="C19" s="114">
         <v>0.58124999999999993</v>
       </c>
       <c r="D19" s="8">
@@ -12648,7 +12944,7 @@
       <c r="B20" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C20" s="139">
+      <c r="C20" s="114">
         <v>0.58333333333333337</v>
       </c>
       <c r="D20" s="8">
@@ -12665,7 +12961,7 @@
       <c r="B21" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C21" s="139">
+      <c r="C21" s="114">
         <v>0.59166666666666667</v>
       </c>
       <c r="D21" s="8">
@@ -12682,7 +12978,7 @@
       <c r="B22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="139">
+      <c r="C22" s="114">
         <v>0.59513888888888888</v>
       </c>
       <c r="D22" s="8">
@@ -12699,7 +12995,7 @@
       <c r="B23" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="138">
+      <c r="C23" s="113">
         <v>0.5625</v>
       </c>
       <c r="D23" s="8">
@@ -12716,7 +13012,7 @@
       <c r="B24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C24" s="138">
+      <c r="C24" s="113">
         <v>0.56458333333333333</v>
       </c>
       <c r="D24" s="8">
@@ -12733,7 +13029,7 @@
       <c r="B25" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="138">
+      <c r="C25" s="113">
         <v>0.56736111111111109</v>
       </c>
       <c r="D25" s="8">
@@ -12750,7 +13046,7 @@
       <c r="B26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C26" s="138">
+      <c r="C26" s="113">
         <v>0.56944444444444442</v>
       </c>
       <c r="D26" s="8">
@@ -12767,7 +13063,7 @@
       <c r="B27" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="139">
+      <c r="C27" s="114">
         <v>0.59791666666666665</v>
       </c>
       <c r="D27" s="8">
@@ -12784,7 +13080,7 @@
       <c r="B28" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="139">
+      <c r="C28" s="114">
         <v>0.6020833333333333</v>
       </c>
       <c r="D28" s="8">
@@ -12801,10 +13097,10 @@
       <c r="B29" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C29" s="138">
+      <c r="C29" s="113">
         <v>0.57152777777777775</v>
       </c>
-      <c r="D29" s="141">
+      <c r="D29" s="116">
         <v>6</v>
       </c>
       <c r="E29" s="4">
@@ -12818,10 +13114,10 @@
       <c r="B30" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C30" s="138">
+      <c r="C30" s="113">
         <v>0.57430555555555551</v>
       </c>
-      <c r="D30" s="141">
+      <c r="D30" s="116">
         <v>3</v>
       </c>
       <c r="E30" s="4">
@@ -12835,10 +13131,10 @@
       <c r="B31" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="138">
+      <c r="C31" s="113">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D31" s="141">
+      <c r="D31" s="116">
         <v>6</v>
       </c>
       <c r="E31" s="4">
@@ -12852,10 +13148,10 @@
       <c r="B32" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="138">
+      <c r="C32" s="113">
         <v>0.57847222222222217</v>
       </c>
-      <c r="D32" s="141">
+      <c r="D32" s="116">
         <v>4</v>
       </c>
       <c r="E32" s="4">
@@ -12869,7 +13165,7 @@
       <c r="B34" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C34" s="139">
+      <c r="C34" s="114">
         <v>0.47500000000000003</v>
       </c>
       <c r="D34" s="8">
@@ -12886,7 +13182,7 @@
       <c r="B35" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="138">
+      <c r="C35" s="113">
         <v>0.47847222222222219</v>
       </c>
       <c r="D35" s="8">
@@ -12903,7 +13199,7 @@
       <c r="B36" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="138">
+      <c r="C36" s="113">
         <v>0.48055555555555557</v>
       </c>
       <c r="D36" s="8">
@@ -12920,7 +13216,7 @@
       <c r="B37" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="138">
+      <c r="C37" s="113">
         <v>0.48333333333333334</v>
       </c>
       <c r="D37" s="8">
@@ -12937,7 +13233,7 @@
       <c r="B38" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="138">
+      <c r="C38" s="113">
         <v>0.56041666666666667</v>
       </c>
       <c r="D38" s="8">
@@ -12954,7 +13250,7 @@
       <c r="B39" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C39" s="138">
+      <c r="C39" s="113">
         <v>0.55555555555555558</v>
       </c>
       <c r="D39" s="8">
@@ -12971,7 +13267,7 @@
       <c r="B40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C40" s="138">
+      <c r="C40" s="113">
         <v>0.45277777777777778</v>
       </c>
       <c r="D40" s="8">
@@ -12988,7 +13284,7 @@
       <c r="B41" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C41" s="138">
+      <c r="C41" s="113">
         <v>0.46388888888888885</v>
       </c>
       <c r="D41" s="8">
@@ -13005,7 +13301,7 @@
       <c r="B42" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C42" s="138">
+      <c r="C42" s="113">
         <v>0.46597222222222223</v>
       </c>
       <c r="D42" s="8">
@@ -13022,7 +13318,7 @@
       <c r="B43" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C43" s="138">
+      <c r="C43" s="113">
         <v>0.46875</v>
       </c>
       <c r="D43" s="8">
@@ -13039,7 +13335,7 @@
       <c r="B44" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C44" s="139">
+      <c r="C44" s="114">
         <v>0.57638888888888895</v>
       </c>
       <c r="D44" s="8">
@@ -13056,7 +13352,7 @@
       <c r="B45" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C45" s="139">
+      <c r="C45" s="114">
         <v>0.57847222222222217</v>
       </c>
       <c r="D45" s="8">
@@ -13073,7 +13369,7 @@
       <c r="B46" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C46" s="138">
+      <c r="C46" s="113">
         <v>0.44375000000000003</v>
       </c>
       <c r="D46" s="8">
@@ -13090,7 +13386,7 @@
       <c r="B47" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C47" s="138">
+      <c r="C47" s="113">
         <v>0.4381944444444445</v>
       </c>
       <c r="D47" s="8">
@@ -13107,7 +13403,7 @@
       <c r="B48" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="138">
+      <c r="C48" s="113">
         <v>0.44097222222222227</v>
       </c>
       <c r="D48" s="8">
@@ -13124,7 +13420,7 @@
       <c r="B49" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C49" s="138">
+      <c r="C49" s="113">
         <v>0.44305555555555554</v>
       </c>
       <c r="D49" s="8">
@@ -13141,7 +13437,7 @@
       <c r="B50" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C50" s="139">
+      <c r="C50" s="114">
         <v>0.58124999999999993</v>
       </c>
       <c r="D50" s="8">
@@ -13158,7 +13454,7 @@
       <c r="B51" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C51" s="139">
+      <c r="C51" s="114">
         <v>0.58333333333333337</v>
       </c>
       <c r="D51" s="8">
@@ -13175,7 +13471,7 @@
       <c r="B52" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C52" s="139">
+      <c r="C52" s="114">
         <v>0.59166666666666667</v>
       </c>
       <c r="D52" s="8">
@@ -13192,7 +13488,7 @@
       <c r="B53" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C53" s="139">
+      <c r="C53" s="114">
         <v>0.59513888888888888</v>
       </c>
       <c r="D53" s="8">
@@ -13209,7 +13505,7 @@
       <c r="B54" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C54" s="138">
+      <c r="C54" s="113">
         <v>0.5625</v>
       </c>
       <c r="D54" s="8">
@@ -13226,7 +13522,7 @@
       <c r="B55" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C55" s="138">
+      <c r="C55" s="113">
         <v>0.56458333333333333</v>
       </c>
       <c r="D55" s="8">
@@ -13243,7 +13539,7 @@
       <c r="B56" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C56" s="138">
+      <c r="C56" s="113">
         <v>0.56736111111111109</v>
       </c>
       <c r="D56" s="8">
@@ -13260,7 +13556,7 @@
       <c r="B57" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C57" s="138">
+      <c r="C57" s="113">
         <v>0.56944444444444442</v>
       </c>
       <c r="D57" s="8">
@@ -13277,7 +13573,7 @@
       <c r="B58" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C58" s="139">
+      <c r="C58" s="114">
         <v>0.59791666666666665</v>
       </c>
       <c r="D58" s="8">
@@ -13294,7 +13590,7 @@
       <c r="B59" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C59" s="139">
+      <c r="C59" s="114">
         <v>0.6020833333333333</v>
       </c>
       <c r="D59" s="8">
@@ -13311,10 +13607,10 @@
       <c r="B60" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="138">
+      <c r="C60" s="113">
         <v>0.57152777777777775</v>
       </c>
-      <c r="D60" s="141">
+      <c r="D60" s="116">
         <v>6</v>
       </c>
       <c r="E60" s="4">
@@ -13328,10 +13624,10 @@
       <c r="B61" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C61" s="138">
+      <c r="C61" s="113">
         <v>0.57430555555555551</v>
       </c>
-      <c r="D61" s="141">
+      <c r="D61" s="116">
         <v>3</v>
       </c>
       <c r="E61" s="4">
@@ -13345,10 +13641,10 @@
       <c r="B62" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C62" s="138">
+      <c r="C62" s="113">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D62" s="141">
+      <c r="D62" s="116">
         <v>6</v>
       </c>
       <c r="E62" s="4">
@@ -13362,10 +13658,10 @@
       <c r="B63" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C63" s="138">
+      <c r="C63" s="113">
         <v>0.57847222222222217</v>
       </c>
-      <c r="D63" s="141">
+      <c r="D63" s="116">
         <v>4</v>
       </c>
       <c r="E63" s="4">
@@ -13382,8 +13678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C414EB-314C-1447-BD53-B41381616B3B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13392,7 +13688,7 @@
       <c r="A1" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="119" t="s">
         <v>308</v>
       </c>
       <c r="C1" s="94" t="s">
@@ -13409,102 +13705,102 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="121" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="149">
+      <c r="C2" s="122">
         <v>0.47500000000000003</v>
       </c>
-      <c r="D2" s="150">
+      <c r="D2" s="123">
         <v>9</v>
       </c>
-      <c r="E2" s="151">
+      <c r="E2" s="124">
         <v>7</v>
       </c>
-      <c r="F2" s="152">
+      <c r="F2" s="125">
         <v>24440346</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="155">
+      <c r="C3" s="128">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D3" s="156">
+      <c r="D3" s="129">
         <v>7</v>
       </c>
-      <c r="E3" s="157">
+      <c r="E3" s="130">
         <v>6</v>
       </c>
-      <c r="F3" s="158">
+      <c r="F3" s="131">
         <v>12595230</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="160">
+      <c r="C4" s="133">
         <v>0.48055555555555557</v>
       </c>
-      <c r="D4" s="161">
+      <c r="D4" s="134">
         <v>6</v>
       </c>
       <c r="E4" s="93">
         <v>5</v>
       </c>
-      <c r="F4" s="162">
+      <c r="F4" s="135">
         <v>7392240</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="163">
+      <c r="C5" s="136">
         <v>0.48333333333333334</v>
       </c>
-      <c r="D5" s="150">
+      <c r="D5" s="123">
         <v>8</v>
       </c>
-      <c r="E5" s="151">
+      <c r="E5" s="124">
         <v>5</v>
       </c>
-      <c r="F5" s="158">
+      <c r="F5" s="131">
         <v>6080108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="126" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="128">
         <v>0.56041666666666667</v>
       </c>
-      <c r="D6" s="156">
+      <c r="D6" s="129">
         <v>21</v>
       </c>
-      <c r="E6" s="157">
+      <c r="E6" s="130">
         <v>11</v>
       </c>
-      <c r="F6" s="158">
+      <c r="F6" s="131">
         <v>4785128</v>
       </c>
     </row>
@@ -13512,499 +13808,499 @@
       <c r="A7" s="108" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="155">
+      <c r="C7" s="128">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D7" s="156">
+      <c r="D7" s="129">
         <v>15</v>
       </c>
-      <c r="E7" s="157">
+      <c r="E7" s="130">
         <v>12</v>
       </c>
-      <c r="F7" s="164">
+      <c r="F7" s="137">
         <v>4767068</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="155">
+      <c r="C8" s="128">
         <v>0.45277777777777778</v>
       </c>
-      <c r="D8" s="156">
+      <c r="D8" s="129">
         <v>10</v>
       </c>
-      <c r="E8" s="157">
+      <c r="E8" s="130">
         <v>7</v>
       </c>
-      <c r="F8" s="165">
+      <c r="F8" s="138">
         <v>24416927</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="155">
+      <c r="C9" s="128">
         <v>0.46388888888888885</v>
       </c>
-      <c r="D9" s="156">
+      <c r="D9" s="129">
         <v>8</v>
       </c>
-      <c r="E9" s="157">
+      <c r="E9" s="130">
         <v>8</v>
       </c>
-      <c r="F9" s="165">
+      <c r="F9" s="138">
         <v>12607817</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="155">
+      <c r="C10" s="128">
         <v>0.46597222222222223</v>
       </c>
-      <c r="D10" s="156">
+      <c r="D10" s="129">
         <v>12</v>
       </c>
-      <c r="E10" s="157">
+      <c r="E10" s="130">
         <v>8</v>
       </c>
-      <c r="F10" s="158">
+      <c r="F10" s="131">
         <v>8733047</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="127" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="155">
+      <c r="C11" s="128">
         <v>0.46875</v>
       </c>
-      <c r="D11" s="156">
+      <c r="D11" s="129">
         <v>13</v>
       </c>
-      <c r="E11" s="157">
+      <c r="E11" s="130">
         <v>11</v>
       </c>
-      <c r="F11" s="158">
+      <c r="F11" s="131">
         <v>6079424</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="127" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="166">
+      <c r="C12" s="139">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D12" s="156">
+      <c r="D12" s="129">
         <v>15</v>
       </c>
-      <c r="E12" s="157">
+      <c r="E12" s="130">
         <v>10</v>
       </c>
-      <c r="F12" s="167">
+      <c r="F12" s="140">
         <v>4832600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="C13" s="166">
+      <c r="C13" s="139">
         <v>0.57847222222222217</v>
       </c>
-      <c r="D13" s="156">
+      <c r="D13" s="129">
         <v>11</v>
       </c>
-      <c r="E13" s="157">
+      <c r="E13" s="130">
         <v>11</v>
       </c>
-      <c r="F13" s="167">
+      <c r="F13" s="140">
         <v>4799865</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="126" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="127" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="155">
+      <c r="C14" s="128">
         <v>0.44375000000000003</v>
       </c>
-      <c r="D14" s="156">
+      <c r="D14" s="129">
         <v>14</v>
       </c>
-      <c r="E14" s="157">
+      <c r="E14" s="130">
         <v>8</v>
       </c>
-      <c r="F14" s="167">
+      <c r="F14" s="140">
         <v>24462393</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="155">
+      <c r="C15" s="128">
         <v>0.4381944444444445</v>
       </c>
-      <c r="D15" s="156">
+      <c r="D15" s="129">
         <v>16</v>
       </c>
-      <c r="E15" s="157">
+      <c r="E15" s="130">
         <v>11</v>
       </c>
-      <c r="F15" s="167">
+      <c r="F15" s="140">
         <v>12586462</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="155">
+      <c r="C16" s="128">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D16" s="156">
+      <c r="D16" s="129">
         <v>25</v>
       </c>
-      <c r="E16" s="157">
+      <c r="E16" s="130">
         <v>12</v>
       </c>
-      <c r="F16" s="167">
+      <c r="F16" s="140">
         <v>8673967</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="126" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="127" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="155">
+      <c r="C17" s="128">
         <v>0.44305555555555554</v>
       </c>
-      <c r="D17" s="156">
+      <c r="D17" s="129">
         <v>22</v>
       </c>
-      <c r="E17" s="157">
+      <c r="E17" s="130">
         <v>15</v>
       </c>
-      <c r="F17" s="167">
+      <c r="F17" s="140">
         <v>6070894</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="127" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="166">
+      <c r="C18" s="139">
         <v>0.58124999999999993</v>
       </c>
-      <c r="D18" s="156">
+      <c r="D18" s="129">
         <v>9</v>
       </c>
-      <c r="E18" s="157">
+      <c r="E18" s="130">
         <v>7</v>
       </c>
-      <c r="F18" s="167">
+      <c r="F18" s="140">
         <v>4815630</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="166">
+      <c r="C19" s="139">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D19" s="156">
+      <c r="D19" s="129">
         <v>13</v>
       </c>
-      <c r="E19" s="157">
+      <c r="E19" s="130">
         <v>9</v>
       </c>
-      <c r="F19" s="168">
+      <c r="F19" s="141">
         <v>4137491</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="127" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="166">
+      <c r="C20" s="139">
         <v>0.59166666666666667</v>
       </c>
-      <c r="D20" s="156">
+      <c r="D20" s="129">
         <v>12</v>
       </c>
-      <c r="E20" s="157">
+      <c r="E20" s="130">
         <v>9</v>
       </c>
-      <c r="F20" s="167">
+      <c r="F20" s="140">
         <v>24596495</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="153" t="s">
+      <c r="A21" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="166">
+      <c r="C21" s="139">
         <v>0.59513888888888888</v>
       </c>
-      <c r="D21" s="156">
+      <c r="D21" s="129">
         <v>9</v>
       </c>
-      <c r="E21" s="157">
+      <c r="E21" s="130">
         <v>7</v>
       </c>
-      <c r="F21" s="167">
+      <c r="F21" s="140">
         <v>12664327</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="155">
+      <c r="C22" s="128">
         <v>0.5625</v>
       </c>
-      <c r="D22" s="156">
+      <c r="D22" s="129">
         <v>9</v>
       </c>
-      <c r="E22" s="157">
+      <c r="E22" s="130">
         <v>7</v>
       </c>
-      <c r="F22" s="167">
+      <c r="F22" s="140">
         <v>9407985</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="126" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="127" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="155">
+      <c r="C23" s="128">
         <v>0.56458333333333333</v>
       </c>
-      <c r="D23" s="156">
+      <c r="D23" s="129">
         <v>11</v>
       </c>
-      <c r="E23" s="157">
+      <c r="E23" s="130">
         <v>7</v>
       </c>
-      <c r="F23" s="167">
+      <c r="F23" s="140">
         <v>6081659</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="126" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="127" t="s">
         <v>300</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="128">
         <v>0.56736111111111109</v>
       </c>
-      <c r="D24" s="156">
+      <c r="D24" s="129">
         <v>13</v>
       </c>
-      <c r="E24" s="157">
+      <c r="E24" s="130">
         <v>9</v>
       </c>
-      <c r="F24" s="167">
+      <c r="F24" s="140">
         <v>4762674</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="B25" s="154" t="s">
+      <c r="B25" s="127" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="155">
+      <c r="C25" s="128">
         <v>0.56944444444444442</v>
       </c>
-      <c r="D25" s="156">
+      <c r="D25" s="129">
         <v>10</v>
       </c>
-      <c r="E25" s="157">
+      <c r="E25" s="130">
         <v>8</v>
       </c>
-      <c r="F25" s="168">
+      <c r="F25" s="141">
         <v>4106299</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="127" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="166">
+      <c r="C26" s="139">
         <v>0.59791666666666665</v>
       </c>
-      <c r="D26" s="156">
+      <c r="D26" s="129">
         <v>14</v>
       </c>
-      <c r="E26" s="157">
+      <c r="E26" s="130">
         <v>7</v>
       </c>
-      <c r="F26" s="167">
+      <c r="F26" s="140">
         <v>21962197</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="153" t="s">
+      <c r="A27" s="126" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="127" t="s">
         <v>303</v>
       </c>
-      <c r="C27" s="166">
+      <c r="C27" s="139">
         <v>0.6020833333333333</v>
       </c>
-      <c r="D27" s="156">
+      <c r="D27" s="129">
         <v>22</v>
       </c>
-      <c r="E27" s="157">
+      <c r="E27" s="130">
         <v>7</v>
       </c>
-      <c r="F27" s="167">
+      <c r="F27" s="140">
         <v>11341832</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="127" t="s">
         <v>304</v>
       </c>
-      <c r="C28" s="155">
+      <c r="C28" s="128">
         <v>0.57152777777777775</v>
       </c>
-      <c r="D28" s="169">
+      <c r="D28" s="142">
         <v>6</v>
       </c>
-      <c r="E28" s="157">
+      <c r="E28" s="130">
         <v>4</v>
       </c>
-      <c r="F28" s="167">
+      <c r="F28" s="140">
         <v>7765033</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="153" t="s">
+      <c r="A29" s="126" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="127" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="155">
+      <c r="C29" s="128">
         <v>0.57430555555555551</v>
       </c>
-      <c r="D29" s="169">
+      <c r="D29" s="142">
         <v>3</v>
       </c>
-      <c r="E29" s="157">
+      <c r="E29" s="130">
         <v>3</v>
       </c>
-      <c r="F29" s="167">
+      <c r="F29" s="140">
         <v>5422402</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="153" t="s">
+      <c r="A30" s="126" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="127" t="s">
         <v>306</v>
       </c>
-      <c r="C30" s="155">
+      <c r="C30" s="128">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D30" s="169">
+      <c r="D30" s="142">
         <v>6</v>
       </c>
-      <c r="E30" s="157">
+      <c r="E30" s="130">
         <v>5</v>
       </c>
-      <c r="F30" s="167">
+      <c r="F30" s="140">
         <v>4246847</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="153" t="s">
+      <c r="A31" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="127" t="s">
         <v>307</v>
       </c>
-      <c r="C31" s="155">
+      <c r="C31" s="128">
         <v>0.57847222222222217</v>
       </c>
-      <c r="D31" s="169">
+      <c r="D31" s="142">
         <v>4</v>
       </c>
-      <c r="E31" s="157">
+      <c r="E31" s="130">
         <v>4</v>
       </c>
-      <c r="F31" s="168">
+      <c r="F31" s="141">
         <v>4291886</v>
       </c>
     </row>
@@ -14015,10 +14311,925 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B21A9D-C639-0945-8448-D0352EE2026C}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="76">
+      <c r="A1" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="149" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="151" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="149" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" s="150" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="122">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="D2" s="4">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="145" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="146" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="128">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="D3" s="4">
+        <v>55.6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>55.3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="132" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="133">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="D4" s="4">
+        <v>57.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>56</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="136">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D5" s="4">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4">
+        <v>55.8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17">
+      <c r="A6" s="126" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="128">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="D6" s="147">
+        <v>54.7</v>
+      </c>
+      <c r="E6" s="147">
+        <v>54.3</v>
+      </c>
+      <c r="F6" s="147">
+        <v>17.8</v>
+      </c>
+      <c r="G6" s="147">
+        <v>29</v>
+      </c>
+      <c r="H6" s="147">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="147" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17">
+      <c r="A7" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="128">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D7" s="147">
+        <v>54.5</v>
+      </c>
+      <c r="E7" s="147">
+        <v>54.1</v>
+      </c>
+      <c r="F7" s="147">
+        <v>16.3</v>
+      </c>
+      <c r="G7" s="147">
+        <v>33</v>
+      </c>
+      <c r="H7" s="147">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="147" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="128">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D8" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>51.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="145" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="146" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="128">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="D9" s="4">
+        <v>55</v>
+      </c>
+      <c r="E9" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="126" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="128">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="D10" s="4">
+        <v>55.6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>54.8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="128">
+        <v>0.46875</v>
+      </c>
+      <c r="D11" s="4">
+        <v>55.3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17">
+      <c r="A12" s="126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="139">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D12" s="147">
+        <v>51</v>
+      </c>
+      <c r="E12" s="147">
+        <v>50.9</v>
+      </c>
+      <c r="F12" s="147">
+        <v>18.7</v>
+      </c>
+      <c r="G12" s="147">
+        <v>27</v>
+      </c>
+      <c r="H12" s="147">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="147" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17">
+      <c r="A13" s="126" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="127" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="139">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="D13" s="147">
+        <v>51.1</v>
+      </c>
+      <c r="E13" s="147">
+        <v>50.8</v>
+      </c>
+      <c r="F13" s="147">
+        <v>18.8</v>
+      </c>
+      <c r="G13" s="147">
+        <v>27</v>
+      </c>
+      <c r="H13" s="147">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="147" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="126" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="128">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="D14" s="4">
+        <v>48.6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>48.2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="126" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="128">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="D15" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="E15" s="4">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>28</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="126" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="128">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D16" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>28</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="126" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="128">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="D17" s="4">
+        <v>46.8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <v>28</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17">
+      <c r="A18" s="126" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="139">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="D18" s="147">
+        <v>50.2</v>
+      </c>
+      <c r="E18" s="147">
+        <v>50</v>
+      </c>
+      <c r="F18" s="147">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G18" s="147">
+        <v>27</v>
+      </c>
+      <c r="H18" s="147">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="147" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17">
+      <c r="A19" s="126" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="139">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="147">
+        <v>49.8</v>
+      </c>
+      <c r="E19" s="147">
+        <v>49.4</v>
+      </c>
+      <c r="F19" s="147">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G19" s="147">
+        <v>27</v>
+      </c>
+      <c r="H19" s="147">
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="147" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17">
+      <c r="A20" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="139">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="D20" s="147">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E20" s="147">
+        <v>37.4</v>
+      </c>
+      <c r="F20" s="147">
+        <v>13.3</v>
+      </c>
+      <c r="G20" s="147">
+        <v>28</v>
+      </c>
+      <c r="H20" s="147">
+        <v>3.1</v>
+      </c>
+      <c r="I20" s="147" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17">
+      <c r="A21" s="126" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="139">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="D21" s="147">
+        <v>36.6</v>
+      </c>
+      <c r="E21" s="147">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F21" s="147">
+        <v>13.2</v>
+      </c>
+      <c r="G21" s="147">
+        <v>28</v>
+      </c>
+      <c r="H21" s="147">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I21" s="147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="126" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="128">
+        <v>0.5625</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45.8</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="F22" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="G22" s="4">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="126" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="127" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="128">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>44.8</v>
+      </c>
+      <c r="F23" s="4">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4">
+        <v>25</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="126" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="128">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43.8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>26</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="126" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="128">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45.6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45.1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>26</v>
+      </c>
+      <c r="H25" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17">
+      <c r="A26" s="126" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="139">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="D26" s="147">
+        <v>36.5</v>
+      </c>
+      <c r="E26" s="147">
+        <v>36.1</v>
+      </c>
+      <c r="F26" s="147">
+        <v>13.3</v>
+      </c>
+      <c r="G26" s="147">
+        <v>28</v>
+      </c>
+      <c r="H26" s="147">
+        <v>2.1</v>
+      </c>
+      <c r="I26" s="147" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17">
+      <c r="A27" s="126" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="139">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="D27" s="147">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E27" s="147">
+        <v>35.6</v>
+      </c>
+      <c r="F27" s="147">
+        <v>13.7</v>
+      </c>
+      <c r="G27" s="147">
+        <v>28</v>
+      </c>
+      <c r="H27" s="147">
+        <v>2.9</v>
+      </c>
+      <c r="I27" s="147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="126" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="127" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="128">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="F28" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="G28" s="4">
+        <v>26</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="126" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="127" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="128">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43.2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>15</v>
+      </c>
+      <c r="G29" s="4">
+        <v>26</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="126" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="127" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="128">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43.3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="G30" s="4">
+        <v>27</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="126" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="128">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43.4</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43.1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="G31" s="4">
+        <v>27</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE624C5-53D1-6A40-A7F2-C7FD6EE39DA0}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -14057,7 +15268,7 @@
       <c r="B2" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="139">
+      <c r="C2" s="114">
         <v>0.47500000000000003</v>
       </c>
       <c r="D2" s="8">
@@ -14091,7 +15302,7 @@
       <c r="B3" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="113">
         <v>0.47847222222222219</v>
       </c>
       <c r="D3" s="8">
@@ -14119,7 +15330,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="118" t="s">
         <v>310</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -14128,10 +15339,10 @@
       <c r="C4" s="87">
         <v>0.48055555555555557</v>
       </c>
-      <c r="D4" s="144">
+      <c r="D4" s="9">
         <v>6</v>
       </c>
-      <c r="E4" s="145">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="17">
@@ -14159,7 +15370,7 @@
       <c r="B5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="138">
+      <c r="C5" s="113">
         <v>0.48333333333333334</v>
       </c>
       <c r="D5" s="8">
@@ -14193,7 +15404,7 @@
       <c r="B6" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="113">
         <v>0.56041666666666667</v>
       </c>
       <c r="D6" s="8">
@@ -14227,7 +15438,7 @@
       <c r="B7" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="113">
         <v>0.55555555555555558</v>
       </c>
       <c r="D7" s="8">
@@ -14261,7 +15472,7 @@
       <c r="B8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="138">
+      <c r="C8" s="113">
         <v>0.45277777777777778</v>
       </c>
       <c r="D8" s="8">
@@ -14293,7 +15504,7 @@
       <c r="B9" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="138">
+      <c r="C9" s="113">
         <v>0.46388888888888885</v>
       </c>
       <c r="D9" s="8">
@@ -14325,7 +15536,7 @@
       <c r="B10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="113">
         <v>0.46597222222222223</v>
       </c>
       <c r="D10" s="8">
@@ -14359,7 +15570,7 @@
       <c r="B11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C11" s="113">
         <v>0.46875</v>
       </c>
       <c r="D11" s="8">
@@ -14393,7 +15604,7 @@
       <c r="B12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="139">
+      <c r="C12" s="114">
         <v>0.57638888888888895</v>
       </c>
       <c r="D12" s="8">
@@ -14429,7 +15640,7 @@
       <c r="B13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C13" s="139">
+      <c r="C13" s="114">
         <v>0.57847222222222217</v>
       </c>
       <c r="D13" s="8">
@@ -14465,7 +15676,7 @@
       <c r="B14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="138">
+      <c r="C14" s="113">
         <v>0.44375000000000003</v>
       </c>
       <c r="D14" s="8">
@@ -14497,7 +15708,7 @@
       <c r="B15" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="113">
         <v>0.4381944444444445</v>
       </c>
       <c r="D15" s="8">
@@ -14531,7 +15742,7 @@
       <c r="B16" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="113">
         <v>0.44097222222222227</v>
       </c>
       <c r="D16" s="8">
@@ -14565,7 +15776,7 @@
       <c r="B17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="138">
+      <c r="C17" s="113">
         <v>0.44305555555555554</v>
       </c>
       <c r="D17" s="8">
@@ -14599,7 +15810,7 @@
       <c r="B18" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="139">
+      <c r="C18" s="114">
         <v>0.58124999999999993</v>
       </c>
       <c r="D18" s="8">
@@ -14635,7 +15846,7 @@
       <c r="B19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="139">
+      <c r="C19" s="114">
         <v>0.58333333333333337</v>
       </c>
       <c r="D19" s="8">
@@ -14671,7 +15882,7 @@
       <c r="B20" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="139">
+      <c r="C20" s="114">
         <v>0.59166666666666667</v>
       </c>
       <c r="D20" s="8">
@@ -14703,7 +15914,7 @@
       <c r="B21" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="139">
+      <c r="C21" s="114">
         <v>0.59513888888888888</v>
       </c>
       <c r="D21" s="8">
@@ -14735,7 +15946,7 @@
       <c r="B22" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="138">
+      <c r="C22" s="113">
         <v>0.5625</v>
       </c>
       <c r="D22" s="8">
@@ -14769,7 +15980,7 @@
       <c r="B23" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="138">
+      <c r="C23" s="113">
         <v>0.56458333333333333</v>
       </c>
       <c r="D23" s="8">
@@ -14803,7 +16014,7 @@
       <c r="B24" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C24" s="138">
+      <c r="C24" s="113">
         <v>0.56736111111111109</v>
       </c>
       <c r="D24" s="8">
@@ -14837,7 +16048,7 @@
       <c r="B25" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="138">
+      <c r="C25" s="113">
         <v>0.56944444444444442</v>
       </c>
       <c r="D25" s="8">
@@ -14871,7 +16082,7 @@
       <c r="B26" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="139">
+      <c r="C26" s="114">
         <v>0.59791666666666665</v>
       </c>
       <c r="D26" s="8">
@@ -14905,7 +16116,7 @@
       <c r="B27" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C27" s="139">
+      <c r="C27" s="114">
         <v>0.6020833333333333</v>
       </c>
       <c r="D27" s="8">
@@ -14939,10 +16150,10 @@
       <c r="B28" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C28" s="138">
+      <c r="C28" s="113">
         <v>0.57152777777777775</v>
       </c>
-      <c r="D28" s="141">
+      <c r="D28" s="116">
         <v>6</v>
       </c>
       <c r="E28" s="4">
@@ -14973,10 +16184,10 @@
       <c r="B29" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="138">
+      <c r="C29" s="113">
         <v>0.57430555555555551</v>
       </c>
-      <c r="D29" s="141">
+      <c r="D29" s="116">
         <v>3</v>
       </c>
       <c r="E29" s="4">
@@ -15007,10 +16218,10 @@
       <c r="B30" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C30" s="138">
+      <c r="C30" s="113">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D30" s="141">
+      <c r="D30" s="116">
         <v>6</v>
       </c>
       <c r="E30" s="4">
@@ -15041,10 +16252,10 @@
       <c r="B31" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C31" s="138">
+      <c r="C31" s="113">
         <v>0.57847222222222217</v>
       </c>
-      <c r="D31" s="141">
+      <c r="D31" s="116">
         <v>4</v>
       </c>
       <c r="E31" s="4">
@@ -15069,7 +16280,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="C32" s="142"/>
+      <c r="C32" s="117"/>
       <c r="K32" s="8">
         <v>69</v>
       </c>
@@ -15086,7 +16297,7 @@
       <c r="B34" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C34" s="139">
+      <c r="C34" s="114">
         <v>0.5541666666666667</v>
       </c>
       <c r="D34" s="79">
@@ -15113,10 +16324,10 @@
       <c r="B35" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="139">
+      <c r="C35" s="114">
         <v>0.55833333333333335</v>
       </c>
-      <c r="D35" s="140">
+      <c r="D35" s="115">
         <v>21</v>
       </c>
       <c r="H35" t="s">
@@ -15140,7 +16351,7 @@
       <c r="B36" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="138">
+      <c r="C36" s="113">
         <v>0.44930555555555557</v>
       </c>
       <c r="D36" s="8">
@@ -15169,7 +16380,7 @@
       <c r="B37" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="138">
+      <c r="C37" s="113">
         <v>0.48541666666666666</v>
       </c>
       <c r="D37" s="8">

--- a/data-result/flight-result-segment.xlsx
+++ b/data-result/flight-result-segment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C24DE2-D4E9-BE48-943C-D80EBD293CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA4E85-B25D-F940-9615-881C34CB59F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{1F2A6636-F2B4-D94A-95E1-54753800CFD8}"/>
+    <workbookView xWindow="3520" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{1F2A6636-F2B4-D94A-95E1-54753800CFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="flights_sta" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="489">
   <si>
     <t>velocity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2383,6 +2383,34 @@
   </si>
   <si>
     <t>12.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左扭头严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有建筑噪音需要再过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面监测不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑 需要再过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动噪音依然存在需要在背部处理时候降低0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑还存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3840,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205A50B-3692-CE4C-9FBA-528FD68D4826}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6859,13 +6887,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F50920-10AA-FA43-834E-62930F0FDD71}">
-  <dimension ref="A1:S430"/>
+  <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D388" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E407" sqref="E407"/>
+      <selection pane="bottomRight" activeCell="J393" sqref="J393:K395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14251,7 +14279,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="385" spans="1:19">
+    <row r="385" spans="1:20">
       <c r="A385" s="183"/>
       <c r="B385" s="183"/>
       <c r="C385" s="67" t="s">
@@ -14275,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:19">
+    <row r="386" spans="1:20">
       <c r="A386" s="183"/>
       <c r="B386" s="183"/>
       <c r="C386" s="67" t="s">
@@ -14305,7 +14333,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" spans="1:19">
+    <row r="387" spans="1:20">
       <c r="A387" s="183"/>
       <c r="B387" s="183"/>
       <c r="C387" s="67" t="s">
@@ -14332,7 +14360,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:19">
+    <row r="388" spans="1:20">
       <c r="A388" s="181"/>
       <c r="B388" s="181"/>
       <c r="C388" s="154" t="s">
@@ -14356,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:19">
+    <row r="389" spans="1:20">
       <c r="A389" s="91" t="s">
         <v>449</v>
       </c>
@@ -14385,7 +14413,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="390" spans="1:19">
+    <row r="390" spans="1:20">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390" s="67" t="s">
@@ -14409,7 +14437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:19">
+    <row r="391" spans="1:20">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391" s="67" t="s">
@@ -14434,7 +14462,7 @@
       </c>
       <c r="P391" s="6"/>
     </row>
-    <row r="392" spans="1:19">
+    <row r="392" spans="1:20">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392" s="67" t="s">
@@ -14458,7 +14486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:19">
+    <row r="393" spans="1:20">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393" s="27" t="s">
@@ -14493,7 +14521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="394" spans="1:19">
+    <row r="394" spans="1:20">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394" s="27" t="s">
@@ -14515,7 +14543,7 @@
       <c r="O394" s="6"/>
       <c r="P394" s="6"/>
     </row>
-    <row r="395" spans="1:19">
+    <row r="395" spans="1:20">
       <c r="A395" s="57"/>
       <c r="B395" s="57"/>
       <c r="C395" s="27" t="s">
@@ -14551,7 +14579,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="396" spans="1:19">
+    <row r="396" spans="1:20">
       <c r="A396" t="s">
         <v>452</v>
       </c>
@@ -14577,7 +14605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:19">
+    <row r="397" spans="1:20">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397" s="67" t="s">
@@ -14602,7 +14630,7 @@
       </c>
       <c r="P397" s="6"/>
     </row>
-    <row r="398" spans="1:19">
+    <row r="398" spans="1:20">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398" s="67" t="s">
@@ -14629,7 +14657,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="399" spans="1:19">
+    <row r="399" spans="1:20">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399" s="67" t="s">
@@ -14652,8 +14680,11 @@
       <c r="P399" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:19">
+      <c r="T399" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400" s="67" t="s">
@@ -19483,10 +19514,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF4EAB-54B9-3640-9096-1767C2CEEE17}">
-  <dimension ref="A1:N319"/>
+  <dimension ref="A1:S319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="P308" sqref="P308"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="S294" sqref="S294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26962,7 +26993,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:19">
       <c r="A273" s="204" t="s">
         <v>446</v>
       </c>
@@ -26993,7 +27024,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:19">
       <c r="A274" s="183"/>
       <c r="B274" s="183"/>
       <c r="C274" s="67" t="s">
@@ -27016,7 +27047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:19">
       <c r="A275" s="183"/>
       <c r="B275" s="183"/>
       <c r="C275" s="67" t="s">
@@ -27045,7 +27076,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:19">
       <c r="A276" s="183"/>
       <c r="B276" s="183"/>
       <c r="C276" s="67" t="s">
@@ -27071,7 +27102,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:19">
       <c r="A277" s="181"/>
       <c r="B277" s="181"/>
       <c r="C277" s="154" t="s">
@@ -27095,7 +27126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:19">
       <c r="A278" s="91" t="s">
         <v>449</v>
       </c>
@@ -27124,7 +27155,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:19">
       <c r="C279" s="67" t="s">
         <v>115</v>
       </c>
@@ -27144,8 +27175,11 @@
       <c r="J279" s="171">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:13">
+      <c r="O279" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19">
       <c r="C280" s="67" t="s">
         <v>115</v>
       </c>
@@ -27167,7 +27201,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:19">
       <c r="C281" s="67" t="s">
         <v>115</v>
       </c>
@@ -27188,7 +27222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:19">
       <c r="C282" s="27" t="s">
         <v>116</v>
       </c>
@@ -27213,8 +27247,14 @@
       <c r="K282" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="283" spans="1:13">
+      <c r="Q282" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="R282" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19">
       <c r="C283" s="27" t="s">
         <v>116</v>
       </c>
@@ -27233,7 +27273,7 @@
       <c r="I283" s="171"/>
       <c r="J283" s="171"/>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:19">
       <c r="A284" s="57"/>
       <c r="B284" s="57"/>
       <c r="C284" s="27" t="s">
@@ -27264,8 +27304,17 @@
       <c r="M284" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
+      <c r="O284" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q284" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="R284" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19">
       <c r="A285" t="s">
         <v>452</v>
       </c>
@@ -27288,8 +27337,9 @@
       <c r="J285" s="171">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
+      <c r="S285" s="2"/>
+    </row>
+    <row r="286" spans="1:19">
       <c r="C286" s="67" t="s">
         <v>115</v>
       </c>
@@ -27311,7 +27361,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:19">
       <c r="C287" s="67" t="s">
         <v>115</v>
       </c>
@@ -27335,7 +27385,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:19">
       <c r="C288" s="67" t="s">
         <v>115</v>
       </c>
@@ -27356,7 +27406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:15">
       <c r="C289" s="67" t="s">
         <v>115</v>
       </c>
@@ -27380,7 +27430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:15">
       <c r="C290" s="67" t="s">
         <v>115</v>
       </c>
@@ -27404,7 +27454,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:15">
       <c r="A291" s="57"/>
       <c r="B291" s="57"/>
       <c r="C291" s="27" t="s">
@@ -27427,7 +27477,7 @@
         <v>472</v>
       </c>
       <c r="J291" s="173" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K291" t="s">
         <v>145</v>
@@ -27436,7 +27486,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:15">
       <c r="A292" t="s">
         <v>453</v>
       </c>
@@ -27463,7 +27513,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:15">
       <c r="C293" s="67" t="s">
         <v>115</v>
       </c>
@@ -27484,7 +27534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:15">
       <c r="C294" s="67" t="s">
         <v>115</v>
       </c>
@@ -27505,7 +27555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:15">
       <c r="C295" s="67" t="s">
         <v>115</v>
       </c>
@@ -27528,8 +27578,11 @@
       <c r="L295" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="296" spans="1:13">
+      <c r="O295" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
       <c r="C296" s="27" t="s">
         <v>116</v>
       </c>
@@ -27555,7 +27608,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:15">
       <c r="C297" s="27" t="s">
         <v>116</v>
       </c>
@@ -27577,7 +27630,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:15">
       <c r="C298" s="27" t="s">
         <v>116</v>
       </c>
@@ -27603,7 +27656,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:15">
       <c r="A299" s="57"/>
       <c r="B299" s="57"/>
       <c r="C299" s="27" t="s">
@@ -27632,7 +27685,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:15">
       <c r="A300" s="91" t="s">
         <v>454</v>
       </c>
@@ -27663,7 +27716,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:15">
       <c r="C301" s="2" t="s">
         <v>115</v>
       </c>
@@ -27687,7 +27740,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:15">
       <c r="C302" s="2" t="s">
         <v>115</v>
       </c>
@@ -27708,7 +27761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:15">
       <c r="C303" s="2" t="s">
         <v>115</v>
       </c>
@@ -27725,14 +27778,14 @@
       <c r="I303" s="171">
         <v>10</v>
       </c>
-      <c r="J303" s="171">
-        <v>0</v>
+      <c r="J303" s="171" t="s">
+        <v>466</v>
       </c>
       <c r="M303" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:15">
       <c r="C304" s="2" t="s">
         <v>115</v>
       </c>
@@ -27754,7 +27807,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:15">
       <c r="C305" s="2" t="s">
         <v>115</v>
       </c>
@@ -27776,7 +27829,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:15">
       <c r="C306" s="2" t="s">
         <v>116</v>
       </c>
@@ -27798,8 +27851,11 @@
       <c r="J306" s="171" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="307" spans="1:13">
+      <c r="K306" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15">
       <c r="C307" s="2" t="s">
         <v>116</v>
       </c>
@@ -27821,8 +27877,11 @@
       <c r="J307" s="171" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="308" spans="1:13">
+      <c r="K307" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
       <c r="A308" s="57"/>
       <c r="B308" s="57"/>
       <c r="C308" s="27" t="s">
@@ -27847,8 +27906,11 @@
       <c r="J308" s="173" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="309" spans="1:13">
+      <c r="K308" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15">
       <c r="A309" s="91" t="s">
         <v>458</v>
       </c>
@@ -27877,7 +27939,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:15">
       <c r="C310" s="2" t="s">
         <v>115</v>
       </c>
@@ -27901,7 +27963,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:15">
       <c r="C311" s="2" t="s">
         <v>115</v>
       </c>
@@ -27924,8 +27986,11 @@
       <c r="M311" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="312" spans="1:13">
+      <c r="O311" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15">
       <c r="C312" s="2" t="s">
         <v>115</v>
       </c>
@@ -27946,7 +28011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:15">
       <c r="C313" s="2" t="s">
         <v>115</v>
       </c>
@@ -27970,7 +28035,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:15">
       <c r="C314" s="2" t="s">
         <v>115</v>
       </c>
@@ -27992,7 +28057,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:15">
       <c r="C315" s="2" t="s">
         <v>115</v>
       </c>
@@ -28016,7 +28081,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:15">
       <c r="C316" s="2" t="s">
         <v>115</v>
       </c>
@@ -28033,14 +28098,14 @@
       <c r="I316" s="171">
         <v>14</v>
       </c>
-      <c r="J316" s="171">
-        <v>0</v>
+      <c r="J316" s="171" t="s">
+        <v>466</v>
       </c>
       <c r="M316" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:15">
       <c r="C317" s="2" t="s">
         <v>116</v>
       </c>
@@ -28063,7 +28128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:15">
       <c r="C318" s="2" t="s">
         <v>116</v>
       </c>
@@ -28086,7 +28151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:15">
       <c r="A319" s="57"/>
       <c r="B319" s="57"/>
       <c r="C319" s="27" t="s">
@@ -28110,6 +28175,9 @@
       </c>
       <c r="J319" s="173">
         <v>1</v>
+      </c>
+      <c r="O319" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data-result/flight-result-segment.xlsx
+++ b/data-result/flight-result-segment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA4E85-B25D-F940-9615-881C34CB59F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39AF10C-0A64-8747-9FA1-3CFC37DC3991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{1F2A6636-F2B4-D94A-95E1-54753800CFD8}"/>
+    <workbookView xWindow="14120" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{1F2A6636-F2B4-D94A-95E1-54753800CFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="flights_sta" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="489">
   <si>
     <t>velocity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3306,6 +3306,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3333,32 +3357,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3366,11 +3366,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3868,7 +3868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205A50B-3692-CE4C-9FBA-528FD68D4826}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="125" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -3898,23 +3898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
     </row>
     <row r="2" spans="1:24" ht="20">
       <c r="D2"/>
@@ -3927,20 +3927,20 @@
       <c r="W2" s="175"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="193" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="190"/>
-      <c r="F3" s="191"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
       <c r="G3" s="174" t="s">
         <v>20</v>
       </c>
@@ -3948,16 +3948,16 @@
         <v>55</v>
       </c>
       <c r="I3" s="176"/>
-      <c r="J3" s="184" t="s">
+      <c r="J3" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="185" t="s">
+      <c r="K3" s="193"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="185"/>
-      <c r="O3" s="187"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="195"/>
       <c r="P3" s="174" t="s">
         <v>15</v>
       </c>
@@ -3967,20 +3967,20 @@
         <v>61</v>
       </c>
       <c r="T3" s="176"/>
-      <c r="U3" s="192" t="s">
+      <c r="U3" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="192" t="s">
+      <c r="V3" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="192" t="s">
+      <c r="W3" s="186" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A4" s="189"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="176"/>
-      <c r="C4" s="189"/>
+      <c r="C4" s="197"/>
       <c r="D4" s="3">
         <v>44935</v>
       </c>
@@ -3990,7 +3990,7 @@
       <c r="F4" s="155" t="s">
         <v>372</v>
       </c>
-      <c r="G4" s="188"/>
+      <c r="G4" s="196"/>
       <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
@@ -4030,17 +4030,17 @@
       <c r="T4" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="197" t="s">
+      <c r="U4" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
+      <c r="V4" s="187"/>
+      <c r="W4" s="187"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="87">
         <v>0.48541666666666666</v>
       </c>
-      <c r="B5" s="198">
+      <c r="B5" s="188">
         <v>8</v>
       </c>
       <c r="C5" s="29">
@@ -4106,7 +4106,7 @@
       <c r="A6" s="88">
         <v>0.47500000000000003</v>
       </c>
-      <c r="B6" s="199"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="21">
         <v>1</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="A7" s="87">
         <v>0.47847222222222219</v>
       </c>
-      <c r="B7" s="199"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="8">
         <v>2</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="A8" s="87">
         <v>0.48055555555555557</v>
       </c>
-      <c r="B8" s="199"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="11">
         <v>3</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="A9" s="87">
         <v>0.48333333333333334</v>
       </c>
-      <c r="B9" s="199"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="8">
         <v>5</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="A10" s="88">
         <v>0.55833333333333335</v>
       </c>
-      <c r="B10" s="199"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="8">
         <v>7</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="A11" s="87">
         <v>0.56041666666666667</v>
       </c>
-      <c r="B11" s="199"/>
+      <c r="B11" s="189"/>
       <c r="C11" s="29">
         <v>7</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="A12" s="88">
         <v>0.5541666666666667</v>
       </c>
-      <c r="B12" s="199"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="11">
         <v>9</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="A13" s="87">
         <v>0.55555555555555558</v>
       </c>
-      <c r="B13" s="200"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="29">
         <v>9</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="A14" s="87">
         <v>0.45277777777777778</v>
       </c>
-      <c r="B14" s="198">
+      <c r="B14" s="188">
         <v>10</v>
       </c>
       <c r="C14" s="29">
@@ -4670,7 +4670,7 @@
       <c r="A15" s="87">
         <v>0.46388888888888885</v>
       </c>
-      <c r="B15" s="199"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="8">
         <v>2</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="A16" s="87">
         <v>0.46597222222222223</v>
       </c>
-      <c r="B16" s="199"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="8">
         <v>3</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="A17" s="87">
         <v>0.46875</v>
       </c>
-      <c r="B17" s="199"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="8">
         <v>5</v>
       </c>
@@ -4863,7 +4863,7 @@
       <c r="A18" s="88">
         <v>0.57638888888888895</v>
       </c>
-      <c r="B18" s="199"/>
+      <c r="B18" s="189"/>
       <c r="C18" s="8">
         <v>7</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="A19" s="88">
         <v>0.57847222222222217</v>
       </c>
-      <c r="B19" s="200"/>
+      <c r="B19" s="190"/>
       <c r="C19" s="8">
         <v>9</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="A20" s="87">
         <v>0.44930555555555557</v>
       </c>
-      <c r="B20" s="198">
+      <c r="B20" s="188">
         <v>15</v>
       </c>
       <c r="C20" s="8">
@@ -5060,7 +5060,7 @@
       <c r="A21" s="87">
         <v>0.44375000000000003</v>
       </c>
-      <c r="B21" s="199"/>
+      <c r="B21" s="189"/>
       <c r="C21" s="8">
         <v>1</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="A22" s="87">
         <v>0.4381944444444445</v>
       </c>
-      <c r="B22" s="199"/>
+      <c r="B22" s="189"/>
       <c r="C22" s="8">
         <v>2</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="A23" s="87">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B23" s="199"/>
+      <c r="B23" s="189"/>
       <c r="C23" s="8">
         <v>3</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="A24" s="87">
         <v>0.44305555555555554</v>
       </c>
-      <c r="B24" s="199"/>
+      <c r="B24" s="189"/>
       <c r="C24" s="8">
         <v>5</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="A25" s="88">
         <v>0.58124999999999993</v>
       </c>
-      <c r="B25" s="199"/>
+      <c r="B25" s="189"/>
       <c r="C25" s="8">
         <v>7</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="A26" s="88">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B26" s="200"/>
+      <c r="B26" s="190"/>
       <c r="C26" s="8">
         <v>9</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="A39" s="162">
         <v>0.78194444444444444</v>
       </c>
-      <c r="B39" s="194">
+      <c r="B39" s="183">
         <v>8</v>
       </c>
       <c r="C39" s="147">
@@ -6291,7 +6291,7 @@
       <c r="A40" s="162">
         <v>0.78333333333333333</v>
       </c>
-      <c r="B40" s="195"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="147">
         <v>5</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="A41" s="162">
         <v>0.78680555555555554</v>
       </c>
-      <c r="B41" s="195"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="147">
         <v>3</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="A42" s="162">
         <v>0.78819444444444453</v>
       </c>
-      <c r="B42" s="195"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="147">
         <v>5</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="A43" s="162">
         <v>0.7895833333333333</v>
       </c>
-      <c r="B43" s="196">
+      <c r="B43" s="185">
         <v>15</v>
       </c>
       <c r="C43" s="147">
@@ -6518,7 +6518,7 @@
       <c r="A44" s="162">
         <v>0.79027777777777775</v>
       </c>
-      <c r="B44" s="196"/>
+      <c r="B44" s="185"/>
       <c r="C44" s="147">
         <v>5</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="A45" s="162">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B45" s="196">
+      <c r="B45" s="185">
         <v>10</v>
       </c>
       <c r="C45" s="147">
@@ -6632,7 +6632,7 @@
       <c r="A46" s="162">
         <v>0.79305555555555562</v>
       </c>
-      <c r="B46" s="196"/>
+      <c r="B46" s="185"/>
       <c r="C46" s="147">
         <v>5</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="A47" s="162">
         <v>0.7944444444444444</v>
       </c>
-      <c r="B47" s="196">
+      <c r="B47" s="185">
         <v>8</v>
       </c>
       <c r="C47" s="147">
@@ -6748,7 +6748,7 @@
       <c r="A48" s="162">
         <v>0.79583333333333339</v>
       </c>
-      <c r="B48" s="196"/>
+      <c r="B48" s="185"/>
       <c r="C48" s="147">
         <v>5</v>
       </c>
@@ -6855,6 +6855,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
@@ -6870,15 +6879,6 @@
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6889,11 +6889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F50920-10AA-FA43-834E-62930F0FDD71}">
   <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D382" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D388" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J393" sqref="J393:K395"/>
+      <selection pane="bottomRight" activeCell="H401" sqref="H401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6907,10 +6907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="F1" s="203" t="s">
+      <c r="F1" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="203"/>
+      <c r="G1" s="204"/>
     </row>
     <row r="2" spans="1:13" ht="20">
       <c r="A2" s="3" t="s">
@@ -7025,7 +7025,7 @@
       <c r="H6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="183" t="s">
+      <c r="I6" s="191" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
       <c r="H7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="183"/>
+      <c r="I7" s="191"/>
       <c r="J7" s="2">
         <v>0.03</v>
       </c>
@@ -7075,9 +7075,9 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="203"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
       <c r="D9" s="27">
         <v>8</v>
       </c>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="202"/>
-      <c r="B18" s="203"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="202"/>
       <c r="D18" s="2">
         <v>8</v>
@@ -7375,8 +7375,8 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="203"/>
-      <c r="B25" s="203"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="27" t="s">
         <v>116</v>
       </c>
@@ -7508,9 +7508,9 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="203"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="203"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="204"/>
       <c r="D31" s="27">
         <v>6</v>
       </c>
@@ -7656,9 +7656,9 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="203"/>
-      <c r="B39" s="203"/>
-      <c r="C39" s="203"/>
+      <c r="A39" s="204"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="204"/>
       <c r="D39" s="27">
         <v>11</v>
       </c>
@@ -7965,9 +7965,9 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="203"/>
-      <c r="B57" s="203"/>
-      <c r="C57" s="203"/>
+      <c r="A57" s="204"/>
+      <c r="B57" s="204"/>
+      <c r="C57" s="204"/>
       <c r="D57" s="27">
         <v>9</v>
       </c>
@@ -8219,9 +8219,9 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="203"/>
-      <c r="B72" s="203"/>
-      <c r="C72" s="203"/>
+      <c r="A72" s="204"/>
+      <c r="B72" s="204"/>
+      <c r="C72" s="204"/>
       <c r="D72" s="27">
         <v>14</v>
       </c>
@@ -8402,9 +8402,9 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="203"/>
-      <c r="B82" s="203"/>
-      <c r="C82" s="203"/>
+      <c r="A82" s="204"/>
+      <c r="B82" s="204"/>
+      <c r="C82" s="204"/>
       <c r="D82" s="27">
         <v>8</v>
       </c>
@@ -8567,9 +8567,9 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="203"/>
-      <c r="B90" s="203"/>
-      <c r="C90" s="203"/>
+      <c r="A90" s="204"/>
+      <c r="B90" s="204"/>
+      <c r="C90" s="204"/>
       <c r="D90" s="27">
         <v>8</v>
       </c>
@@ -8801,9 +8801,9 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="203"/>
-      <c r="B102" s="203"/>
-      <c r="C102" s="203"/>
+      <c r="A102" s="204"/>
+      <c r="B102" s="204"/>
+      <c r="C102" s="204"/>
       <c r="D102" s="27">
         <v>7</v>
       </c>
@@ -9001,8 +9001,8 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="203"/>
-      <c r="B114" s="203"/>
+      <c r="A114" s="204"/>
+      <c r="B114" s="204"/>
       <c r="C114" s="27" t="s">
         <v>116</v>
       </c>
@@ -9257,9 +9257,9 @@
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="203"/>
-      <c r="B128" s="203"/>
-      <c r="C128" s="203"/>
+      <c r="A128" s="204"/>
+      <c r="B128" s="204"/>
+      <c r="C128" s="204"/>
       <c r="D128" s="27">
         <v>4</v>
       </c>
@@ -9467,10 +9467,10 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="203"/>
-      <c r="B139" s="203"/>
-      <c r="C139" s="203"/>
-      <c r="D139" s="203"/>
+      <c r="A139" s="204"/>
+      <c r="B139" s="204"/>
+      <c r="C139" s="204"/>
+      <c r="D139" s="204"/>
       <c r="E139" s="27">
         <v>1</v>
       </c>
@@ -9482,8 +9482,8 @@
       </c>
       <c r="H139" s="27"/>
       <c r="I139" s="57"/>
-      <c r="J139" s="203"/>
-      <c r="K139" s="203"/>
+      <c r="J139" s="204"/>
+      <c r="K139" s="204"/>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="201">
@@ -9831,10 +9831,10 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="203"/>
-      <c r="B159" s="203"/>
-      <c r="C159" s="203"/>
-      <c r="D159" s="203"/>
+      <c r="A159" s="204"/>
+      <c r="B159" s="204"/>
+      <c r="C159" s="204"/>
+      <c r="D159" s="204"/>
       <c r="E159" s="27">
         <v>1</v>
       </c>
@@ -10117,10 +10117,10 @@
       </c>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="203"/>
-      <c r="B173" s="203"/>
-      <c r="C173" s="203"/>
-      <c r="D173" s="203"/>
+      <c r="A173" s="204"/>
+      <c r="B173" s="204"/>
+      <c r="C173" s="204"/>
+      <c r="D173" s="204"/>
       <c r="E173" s="27">
         <v>1</v>
       </c>
@@ -10429,10 +10429,10 @@
       </c>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="203"/>
-      <c r="B189" s="203"/>
-      <c r="C189" s="203"/>
-      <c r="D189" s="203"/>
+      <c r="A189" s="204"/>
+      <c r="B189" s="204"/>
+      <c r="C189" s="204"/>
+      <c r="D189" s="204"/>
       <c r="E189" s="27">
         <v>1</v>
       </c>
@@ -10446,8 +10446,8 @@
       <c r="I189" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="J189" s="203"/>
-      <c r="K189" s="203">
+      <c r="J189" s="204"/>
+      <c r="K189" s="204">
         <v>3000</v>
       </c>
     </row>
@@ -10704,9 +10704,9 @@
       </c>
     </row>
     <row r="208" spans="1:13">
-      <c r="A208" s="203"/>
-      <c r="B208" s="203"/>
-      <c r="C208" s="203"/>
+      <c r="A208" s="204"/>
+      <c r="B208" s="204"/>
+      <c r="C208" s="204"/>
       <c r="D208" s="27">
         <v>20</v>
       </c>
@@ -11097,10 +11097,10 @@
       </c>
     </row>
     <row r="230" spans="1:13">
-      <c r="A230" s="203"/>
-      <c r="B230" s="203"/>
-      <c r="C230" s="203"/>
-      <c r="D230" s="203"/>
+      <c r="A230" s="204"/>
+      <c r="B230" s="204"/>
+      <c r="C230" s="204"/>
+      <c r="D230" s="204"/>
       <c r="E230" s="27">
         <v>1</v>
       </c>
@@ -11267,9 +11267,9 @@
       <c r="K238" s="202"/>
     </row>
     <row r="239" spans="1:13">
-      <c r="A239" s="203"/>
-      <c r="B239" s="203"/>
-      <c r="C239" s="203"/>
+      <c r="A239" s="204"/>
+      <c r="B239" s="204"/>
+      <c r="C239" s="204"/>
       <c r="D239" s="27">
         <v>10</v>
       </c>
@@ -11519,10 +11519,10 @@
       </c>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="203"/>
-      <c r="B252" s="203"/>
-      <c r="C252" s="203"/>
-      <c r="D252" s="203"/>
+      <c r="A252" s="204"/>
+      <c r="B252" s="204"/>
+      <c r="C252" s="204"/>
+      <c r="D252" s="204"/>
       <c r="E252" s="27">
         <v>1</v>
       </c>
@@ -11760,9 +11760,9 @@
       </c>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="203"/>
-      <c r="B264" s="203"/>
-      <c r="C264" s="203"/>
+      <c r="A264" s="204"/>
+      <c r="B264" s="204"/>
+      <c r="C264" s="204"/>
       <c r="D264" s="27">
         <v>12</v>
       </c>
@@ -11975,10 +11975,10 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="203"/>
-      <c r="B273" s="203"/>
-      <c r="C273" s="203"/>
-      <c r="D273" s="203"/>
+      <c r="A273" s="204"/>
+      <c r="B273" s="204"/>
+      <c r="C273" s="204"/>
+      <c r="D273" s="204"/>
       <c r="E273" s="27">
         <v>1</v>
       </c>
@@ -12155,10 +12155,10 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="203"/>
-      <c r="B282" s="203"/>
-      <c r="C282" s="203"/>
-      <c r="D282" s="203"/>
+      <c r="A282" s="204"/>
+      <c r="B282" s="204"/>
+      <c r="C282" s="204"/>
+      <c r="D282" s="204"/>
       <c r="E282" s="27">
         <v>1</v>
       </c>
@@ -12172,8 +12172,8 @@
         <v>168</v>
       </c>
       <c r="I282" s="57"/>
-      <c r="J282" s="203"/>
-      <c r="K282" s="203"/>
+      <c r="J282" s="204"/>
+      <c r="K282" s="204"/>
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="201">
@@ -12358,10 +12358,10 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="203"/>
-      <c r="B293" s="203"/>
-      <c r="C293" s="203"/>
-      <c r="D293" s="203"/>
+      <c r="A293" s="204"/>
+      <c r="B293" s="204"/>
+      <c r="C293" s="204"/>
+      <c r="D293" s="204"/>
       <c r="E293" s="27">
         <v>1</v>
       </c>
@@ -12612,8 +12612,8 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="203"/>
-      <c r="B307" s="203"/>
+      <c r="A307" s="204"/>
+      <c r="B307" s="204"/>
       <c r="C307" s="27" t="s">
         <v>116</v>
       </c>
@@ -12807,9 +12807,9 @@
       </c>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="203"/>
-      <c r="B317" s="203"/>
-      <c r="C317" s="203"/>
+      <c r="A317" s="204"/>
+      <c r="B317" s="204"/>
+      <c r="C317" s="204"/>
       <c r="D317" s="27">
         <v>9</v>
       </c>
@@ -13072,10 +13072,10 @@
       </c>
     </row>
     <row r="330" spans="1:14">
-      <c r="A330" s="203"/>
-      <c r="B330" s="203"/>
-      <c r="C330" s="203"/>
-      <c r="D330" s="203"/>
+      <c r="A330" s="204"/>
+      <c r="B330" s="204"/>
+      <c r="C330" s="204"/>
+      <c r="D330" s="204"/>
       <c r="E330" s="27">
         <v>2</v>
       </c>
@@ -13387,9 +13387,9 @@
       </c>
     </row>
     <row r="346" spans="1:14">
-      <c r="A346" s="203"/>
-      <c r="B346" s="203"/>
-      <c r="C346" s="203"/>
+      <c r="A346" s="204"/>
+      <c r="B346" s="204"/>
+      <c r="C346" s="204"/>
       <c r="D346" s="27">
         <v>12</v>
       </c>
@@ -13492,9 +13492,9 @@
       </c>
     </row>
     <row r="351" spans="1:14">
-      <c r="A351" s="203"/>
-      <c r="B351" s="203"/>
-      <c r="C351" s="203"/>
+      <c r="A351" s="204"/>
+      <c r="B351" s="204"/>
+      <c r="C351" s="204"/>
       <c r="D351" s="27">
         <v>5</v>
       </c>
@@ -13558,8 +13558,8 @@
       </c>
     </row>
     <row r="354" spans="1:17">
-      <c r="A354" s="203"/>
-      <c r="B354" s="203"/>
+      <c r="A354" s="204"/>
+      <c r="B354" s="204"/>
       <c r="C354" s="27" t="s">
         <v>116</v>
       </c>
@@ -13679,9 +13679,9 @@
       </c>
     </row>
     <row r="360" spans="1:17">
-      <c r="A360" s="203"/>
-      <c r="B360" s="203"/>
-      <c r="C360" s="203"/>
+      <c r="A360" s="204"/>
+      <c r="B360" s="204"/>
+      <c r="C360" s="204"/>
       <c r="D360" s="27">
         <v>3</v>
       </c>
@@ -13779,9 +13779,9 @@
       </c>
     </row>
     <row r="364" spans="1:17">
-      <c r="A364" s="203"/>
-      <c r="B364" s="203"/>
-      <c r="C364" s="203"/>
+      <c r="A364" s="204"/>
+      <c r="B364" s="204"/>
+      <c r="C364" s="204"/>
       <c r="D364" s="27">
         <v>1</v>
       </c>
@@ -14249,10 +14249,10 @@
       </c>
     </row>
     <row r="384" spans="1:19">
-      <c r="A384" s="204" t="s">
+      <c r="A384" s="203" t="s">
         <v>446</v>
       </c>
-      <c r="B384" s="204">
+      <c r="B384" s="203">
         <v>5</v>
       </c>
       <c r="C384" s="67" t="s">
@@ -14280,8 +14280,8 @@
       </c>
     </row>
     <row r="385" spans="1:20">
-      <c r="A385" s="183"/>
-      <c r="B385" s="183"/>
+      <c r="A385" s="191"/>
+      <c r="B385" s="191"/>
       <c r="C385" s="67" t="s">
         <v>115</v>
       </c>
@@ -14304,8 +14304,8 @@
       </c>
     </row>
     <row r="386" spans="1:20">
-      <c r="A386" s="183"/>
-      <c r="B386" s="183"/>
+      <c r="A386" s="191"/>
+      <c r="B386" s="191"/>
       <c r="C386" s="67" t="s">
         <v>115</v>
       </c>
@@ -14334,8 +14334,8 @@
       </c>
     </row>
     <row r="387" spans="1:20">
-      <c r="A387" s="183"/>
-      <c r="B387" s="183"/>
+      <c r="A387" s="191"/>
+      <c r="B387" s="191"/>
       <c r="C387" s="67" t="s">
         <v>115</v>
       </c>
@@ -14433,8 +14433,8 @@
       <c r="O390" s="171">
         <v>5</v>
       </c>
-      <c r="P390" s="6">
-        <v>1</v>
+      <c r="P390" s="6" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="391" spans="1:20">
@@ -15520,6 +15520,157 @@
     </row>
   </sheetData>
   <mergeCells count="175">
+    <mergeCell ref="C355:C357"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="C358:C360"/>
+    <mergeCell ref="A355:A360"/>
+    <mergeCell ref="D362:D363"/>
+    <mergeCell ref="C362:C364"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A331:A346"/>
+    <mergeCell ref="C347:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="A347:A351"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="A352:A354"/>
+    <mergeCell ref="C331:C336"/>
+    <mergeCell ref="B331:B346"/>
+    <mergeCell ref="B347:B351"/>
+    <mergeCell ref="B352:B354"/>
+    <mergeCell ref="B355:B360"/>
+    <mergeCell ref="B361:B364"/>
+    <mergeCell ref="J340:J341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="K340:K341"/>
+    <mergeCell ref="K342:K343"/>
+    <mergeCell ref="J342:J343"/>
+    <mergeCell ref="D342:D343"/>
+    <mergeCell ref="C337:C346"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="A308:A317"/>
+    <mergeCell ref="C318:C324"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C325:C330"/>
+    <mergeCell ref="A318:A330"/>
+    <mergeCell ref="A274:A282"/>
+    <mergeCell ref="C283:C290"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="A283:A293"/>
+    <mergeCell ref="C294:C306"/>
+    <mergeCell ref="A294:A307"/>
+    <mergeCell ref="C274:C278"/>
+    <mergeCell ref="B274:B282"/>
+    <mergeCell ref="B283:B293"/>
+    <mergeCell ref="B294:B307"/>
+    <mergeCell ref="B308:B317"/>
+    <mergeCell ref="B318:B330"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="J281:J282"/>
+    <mergeCell ref="K281:K282"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C259:C264"/>
+    <mergeCell ref="A253:A264"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D270:D271"/>
+    <mergeCell ref="C267:C273"/>
+    <mergeCell ref="A265:A273"/>
+    <mergeCell ref="B253:B264"/>
+    <mergeCell ref="B265:B273"/>
+    <mergeCell ref="C240:C246"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C247:C252"/>
+    <mergeCell ref="A240:A252"/>
+    <mergeCell ref="C253:C258"/>
+    <mergeCell ref="C231:C236"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="B231:B239"/>
+    <mergeCell ref="B240:B252"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="C237:C239"/>
+    <mergeCell ref="A231:A239"/>
+    <mergeCell ref="C203:C208"/>
+    <mergeCell ref="A190:A208"/>
+    <mergeCell ref="C209:C226"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="A209:A230"/>
+    <mergeCell ref="B190:B208"/>
+    <mergeCell ref="B209:B230"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="J188:J189"/>
+    <mergeCell ref="K188:K189"/>
+    <mergeCell ref="C182:C189"/>
+    <mergeCell ref="A174:A189"/>
+    <mergeCell ref="C190:C202"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="J186:J187"/>
+    <mergeCell ref="K186:K187"/>
+    <mergeCell ref="B174:B189"/>
+    <mergeCell ref="B140:B159"/>
+    <mergeCell ref="J167:J169"/>
+    <mergeCell ref="K167:K169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="C167:C173"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="C147:C159"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="C103:C113"/>
+    <mergeCell ref="A103:A114"/>
+    <mergeCell ref="C115:C126"/>
+    <mergeCell ref="B91:B102"/>
+    <mergeCell ref="B103:B114"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A91:A102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C129:C137"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A40:A57"/>
+    <mergeCell ref="A58:A72"/>
+    <mergeCell ref="C58:C72"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="A73:A82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B58:B72"/>
     <mergeCell ref="A368:A371"/>
     <mergeCell ref="B368:B371"/>
     <mergeCell ref="A384:A388"/>
@@ -15544,157 +15695,6 @@
     <mergeCell ref="I150:I151"/>
     <mergeCell ref="D152:D153"/>
     <mergeCell ref="B160:B173"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A40:A57"/>
-    <mergeCell ref="A58:A72"/>
-    <mergeCell ref="C58:C72"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B58:B72"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="C103:C113"/>
-    <mergeCell ref="A103:A114"/>
-    <mergeCell ref="C115:C126"/>
-    <mergeCell ref="B91:B102"/>
-    <mergeCell ref="B103:B114"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="A91:A102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C129:C137"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B139"/>
-    <mergeCell ref="B140:B159"/>
-    <mergeCell ref="J167:J169"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="C167:C173"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="C147:C159"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="J188:J189"/>
-    <mergeCell ref="K188:K189"/>
-    <mergeCell ref="C182:C189"/>
-    <mergeCell ref="A174:A189"/>
-    <mergeCell ref="C190:C202"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="J186:J187"/>
-    <mergeCell ref="K186:K187"/>
-    <mergeCell ref="B174:B189"/>
-    <mergeCell ref="K237:K238"/>
-    <mergeCell ref="C237:C239"/>
-    <mergeCell ref="A231:A239"/>
-    <mergeCell ref="C203:C208"/>
-    <mergeCell ref="A190:A208"/>
-    <mergeCell ref="C209:C226"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="A209:A230"/>
-    <mergeCell ref="B190:B208"/>
-    <mergeCell ref="B209:B230"/>
-    <mergeCell ref="C240:C246"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C247:C252"/>
-    <mergeCell ref="A240:A252"/>
-    <mergeCell ref="C253:C258"/>
-    <mergeCell ref="C231:C236"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="B231:B239"/>
-    <mergeCell ref="B240:B252"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="J281:J282"/>
-    <mergeCell ref="K281:K282"/>
-    <mergeCell ref="C279:C282"/>
-    <mergeCell ref="C259:C264"/>
-    <mergeCell ref="A253:A264"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D270:D271"/>
-    <mergeCell ref="C267:C273"/>
-    <mergeCell ref="A265:A273"/>
-    <mergeCell ref="B253:B264"/>
-    <mergeCell ref="B265:B273"/>
-    <mergeCell ref="A308:A317"/>
-    <mergeCell ref="C318:C324"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C325:C330"/>
-    <mergeCell ref="A318:A330"/>
-    <mergeCell ref="A274:A282"/>
-    <mergeCell ref="C283:C290"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="A283:A293"/>
-    <mergeCell ref="C294:C306"/>
-    <mergeCell ref="A294:A307"/>
-    <mergeCell ref="C274:C278"/>
-    <mergeCell ref="B274:B282"/>
-    <mergeCell ref="B283:B293"/>
-    <mergeCell ref="B294:B307"/>
-    <mergeCell ref="B308:B317"/>
-    <mergeCell ref="B318:B330"/>
-    <mergeCell ref="J340:J341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="K340:K341"/>
-    <mergeCell ref="K342:K343"/>
-    <mergeCell ref="J342:J343"/>
-    <mergeCell ref="D342:D343"/>
-    <mergeCell ref="C337:C346"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="C355:C357"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="C358:C360"/>
-    <mergeCell ref="A355:A360"/>
-    <mergeCell ref="D362:D363"/>
-    <mergeCell ref="C362:C364"/>
-    <mergeCell ref="A361:A364"/>
-    <mergeCell ref="A331:A346"/>
-    <mergeCell ref="C347:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="A347:A351"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="A352:A354"/>
-    <mergeCell ref="C331:C336"/>
-    <mergeCell ref="B331:B346"/>
-    <mergeCell ref="B347:B351"/>
-    <mergeCell ref="B352:B354"/>
-    <mergeCell ref="B355:B360"/>
-    <mergeCell ref="B361:B364"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19517,7 +19517,7 @@
   <dimension ref="A1:S319"/>
   <sheetViews>
     <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="S294" sqref="S294"/>
+      <selection activeCell="J279" sqref="J279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19628,8 +19628,8 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="203"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="2" t="s">
         <v>116</v>
       </c>
@@ -19982,8 +19982,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="203"/>
-      <c r="B17" s="203"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="27" t="s">
         <v>116</v>
       </c>
@@ -20128,8 +20128,8 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="203"/>
-      <c r="B22" s="203"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="204"/>
       <c r="C22" s="2" t="s">
         <v>116</v>
       </c>
@@ -20268,8 +20268,8 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="203"/>
-      <c r="B27" s="203"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="204"/>
       <c r="C27" s="67" t="s">
         <v>115</v>
       </c>
@@ -20885,8 +20885,8 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="203"/>
-      <c r="B50" s="203"/>
+      <c r="A50" s="204"/>
+      <c r="B50" s="204"/>
       <c r="C50" s="67" t="s">
         <v>115</v>
       </c>
@@ -21072,8 +21072,8 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="203"/>
-      <c r="B57" s="203"/>
+      <c r="A57" s="204"/>
+      <c r="B57" s="204"/>
       <c r="C57" s="2" t="s">
         <v>116</v>
       </c>
@@ -21298,8 +21298,8 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="203"/>
-      <c r="B65" s="203"/>
+      <c r="A65" s="204"/>
+      <c r="B65" s="204"/>
       <c r="C65" s="2" t="s">
         <v>116</v>
       </c>
@@ -21527,8 +21527,8 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="203"/>
-      <c r="B73" s="203"/>
+      <c r="A73" s="204"/>
+      <c r="B73" s="204"/>
       <c r="C73" s="27" t="s">
         <v>116</v>
       </c>
@@ -21823,8 +21823,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="203"/>
-      <c r="B84" s="203"/>
+      <c r="A84" s="204"/>
+      <c r="B84" s="204"/>
       <c r="C84" s="27" t="s">
         <v>116</v>
       </c>
@@ -22095,8 +22095,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="203"/>
-      <c r="B94" s="203"/>
+      <c r="A94" s="204"/>
+      <c r="B94" s="204"/>
       <c r="C94" s="2" t="s">
         <v>116</v>
       </c>
@@ -22398,8 +22398,8 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="203"/>
-      <c r="B105" s="203"/>
+      <c r="A105" s="204"/>
+      <c r="B105" s="204"/>
       <c r="C105" s="2" t="s">
         <v>116</v>
       </c>
@@ -22877,8 +22877,8 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="203"/>
-      <c r="B122" s="203"/>
+      <c r="A122" s="204"/>
+      <c r="B122" s="204"/>
       <c r="C122" s="27" t="s">
         <v>116</v>
       </c>
@@ -23195,8 +23195,8 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="203"/>
-      <c r="B133" s="203"/>
+      <c r="A133" s="204"/>
+      <c r="B133" s="204"/>
       <c r="C133" s="2" t="s">
         <v>116</v>
       </c>
@@ -23524,8 +23524,8 @@
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="203"/>
-      <c r="B145" s="203"/>
+      <c r="A145" s="204"/>
+      <c r="B145" s="204"/>
       <c r="C145" s="2" t="s">
         <v>116</v>
       </c>
@@ -24122,8 +24122,8 @@
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="203"/>
-      <c r="B167" s="203"/>
+      <c r="A167" s="204"/>
+      <c r="B167" s="204"/>
       <c r="C167" s="2" t="s">
         <v>116</v>
       </c>
@@ -24363,8 +24363,8 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="203"/>
-      <c r="B176" s="203"/>
+      <c r="A176" s="204"/>
+      <c r="B176" s="204"/>
       <c r="C176" s="27" t="s">
         <v>116</v>
       </c>
@@ -24633,8 +24633,8 @@
       </c>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="203"/>
-      <c r="B185" s="203"/>
+      <c r="A185" s="204"/>
+      <c r="B185" s="204"/>
       <c r="C185" s="2" t="s">
         <v>116</v>
       </c>
@@ -25032,8 +25032,8 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="203"/>
-      <c r="B199" s="203"/>
+      <c r="A199" s="204"/>
+      <c r="B199" s="204"/>
       <c r="C199" s="2" t="s">
         <v>116</v>
       </c>
@@ -25685,8 +25685,8 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="203"/>
-      <c r="B223" s="203"/>
+      <c r="A223" s="204"/>
+      <c r="B223" s="204"/>
       <c r="C223" s="27" t="s">
         <v>116</v>
       </c>
@@ -26286,8 +26286,8 @@
       </c>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="203"/>
-      <c r="B244" s="203"/>
+      <c r="A244" s="204"/>
+      <c r="B244" s="204"/>
       <c r="C244" s="27" t="s">
         <v>116</v>
       </c>
@@ -26428,8 +26428,8 @@
       </c>
     </row>
     <row r="249" spans="1:12">
-      <c r="A249" s="203"/>
-      <c r="B249" s="203"/>
+      <c r="A249" s="204"/>
+      <c r="B249" s="204"/>
       <c r="C249" s="2" t="s">
         <v>116</v>
       </c>
@@ -26550,8 +26550,8 @@
       </c>
     </row>
     <row r="253" spans="1:12">
-      <c r="A253" s="203"/>
-      <c r="B253" s="203"/>
+      <c r="A253" s="204"/>
+      <c r="B253" s="204"/>
       <c r="C253" s="2" t="s">
         <v>116</v>
       </c>
@@ -26994,10 +26994,10 @@
       </c>
     </row>
     <row r="273" spans="1:19">
-      <c r="A273" s="204" t="s">
+      <c r="A273" s="203" t="s">
         <v>446</v>
       </c>
-      <c r="B273" s="204">
+      <c r="B273" s="203">
         <v>5</v>
       </c>
       <c r="C273" s="67" t="s">
@@ -27025,8 +27025,8 @@
       </c>
     </row>
     <row r="274" spans="1:19">
-      <c r="A274" s="183"/>
-      <c r="B274" s="183"/>
+      <c r="A274" s="191"/>
+      <c r="B274" s="191"/>
       <c r="C274" s="67" t="s">
         <v>115</v>
       </c>
@@ -27048,8 +27048,8 @@
       </c>
     </row>
     <row r="275" spans="1:19">
-      <c r="A275" s="183"/>
-      <c r="B275" s="183"/>
+      <c r="A275" s="191"/>
+      <c r="B275" s="191"/>
       <c r="C275" s="67" t="s">
         <v>115</v>
       </c>
@@ -27077,8 +27077,8 @@
       </c>
     </row>
     <row r="276" spans="1:19">
-      <c r="A276" s="183"/>
-      <c r="B276" s="183"/>
+      <c r="A276" s="191"/>
+      <c r="B276" s="191"/>
       <c r="C276" s="67" t="s">
         <v>115</v>
       </c>
@@ -27172,8 +27172,8 @@
       <c r="I279" s="171">
         <v>5</v>
       </c>
-      <c r="J279" s="171">
-        <v>1</v>
+      <c r="J279" s="171" t="s">
+        <v>469</v>
       </c>
       <c r="O279" t="s">
         <v>487</v>
@@ -28182,6 +28182,66 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="A74:A84"/>
+    <mergeCell ref="B74:B84"/>
+    <mergeCell ref="A85:A94"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="A95:A105"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="B134:B145"/>
+    <mergeCell ref="A146:A160"/>
+    <mergeCell ref="B146:B160"/>
+    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="B168:B176"/>
+    <mergeCell ref="A177:A185"/>
+    <mergeCell ref="B177:B185"/>
+    <mergeCell ref="A186:A192"/>
+    <mergeCell ref="B186:B192"/>
+    <mergeCell ref="A193:A199"/>
+    <mergeCell ref="B193:B199"/>
+    <mergeCell ref="A200:A206"/>
+    <mergeCell ref="B200:B206"/>
+    <mergeCell ref="A207:A215"/>
+    <mergeCell ref="B207:B215"/>
+    <mergeCell ref="A216:A223"/>
+    <mergeCell ref="B216:B223"/>
+    <mergeCell ref="A224:A230"/>
+    <mergeCell ref="B224:B230"/>
+    <mergeCell ref="A231:A237"/>
+    <mergeCell ref="B231:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="B242:B244"/>
     <mergeCell ref="A273:A277"/>
     <mergeCell ref="B273:B277"/>
     <mergeCell ref="A245:A249"/>
@@ -28190,66 +28250,6 @@
     <mergeCell ref="B250:B253"/>
     <mergeCell ref="A257:A260"/>
     <mergeCell ref="B257:B260"/>
-    <mergeCell ref="A231:A237"/>
-    <mergeCell ref="B231:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="A207:A215"/>
-    <mergeCell ref="B207:B215"/>
-    <mergeCell ref="A216:A223"/>
-    <mergeCell ref="B216:B223"/>
-    <mergeCell ref="A224:A230"/>
-    <mergeCell ref="B224:B230"/>
-    <mergeCell ref="A186:A192"/>
-    <mergeCell ref="B186:B192"/>
-    <mergeCell ref="A193:A199"/>
-    <mergeCell ref="B193:B199"/>
-    <mergeCell ref="A200:A206"/>
-    <mergeCell ref="B200:B206"/>
-    <mergeCell ref="A161:A167"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="B168:B176"/>
-    <mergeCell ref="A177:A185"/>
-    <mergeCell ref="B177:B185"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="A134:A145"/>
-    <mergeCell ref="B134:B145"/>
-    <mergeCell ref="A146:A160"/>
-    <mergeCell ref="B146:B160"/>
-    <mergeCell ref="A95:A105"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="A74:A84"/>
-    <mergeCell ref="B74:B84"/>
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="B85:B94"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-result/flight-result-segment.xlsx
+++ b/data-result/flight-result-segment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39AF10C-0A64-8747-9FA1-3CFC37DC3991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D65425-2FD0-EA47-8B29-123203040C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{1F2A6636-F2B4-D94A-95E1-54753800CFD8}"/>
+    <workbookView xWindow="12920" yWindow="-21100" windowWidth="51200" windowHeight="21100" activeTab="2" xr2:uid="{1F2A6636-F2B4-D94A-95E1-54753800CFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="flights_sta" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="496">
   <si>
     <t>velocity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2411,6 +2411,54 @@
   </si>
   <si>
     <t>建筑还存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hip height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>背部弓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尾巴抬起</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背稍弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背部弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2756,7 +2804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3306,30 +3354,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3357,8 +3381,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3366,10 +3414,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3898,23 +3949,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
     </row>
     <row r="2" spans="1:24" ht="20">
       <c r="D2"/>
@@ -3927,20 +3978,20 @@
       <c r="W2" s="175"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="185" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="198"/>
-      <c r="F3" s="199"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="174" t="s">
         <v>20</v>
       </c>
@@ -3948,16 +3999,16 @@
         <v>55</v>
       </c>
       <c r="I3" s="176"/>
-      <c r="J3" s="192" t="s">
+      <c r="J3" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="193"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="193" t="s">
+      <c r="K3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="193"/>
-      <c r="O3" s="195"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="187"/>
       <c r="P3" s="174" t="s">
         <v>15</v>
       </c>
@@ -3967,20 +4018,20 @@
         <v>61</v>
       </c>
       <c r="T3" s="176"/>
-      <c r="U3" s="186" t="s">
+      <c r="U3" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="186" t="s">
+      <c r="V3" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="186" t="s">
+      <c r="W3" s="192" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A4" s="197"/>
+      <c r="A4" s="189"/>
       <c r="B4" s="176"/>
-      <c r="C4" s="197"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="3">
         <v>44935</v>
       </c>
@@ -3990,7 +4041,7 @@
       <c r="F4" s="155" t="s">
         <v>372</v>
       </c>
-      <c r="G4" s="196"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
@@ -4030,17 +4081,17 @@
       <c r="T4" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="187" t="s">
+      <c r="U4" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="187"/>
-      <c r="W4" s="187"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="87">
         <v>0.48541666666666666</v>
       </c>
-      <c r="B5" s="188">
+      <c r="B5" s="198">
         <v>8</v>
       </c>
       <c r="C5" s="29">
@@ -4106,7 +4157,7 @@
       <c r="A6" s="88">
         <v>0.47500000000000003</v>
       </c>
-      <c r="B6" s="189"/>
+      <c r="B6" s="199"/>
       <c r="C6" s="21">
         <v>1</v>
       </c>
@@ -4169,7 +4220,7 @@
       <c r="A7" s="87">
         <v>0.47847222222222219</v>
       </c>
-      <c r="B7" s="189"/>
+      <c r="B7" s="199"/>
       <c r="C7" s="8">
         <v>2</v>
       </c>
@@ -4233,7 +4284,7 @@
       <c r="A8" s="87">
         <v>0.48055555555555557</v>
       </c>
-      <c r="B8" s="189"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="11">
         <v>3</v>
       </c>
@@ -4297,7 +4348,7 @@
       <c r="A9" s="87">
         <v>0.48333333333333334</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="199"/>
       <c r="C9" s="8">
         <v>5</v>
       </c>
@@ -4357,7 +4408,7 @@
       <c r="A10" s="88">
         <v>0.55833333333333335</v>
       </c>
-      <c r="B10" s="189"/>
+      <c r="B10" s="199"/>
       <c r="C10" s="8">
         <v>7</v>
       </c>
@@ -4420,7 +4471,7 @@
       <c r="A11" s="87">
         <v>0.56041666666666667</v>
       </c>
-      <c r="B11" s="189"/>
+      <c r="B11" s="199"/>
       <c r="C11" s="29">
         <v>7</v>
       </c>
@@ -4483,7 +4534,7 @@
       <c r="A12" s="88">
         <v>0.5541666666666667</v>
       </c>
-      <c r="B12" s="189"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="11">
         <v>9</v>
       </c>
@@ -4546,7 +4597,7 @@
       <c r="A13" s="87">
         <v>0.55555555555555558</v>
       </c>
-      <c r="B13" s="190"/>
+      <c r="B13" s="200"/>
       <c r="C13" s="29">
         <v>9</v>
       </c>
@@ -4605,7 +4656,7 @@
       <c r="A14" s="87">
         <v>0.45277777777777778</v>
       </c>
-      <c r="B14" s="188">
+      <c r="B14" s="198">
         <v>10</v>
       </c>
       <c r="C14" s="29">
@@ -4670,7 +4721,7 @@
       <c r="A15" s="87">
         <v>0.46388888888888885</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="8">
         <v>2</v>
       </c>
@@ -4733,7 +4784,7 @@
       <c r="A16" s="87">
         <v>0.46597222222222223</v>
       </c>
-      <c r="B16" s="189"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="8">
         <v>3</v>
       </c>
@@ -4798,7 +4849,7 @@
       <c r="A17" s="87">
         <v>0.46875</v>
       </c>
-      <c r="B17" s="189"/>
+      <c r="B17" s="199"/>
       <c r="C17" s="8">
         <v>5</v>
       </c>
@@ -4863,7 +4914,7 @@
       <c r="A18" s="88">
         <v>0.57638888888888895</v>
       </c>
-      <c r="B18" s="189"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="8">
         <v>7</v>
       </c>
@@ -4928,7 +4979,7 @@
       <c r="A19" s="88">
         <v>0.57847222222222217</v>
       </c>
-      <c r="B19" s="190"/>
+      <c r="B19" s="200"/>
       <c r="C19" s="8">
         <v>9</v>
       </c>
@@ -4993,7 +5044,7 @@
       <c r="A20" s="87">
         <v>0.44930555555555557</v>
       </c>
-      <c r="B20" s="188">
+      <c r="B20" s="198">
         <v>15</v>
       </c>
       <c r="C20" s="8">
@@ -5060,7 +5111,7 @@
       <c r="A21" s="87">
         <v>0.44375000000000003</v>
       </c>
-      <c r="B21" s="189"/>
+      <c r="B21" s="199"/>
       <c r="C21" s="8">
         <v>1</v>
       </c>
@@ -5125,7 +5176,7 @@
       <c r="A22" s="87">
         <v>0.4381944444444445</v>
       </c>
-      <c r="B22" s="189"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="8">
         <v>2</v>
       </c>
@@ -5190,7 +5241,7 @@
       <c r="A23" s="87">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B23" s="189"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="8">
         <v>3</v>
       </c>
@@ -5255,7 +5306,7 @@
       <c r="A24" s="87">
         <v>0.44305555555555554</v>
       </c>
-      <c r="B24" s="189"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="8">
         <v>5</v>
       </c>
@@ -5320,7 +5371,7 @@
       <c r="A25" s="88">
         <v>0.58124999999999993</v>
       </c>
-      <c r="B25" s="189"/>
+      <c r="B25" s="199"/>
       <c r="C25" s="8">
         <v>7</v>
       </c>
@@ -5383,7 +5434,7 @@
       <c r="A26" s="88">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B26" s="190"/>
+      <c r="B26" s="200"/>
       <c r="C26" s="8">
         <v>9</v>
       </c>
@@ -6232,7 +6283,7 @@
       <c r="A39" s="162">
         <v>0.78194444444444444</v>
       </c>
-      <c r="B39" s="183">
+      <c r="B39" s="194">
         <v>8</v>
       </c>
       <c r="C39" s="147">
@@ -6291,7 +6342,7 @@
       <c r="A40" s="162">
         <v>0.78333333333333333</v>
       </c>
-      <c r="B40" s="184"/>
+      <c r="B40" s="195"/>
       <c r="C40" s="147">
         <v>5</v>
       </c>
@@ -6351,7 +6402,7 @@
       <c r="A41" s="162">
         <v>0.78680555555555554</v>
       </c>
-      <c r="B41" s="184"/>
+      <c r="B41" s="195"/>
       <c r="C41" s="147">
         <v>3</v>
       </c>
@@ -6407,7 +6458,7 @@
       <c r="A42" s="162">
         <v>0.78819444444444453</v>
       </c>
-      <c r="B42" s="184"/>
+      <c r="B42" s="195"/>
       <c r="C42" s="147">
         <v>5</v>
       </c>
@@ -6463,7 +6514,7 @@
       <c r="A43" s="162">
         <v>0.7895833333333333</v>
       </c>
-      <c r="B43" s="185">
+      <c r="B43" s="196">
         <v>15</v>
       </c>
       <c r="C43" s="147">
@@ -6518,7 +6569,7 @@
       <c r="A44" s="162">
         <v>0.79027777777777775</v>
       </c>
-      <c r="B44" s="185"/>
+      <c r="B44" s="196"/>
       <c r="C44" s="147">
         <v>5</v>
       </c>
@@ -6574,7 +6625,7 @@
       <c r="A45" s="162">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B45" s="185">
+      <c r="B45" s="196">
         <v>10</v>
       </c>
       <c r="C45" s="147">
@@ -6632,7 +6683,7 @@
       <c r="A46" s="162">
         <v>0.79305555555555562</v>
       </c>
-      <c r="B46" s="185"/>
+      <c r="B46" s="196"/>
       <c r="C46" s="147">
         <v>5</v>
       </c>
@@ -6690,7 +6741,7 @@
       <c r="A47" s="162">
         <v>0.7944444444444444</v>
       </c>
-      <c r="B47" s="185">
+      <c r="B47" s="196">
         <v>8</v>
       </c>
       <c r="C47" s="147">
@@ -6748,7 +6799,7 @@
       <c r="A48" s="162">
         <v>0.79583333333333339</v>
       </c>
-      <c r="B48" s="185"/>
+      <c r="B48" s="196"/>
       <c r="C48" s="147">
         <v>5</v>
       </c>
@@ -6855,15 +6906,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
@@ -6879,6 +6921,15 @@
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="B5:B13"/>
     <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6890,10 +6941,10 @@
   <dimension ref="A1:T430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D388" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H401" sqref="H401"/>
+      <selection pane="bottomRight" activeCell="L315" sqref="L315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6906,13 +6957,13 @@
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="F1" s="204" t="s">
+    <row r="1" spans="1:15">
+      <c r="F1" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="204"/>
-    </row>
-    <row r="2" spans="1:13" ht="20">
+      <c r="G1" s="203"/>
+    </row>
+    <row r="2" spans="1:15" ht="20">
       <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
@@ -6949,8 +7000,11 @@
       <c r="M2" s="152" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2" s="205" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="201">
         <v>62</v>
       </c>
@@ -6976,7 +7030,7 @@
       </c>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="1:13" ht="17" customHeight="1">
+    <row r="4" spans="1:15" ht="17" customHeight="1">
       <c r="A4" s="202"/>
       <c r="B4" s="202"/>
       <c r="C4" s="202"/>
@@ -6990,7 +7044,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="202"/>
       <c r="B5" s="202"/>
       <c r="C5" s="202"/>
@@ -7004,7 +7058,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="202"/>
       <c r="B6" s="202"/>
       <c r="C6" s="202" t="s">
@@ -7025,11 +7079,11 @@
       <c r="H6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="191" t="s">
+      <c r="I6" s="183" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="202"/>
       <c r="B7" s="202"/>
       <c r="C7" s="202"/>
@@ -7046,7 +7100,7 @@
       <c r="H7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="191"/>
+      <c r="I7" s="183"/>
       <c r="J7" s="2">
         <v>0.03</v>
       </c>
@@ -7054,7 +7108,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="202"/>
       <c r="B8" s="202"/>
       <c r="C8" s="202"/>
@@ -7074,10 +7128,10 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="204"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="203"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
       <c r="D9" s="27">
         <v>8</v>
       </c>
@@ -7097,7 +7151,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="201">
         <v>58</v>
       </c>
@@ -7123,7 +7177,7 @@
       </c>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="202"/>
       <c r="B11" s="202"/>
       <c r="C11" s="202"/>
@@ -7137,7 +7191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="202"/>
       <c r="B12" s="202"/>
       <c r="C12" s="202"/>
@@ -7151,7 +7205,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="202"/>
       <c r="B13" s="202"/>
       <c r="C13" s="202"/>
@@ -7165,7 +7219,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="202"/>
       <c r="B14" s="202"/>
       <c r="C14" s="202"/>
@@ -7182,7 +7236,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="202"/>
       <c r="B15" s="202"/>
       <c r="C15" s="202"/>
@@ -7198,8 +7252,11 @@
       <c r="I15" s="100" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15" s="100" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="202"/>
       <c r="B16" s="202"/>
       <c r="C16" s="202" t="s">
@@ -7246,7 +7303,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="202"/>
-      <c r="B18" s="204"/>
+      <c r="B18" s="203"/>
       <c r="C18" s="202"/>
       <c r="D18" s="2">
         <v>8</v>
@@ -7375,8 +7432,8 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="204"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="203"/>
       <c r="C25" s="27" t="s">
         <v>116</v>
       </c>
@@ -7508,9 +7565,9 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="204"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
+      <c r="A31" s="203"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="203"/>
       <c r="D31" s="27">
         <v>6</v>
       </c>
@@ -7559,7 +7616,7 @@
       <c r="J32" s="67"/>
       <c r="K32" s="91"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" s="202"/>
       <c r="B33" s="202"/>
       <c r="C33" s="202"/>
@@ -7576,7 +7633,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" s="202"/>
       <c r="B34" s="202"/>
       <c r="C34" s="202"/>
@@ -7593,7 +7650,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35" s="202"/>
       <c r="B35" s="202"/>
       <c r="C35" s="202"/>
@@ -7610,7 +7667,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36" s="202"/>
       <c r="B36" s="202"/>
       <c r="C36" s="202"/>
@@ -7624,7 +7681,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15">
       <c r="A37" s="202"/>
       <c r="B37" s="202"/>
       <c r="C37" s="202"/>
@@ -7638,7 +7695,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" s="202"/>
       <c r="B38" s="202"/>
       <c r="C38" s="202"/>
@@ -7655,10 +7712,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="204"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
+    <row r="39" spans="1:15">
+      <c r="A39" s="203"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="203"/>
       <c r="D39" s="27">
         <v>11</v>
       </c>
@@ -7677,8 +7734,11 @@
       </c>
       <c r="J39" s="27"/>
       <c r="K39" s="57"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="100" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="201">
         <v>33</v>
       </c>
@@ -7705,7 +7765,7 @@
       <c r="J40" s="67"/>
       <c r="K40" s="91"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" s="202"/>
       <c r="B41" s="202"/>
       <c r="C41" s="202"/>
@@ -7722,7 +7782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42" s="202"/>
       <c r="B42" s="202"/>
       <c r="C42" s="202"/>
@@ -7741,8 +7801,11 @@
       <c r="N42" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="100" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="202"/>
       <c r="B43" s="202"/>
       <c r="C43" s="202"/>
@@ -7759,7 +7822,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" s="202"/>
       <c r="B44" s="202"/>
       <c r="C44" s="202"/>
@@ -7773,7 +7836,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15">
       <c r="A45" s="202"/>
       <c r="B45" s="202"/>
       <c r="C45" s="202"/>
@@ -7787,7 +7850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="202"/>
       <c r="B46" s="202"/>
       <c r="C46" s="202"/>
@@ -7801,7 +7864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="202"/>
       <c r="B47" s="202"/>
       <c r="C47" s="202"/>
@@ -7818,7 +7881,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="202"/>
       <c r="B48" s="202"/>
       <c r="C48" s="202"/>
@@ -7832,7 +7895,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:15">
       <c r="A49" s="202"/>
       <c r="B49" s="202"/>
       <c r="C49" s="202"/>
@@ -7849,7 +7912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:15">
       <c r="A50" s="202"/>
       <c r="B50" s="202"/>
       <c r="C50" s="202"/>
@@ -7863,7 +7926,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:15">
       <c r="A51" s="202"/>
       <c r="B51" s="202"/>
       <c r="C51" s="202"/>
@@ -7880,7 +7943,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:15">
       <c r="A52" s="202"/>
       <c r="B52" s="202"/>
       <c r="C52" s="202"/>
@@ -7900,7 +7963,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:15">
       <c r="A53" s="202"/>
       <c r="B53" s="202"/>
       <c r="C53" s="202"/>
@@ -7917,7 +7980,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15">
       <c r="A54" s="202"/>
       <c r="B54" s="202"/>
       <c r="C54" s="202"/>
@@ -7934,7 +7997,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" s="202"/>
       <c r="B55" s="202"/>
       <c r="C55" s="202" t="s">
@@ -7947,7 +8010,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:15">
       <c r="A56" s="202"/>
       <c r="B56" s="202"/>
       <c r="C56" s="202"/>
@@ -7964,10 +8027,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="204"/>
-      <c r="B57" s="204"/>
-      <c r="C57" s="204"/>
+    <row r="57" spans="1:15">
+      <c r="A57" s="203"/>
+      <c r="B57" s="203"/>
+      <c r="C57" s="203"/>
       <c r="D57" s="27">
         <v>9</v>
       </c>
@@ -7979,7 +8042,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="57"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:15">
       <c r="A58" s="201">
         <v>31</v>
       </c>
@@ -8006,7 +8069,7 @@
       <c r="J58" s="67"/>
       <c r="K58" s="91"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:15">
       <c r="A59" s="202"/>
       <c r="B59" s="202"/>
       <c r="C59" s="202"/>
@@ -8023,7 +8086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:15">
       <c r="A60" s="202"/>
       <c r="B60" s="202"/>
       <c r="C60" s="202"/>
@@ -8037,7 +8100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:15">
       <c r="A61" s="202"/>
       <c r="B61" s="202"/>
       <c r="C61" s="202"/>
@@ -8054,7 +8117,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:15">
       <c r="A62" s="202"/>
       <c r="B62" s="202"/>
       <c r="C62" s="202"/>
@@ -8071,7 +8134,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:15">
       <c r="A63" s="202"/>
       <c r="B63" s="202"/>
       <c r="C63" s="202"/>
@@ -8084,8 +8147,11 @@
       <c r="G63" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="202"/>
       <c r="B64" s="202"/>
       <c r="C64" s="202"/>
@@ -8099,7 +8165,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:15">
       <c r="A65" s="202"/>
       <c r="B65" s="202"/>
       <c r="C65" s="202"/>
@@ -8116,7 +8182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:15">
       <c r="A66" s="202"/>
       <c r="B66" s="202"/>
       <c r="C66" s="202"/>
@@ -8133,7 +8199,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:15">
       <c r="A67" s="202"/>
       <c r="B67" s="202"/>
       <c r="C67" s="202"/>
@@ -8147,7 +8213,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:15">
       <c r="A68" s="202"/>
       <c r="B68" s="202"/>
       <c r="C68" s="202"/>
@@ -8164,7 +8230,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:15">
       <c r="A69" s="202"/>
       <c r="B69" s="202"/>
       <c r="C69" s="202"/>
@@ -8181,7 +8247,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:15">
       <c r="A70" s="202"/>
       <c r="B70" s="202"/>
       <c r="C70" s="202"/>
@@ -8198,7 +8264,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:15">
       <c r="A71" s="202"/>
       <c r="B71" s="202"/>
       <c r="C71" s="202"/>
@@ -8217,11 +8283,14 @@
       <c r="N71" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="204"/>
-      <c r="B72" s="204"/>
-      <c r="C72" s="204"/>
+      <c r="O71" s="104" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="203"/>
+      <c r="B72" s="203"/>
+      <c r="C72" s="203"/>
       <c r="D72" s="27">
         <v>14</v>
       </c>
@@ -8239,7 +8308,7 @@
       <c r="J72" s="27"/>
       <c r="K72" s="57"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:15">
       <c r="A73" s="201">
         <v>54</v>
       </c>
@@ -8266,7 +8335,7 @@
       <c r="J73" s="67"/>
       <c r="K73" s="91"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:15">
       <c r="A74" s="202"/>
       <c r="B74" s="202"/>
       <c r="C74" s="202"/>
@@ -8283,7 +8352,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:15">
       <c r="A75" s="202"/>
       <c r="B75" s="202"/>
       <c r="C75" s="202"/>
@@ -8300,7 +8369,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:15">
       <c r="A76" s="202"/>
       <c r="B76" s="202"/>
       <c r="C76" s="202"/>
@@ -8314,7 +8383,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:15">
       <c r="A77" s="202"/>
       <c r="B77" s="202"/>
       <c r="C77" s="202"/>
@@ -8328,7 +8397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:15">
       <c r="A78" s="202"/>
       <c r="B78" s="202"/>
       <c r="C78" s="202"/>
@@ -8345,7 +8414,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:15">
       <c r="A79" s="202"/>
       <c r="B79" s="202"/>
       <c r="C79" s="202"/>
@@ -8362,7 +8431,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:15">
       <c r="A80" s="202"/>
       <c r="B80" s="202"/>
       <c r="C80" s="202"/>
@@ -8379,7 +8448,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:15">
       <c r="A81" s="202"/>
       <c r="B81" s="202"/>
       <c r="C81" s="202" t="s">
@@ -8401,10 +8470,10 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="204"/>
-      <c r="B82" s="204"/>
-      <c r="C82" s="204"/>
+    <row r="82" spans="1:15">
+      <c r="A82" s="203"/>
+      <c r="B82" s="203"/>
+      <c r="C82" s="203"/>
       <c r="D82" s="27">
         <v>8</v>
       </c>
@@ -8426,7 +8495,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:15">
       <c r="A83" s="201">
         <v>55</v>
       </c>
@@ -8452,8 +8521,11 @@
       </c>
       <c r="J83" s="67"/>
       <c r="K83" s="91"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="O83" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="202"/>
       <c r="B84" s="202"/>
       <c r="C84" s="202"/>
@@ -8470,7 +8542,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:15">
       <c r="A85" s="202"/>
       <c r="B85" s="202"/>
       <c r="C85" s="202"/>
@@ -8487,7 +8559,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:15">
       <c r="A86" s="202"/>
       <c r="B86" s="202"/>
       <c r="C86" s="202"/>
@@ -8507,7 +8579,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:15">
       <c r="A87" s="202"/>
       <c r="B87" s="202"/>
       <c r="C87" s="202"/>
@@ -8526,8 +8598,11 @@
       <c r="M87" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="O87" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="202"/>
       <c r="B88" s="202"/>
       <c r="C88" s="202"/>
@@ -8541,7 +8616,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:15">
       <c r="A89" s="202"/>
       <c r="B89" s="202"/>
       <c r="C89" s="202" t="s">
@@ -8566,10 +8641,10 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="204"/>
-      <c r="B90" s="204"/>
-      <c r="C90" s="204"/>
+    <row r="90" spans="1:15">
+      <c r="A90" s="203"/>
+      <c r="B90" s="203"/>
+      <c r="C90" s="203"/>
       <c r="D90" s="27">
         <v>8</v>
       </c>
@@ -8589,7 +8664,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:15">
       <c r="A91" s="201">
         <v>56</v>
       </c>
@@ -8614,7 +8689,7 @@
       <c r="J91" s="67"/>
       <c r="K91" s="91"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:15">
       <c r="A92" s="202"/>
       <c r="B92" s="202"/>
       <c r="C92" s="202"/>
@@ -8631,7 +8706,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:15">
       <c r="A93" s="202"/>
       <c r="B93" s="202"/>
       <c r="C93" s="202"/>
@@ -8648,7 +8723,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:15">
       <c r="A94" s="202"/>
       <c r="B94" s="202"/>
       <c r="C94" s="202"/>
@@ -8662,7 +8737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:15">
       <c r="A95" s="202"/>
       <c r="B95" s="202"/>
       <c r="C95" s="202"/>
@@ -8679,7 +8754,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:15">
       <c r="A96" s="202"/>
       <c r="B96" s="202"/>
       <c r="C96" s="202"/>
@@ -8693,7 +8768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:15">
       <c r="A97" s="202"/>
       <c r="B97" s="202"/>
       <c r="C97" s="202"/>
@@ -8707,7 +8782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:15">
       <c r="A98" s="202"/>
       <c r="B98" s="202"/>
       <c r="C98" s="202" t="s">
@@ -8737,8 +8812,11 @@
       <c r="M98" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="O98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="202"/>
       <c r="B99" s="202"/>
       <c r="C99" s="202"/>
@@ -8759,7 +8837,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:15">
       <c r="A100" s="202"/>
       <c r="B100" s="202"/>
       <c r="C100" s="202"/>
@@ -8779,7 +8857,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:15">
       <c r="A101" s="202"/>
       <c r="B101" s="202"/>
       <c r="C101" s="202"/>
@@ -8800,10 +8878,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="204"/>
-      <c r="B102" s="204"/>
-      <c r="C102" s="204"/>
+    <row r="102" spans="1:15">
+      <c r="A102" s="203"/>
+      <c r="B102" s="203"/>
+      <c r="C102" s="203"/>
       <c r="D102" s="27">
         <v>7</v>
       </c>
@@ -8821,7 +8899,7 @@
       <c r="J102" s="27"/>
       <c r="K102" s="57"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:15">
       <c r="A103" s="201">
         <v>57</v>
       </c>
@@ -8848,7 +8926,7 @@
       <c r="J103" s="67"/>
       <c r="K103" s="91"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:15">
       <c r="A104" s="202"/>
       <c r="B104" s="202"/>
       <c r="C104" s="202"/>
@@ -8865,7 +8943,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:15">
       <c r="A105" s="202"/>
       <c r="B105" s="202"/>
       <c r="C105" s="202"/>
@@ -8879,7 +8957,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:15">
       <c r="A106" s="202"/>
       <c r="B106" s="202"/>
       <c r="C106" s="202"/>
@@ -8896,7 +8974,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:15">
       <c r="A107" s="202"/>
       <c r="B107" s="202"/>
       <c r="C107" s="202"/>
@@ -8913,7 +8991,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:15">
       <c r="A108" s="202"/>
       <c r="B108" s="202"/>
       <c r="C108" s="202"/>
@@ -8927,7 +9005,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:15">
       <c r="A109" s="202"/>
       <c r="B109" s="202"/>
       <c r="C109" s="202"/>
@@ -8944,7 +9022,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:15">
       <c r="A110" s="202"/>
       <c r="B110" s="202"/>
       <c r="C110" s="202"/>
@@ -8958,7 +9036,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:15">
       <c r="A111" s="202"/>
       <c r="B111" s="202"/>
       <c r="C111" s="202"/>
@@ -8972,7 +9050,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:15">
       <c r="A112" s="202"/>
       <c r="B112" s="202"/>
       <c r="C112" s="202"/>
@@ -8986,7 +9064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:15">
       <c r="A113" s="202"/>
       <c r="B113" s="202"/>
       <c r="C113" s="202"/>
@@ -9000,9 +9078,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
-      <c r="A114" s="204"/>
-      <c r="B114" s="204"/>
+    <row r="114" spans="1:15">
+      <c r="A114" s="203"/>
+      <c r="B114" s="203"/>
       <c r="C114" s="27" t="s">
         <v>116</v>
       </c>
@@ -9032,7 +9110,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:15">
       <c r="A115" s="201">
         <v>37</v>
       </c>
@@ -9059,7 +9137,7 @@
       <c r="J115" s="67"/>
       <c r="K115" s="91"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:15">
       <c r="A116" s="202"/>
       <c r="B116" s="202"/>
       <c r="C116" s="202"/>
@@ -9076,7 +9154,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:15">
       <c r="A117" s="202"/>
       <c r="B117" s="202"/>
       <c r="C117" s="202"/>
@@ -9090,7 +9168,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:15">
       <c r="A118" s="202"/>
       <c r="B118" s="202"/>
       <c r="C118" s="202"/>
@@ -9107,7 +9185,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:15">
       <c r="A119" s="202"/>
       <c r="B119" s="202"/>
       <c r="C119" s="202"/>
@@ -9124,7 +9202,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:15">
       <c r="A120" s="202"/>
       <c r="B120" s="202"/>
       <c r="C120" s="202"/>
@@ -9138,7 +9216,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:15">
       <c r="A121" s="202"/>
       <c r="B121" s="202"/>
       <c r="C121" s="202"/>
@@ -9157,8 +9235,11 @@
       <c r="M121" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="202"/>
       <c r="B122" s="202"/>
       <c r="C122" s="202"/>
@@ -9172,7 +9253,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:15">
       <c r="A123" s="202"/>
       <c r="B123" s="202"/>
       <c r="C123" s="202"/>
@@ -9186,7 +9267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:15">
       <c r="A124" s="202"/>
       <c r="B124" s="202"/>
       <c r="C124" s="202"/>
@@ -9203,7 +9284,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:15">
       <c r="A125" s="202"/>
       <c r="B125" s="202"/>
       <c r="C125" s="202"/>
@@ -9217,7 +9298,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:15">
       <c r="A126" s="202"/>
       <c r="B126" s="202"/>
       <c r="C126" s="202"/>
@@ -9234,7 +9315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:15">
       <c r="A127" s="202"/>
       <c r="B127" s="202"/>
       <c r="C127" s="202" t="s">
@@ -9256,10 +9337,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="204"/>
-      <c r="B128" s="204"/>
-      <c r="C128" s="204"/>
+    <row r="128" spans="1:15">
+      <c r="A128" s="203"/>
+      <c r="B128" s="203"/>
+      <c r="C128" s="203"/>
       <c r="D128" s="27">
         <v>4</v>
       </c>
@@ -9283,7 +9364,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:15">
       <c r="A129" s="201">
         <v>38</v>
       </c>
@@ -9308,7 +9389,7 @@
       <c r="J129" s="67"/>
       <c r="K129" s="91"/>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:15">
       <c r="A130" s="202"/>
       <c r="B130" s="202"/>
       <c r="C130" s="202"/>
@@ -9325,7 +9406,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:15">
       <c r="A131" s="202"/>
       <c r="B131" s="202"/>
       <c r="C131" s="202"/>
@@ -9339,7 +9420,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:15">
       <c r="A132" s="202"/>
       <c r="B132" s="202"/>
       <c r="C132" s="202"/>
@@ -9353,7 +9434,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:15">
       <c r="A133" s="202"/>
       <c r="B133" s="202"/>
       <c r="C133" s="202"/>
@@ -9367,7 +9448,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:15">
       <c r="A134" s="202"/>
       <c r="B134" s="202"/>
       <c r="C134" s="202"/>
@@ -9384,7 +9465,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:15">
       <c r="A135" s="202"/>
       <c r="B135" s="202"/>
       <c r="C135" s="202"/>
@@ -9401,7 +9482,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:15">
       <c r="A136" s="202"/>
       <c r="B136" s="202"/>
       <c r="C136" s="202"/>
@@ -9423,8 +9504,11 @@
       <c r="N136" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="O136" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="202"/>
       <c r="B137" s="202"/>
       <c r="C137" s="202"/>
@@ -9441,7 +9525,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:15">
       <c r="A138" s="202"/>
       <c r="B138" s="202"/>
       <c r="C138" s="202" t="s">
@@ -9466,11 +9550,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
-      <c r="A139" s="204"/>
-      <c r="B139" s="204"/>
-      <c r="C139" s="204"/>
-      <c r="D139" s="204"/>
+    <row r="139" spans="1:15">
+      <c r="A139" s="203"/>
+      <c r="B139" s="203"/>
+      <c r="C139" s="203"/>
+      <c r="D139" s="203"/>
       <c r="E139" s="27">
         <v>1</v>
       </c>
@@ -9482,10 +9566,10 @@
       </c>
       <c r="H139" s="27"/>
       <c r="I139" s="57"/>
-      <c r="J139" s="204"/>
-      <c r="K139" s="204"/>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="J139" s="203"/>
+      <c r="K139" s="203"/>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="201">
         <v>53</v>
       </c>
@@ -9512,7 +9596,7 @@
       <c r="J140" s="67"/>
       <c r="K140" s="91"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:15">
       <c r="A141" s="202"/>
       <c r="B141" s="202"/>
       <c r="C141" s="202"/>
@@ -9529,7 +9613,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:15">
       <c r="A142" s="202"/>
       <c r="B142" s="202"/>
       <c r="C142" s="202"/>
@@ -9543,7 +9627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:15">
       <c r="A143" s="202"/>
       <c r="B143" s="202"/>
       <c r="C143" s="202"/>
@@ -9560,7 +9644,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:15">
       <c r="A144" s="202"/>
       <c r="B144" s="202"/>
       <c r="C144" s="202"/>
@@ -9831,10 +9915,10 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="204"/>
-      <c r="B159" s="204"/>
-      <c r="C159" s="204"/>
-      <c r="D159" s="204"/>
+      <c r="A159" s="203"/>
+      <c r="B159" s="203"/>
+      <c r="C159" s="203"/>
+      <c r="D159" s="203"/>
       <c r="E159" s="27">
         <v>1</v>
       </c>
@@ -10117,10 +10201,10 @@
       </c>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="204"/>
-      <c r="B173" s="204"/>
-      <c r="C173" s="204"/>
-      <c r="D173" s="204"/>
+      <c r="A173" s="203"/>
+      <c r="B173" s="203"/>
+      <c r="C173" s="203"/>
+      <c r="D173" s="203"/>
       <c r="E173" s="27">
         <v>1</v>
       </c>
@@ -10429,10 +10513,10 @@
       </c>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="204"/>
-      <c r="B189" s="204"/>
-      <c r="C189" s="204"/>
-      <c r="D189" s="204"/>
+      <c r="A189" s="203"/>
+      <c r="B189" s="203"/>
+      <c r="C189" s="203"/>
+      <c r="D189" s="203"/>
       <c r="E189" s="27">
         <v>1</v>
       </c>
@@ -10446,8 +10530,8 @@
       <c r="I189" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="J189" s="204"/>
-      <c r="K189" s="204">
+      <c r="J189" s="203"/>
+      <c r="K189" s="203">
         <v>3000</v>
       </c>
     </row>
@@ -10512,7 +10596,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:14">
       <c r="A193" s="202"/>
       <c r="B193" s="202"/>
       <c r="C193" s="202"/>
@@ -10526,7 +10610,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:14">
       <c r="A194" s="202"/>
       <c r="B194" s="202"/>
       <c r="C194" s="202"/>
@@ -10540,7 +10624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:14">
       <c r="A195" s="202"/>
       <c r="B195" s="202"/>
       <c r="C195" s="202"/>
@@ -10554,7 +10638,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:14">
       <c r="A196" s="202"/>
       <c r="B196" s="202"/>
       <c r="C196" s="202"/>
@@ -10568,7 +10652,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:14">
       <c r="A197" s="202"/>
       <c r="B197" s="202"/>
       <c r="C197" s="202"/>
@@ -10582,7 +10666,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:14">
       <c r="A198" s="202"/>
       <c r="B198" s="202"/>
       <c r="C198" s="202"/>
@@ -10596,7 +10680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:14">
       <c r="A199" s="202"/>
       <c r="B199" s="202"/>
       <c r="C199" s="202"/>
@@ -10615,8 +10699,11 @@
       <c r="M199" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="N199" s="103" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="202"/>
       <c r="B200" s="202"/>
       <c r="C200" s="202"/>
@@ -10630,7 +10717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:14">
       <c r="A201" s="202"/>
       <c r="B201" s="202"/>
       <c r="C201" s="202"/>
@@ -10647,7 +10734,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:14">
       <c r="A202" s="202"/>
       <c r="B202" s="202"/>
       <c r="C202" s="202"/>
@@ -10661,7 +10748,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:14">
       <c r="A203" s="202"/>
       <c r="B203" s="202"/>
       <c r="C203" s="202" t="s">
@@ -10671,7 +10758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:14">
       <c r="A204" s="202"/>
       <c r="B204" s="202"/>
       <c r="C204" s="202"/>
@@ -10679,7 +10766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:14">
       <c r="A205" s="202"/>
       <c r="B205" s="202"/>
       <c r="C205" s="202"/>
@@ -10687,7 +10774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:14">
       <c r="A206" s="202"/>
       <c r="B206" s="202"/>
       <c r="C206" s="202"/>
@@ -10695,7 +10782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:14">
       <c r="A207" s="202"/>
       <c r="B207" s="202"/>
       <c r="C207" s="202"/>
@@ -10703,10 +10790,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
-      <c r="A208" s="204"/>
-      <c r="B208" s="204"/>
-      <c r="C208" s="204"/>
+    <row r="208" spans="1:14">
+      <c r="A208" s="203"/>
+      <c r="B208" s="203"/>
+      <c r="C208" s="203"/>
       <c r="D208" s="27">
         <v>20</v>
       </c>
@@ -11097,10 +11184,10 @@
       </c>
     </row>
     <row r="230" spans="1:13">
-      <c r="A230" s="204"/>
-      <c r="B230" s="204"/>
-      <c r="C230" s="204"/>
-      <c r="D230" s="204"/>
+      <c r="A230" s="203"/>
+      <c r="B230" s="203"/>
+      <c r="C230" s="203"/>
+      <c r="D230" s="203"/>
       <c r="E230" s="27">
         <v>1</v>
       </c>
@@ -11267,9 +11354,9 @@
       <c r="K238" s="202"/>
     </row>
     <row r="239" spans="1:13">
-      <c r="A239" s="204"/>
-      <c r="B239" s="204"/>
-      <c r="C239" s="204"/>
+      <c r="A239" s="203"/>
+      <c r="B239" s="203"/>
+      <c r="C239" s="203"/>
       <c r="D239" s="27">
         <v>10</v>
       </c>
@@ -11519,10 +11606,10 @@
       </c>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="204"/>
-      <c r="B252" s="204"/>
-      <c r="C252" s="204"/>
-      <c r="D252" s="204"/>
+      <c r="A252" s="203"/>
+      <c r="B252" s="203"/>
+      <c r="C252" s="203"/>
+      <c r="D252" s="203"/>
       <c r="E252" s="27">
         <v>1</v>
       </c>
@@ -11614,7 +11701,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:15">
       <c r="A257" s="202"/>
       <c r="B257" s="202"/>
       <c r="C257" s="202"/>
@@ -11631,7 +11718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:15">
       <c r="A258" s="202"/>
       <c r="B258" s="202"/>
       <c r="C258" s="202"/>
@@ -11648,7 +11735,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:15">
       <c r="A259" s="202"/>
       <c r="B259" s="202"/>
       <c r="C259" s="202" t="s">
@@ -11673,7 +11760,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:15">
       <c r="A260" s="202"/>
       <c r="B260" s="202"/>
       <c r="C260" s="202"/>
@@ -11696,7 +11783,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:15">
       <c r="A261" s="202"/>
       <c r="B261" s="202"/>
       <c r="C261" s="202"/>
@@ -11713,7 +11800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:15">
       <c r="A262" s="202"/>
       <c r="B262" s="202"/>
       <c r="C262" s="202"/>
@@ -11732,8 +11819,11 @@
       <c r="K262">
         <v>4000</v>
       </c>
-    </row>
-    <row r="263" spans="1:14">
+      <c r="O262" s="104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" s="202"/>
       <c r="B263" s="202"/>
       <c r="C263" s="202"/>
@@ -11759,10 +11849,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
-      <c r="A264" s="204"/>
-      <c r="B264" s="204"/>
-      <c r="C264" s="204"/>
+    <row r="264" spans="1:15">
+      <c r="A264" s="203"/>
+      <c r="B264" s="203"/>
+      <c r="C264" s="203"/>
       <c r="D264" s="27">
         <v>12</v>
       </c>
@@ -11784,7 +11874,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:15">
       <c r="A265" s="201">
         <v>74</v>
       </c>
@@ -11816,7 +11906,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:15">
       <c r="A266" s="202"/>
       <c r="B266" s="202"/>
       <c r="C266" s="202"/>
@@ -11830,7 +11920,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:15">
       <c r="A267" s="202"/>
       <c r="B267" s="202"/>
       <c r="C267" s="202" t="s">
@@ -11858,7 +11948,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:15">
       <c r="A268" s="202"/>
       <c r="B268" s="202"/>
       <c r="C268" s="202"/>
@@ -11878,7 +11968,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:15">
       <c r="A269" s="202"/>
       <c r="B269" s="202"/>
       <c r="C269" s="202"/>
@@ -11898,7 +11988,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:15">
       <c r="A270" s="202"/>
       <c r="B270" s="202"/>
       <c r="C270" s="202"/>
@@ -11924,7 +12014,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:15">
       <c r="A271" s="202"/>
       <c r="B271" s="202"/>
       <c r="C271" s="202"/>
@@ -11942,7 +12032,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:15">
       <c r="A272" s="202"/>
       <c r="B272" s="202"/>
       <c r="C272" s="202"/>
@@ -11975,10 +12065,10 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="204"/>
-      <c r="B273" s="204"/>
-      <c r="C273" s="204"/>
-      <c r="D273" s="204"/>
+      <c r="A273" s="203"/>
+      <c r="B273" s="203"/>
+      <c r="C273" s="203"/>
+      <c r="D273" s="203"/>
       <c r="E273" s="27">
         <v>1</v>
       </c>
@@ -12155,10 +12245,10 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="204"/>
-      <c r="B282" s="204"/>
-      <c r="C282" s="204"/>
-      <c r="D282" s="204"/>
+      <c r="A282" s="203"/>
+      <c r="B282" s="203"/>
+      <c r="C282" s="203"/>
+      <c r="D282" s="203"/>
       <c r="E282" s="27">
         <v>1</v>
       </c>
@@ -12172,8 +12262,8 @@
         <v>168</v>
       </c>
       <c r="I282" s="57"/>
-      <c r="J282" s="204"/>
-      <c r="K282" s="204"/>
+      <c r="J282" s="203"/>
+      <c r="K282" s="203"/>
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="201">
@@ -12358,10 +12448,10 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="204"/>
-      <c r="B293" s="204"/>
-      <c r="C293" s="204"/>
-      <c r="D293" s="204"/>
+      <c r="A293" s="203"/>
+      <c r="B293" s="203"/>
+      <c r="C293" s="203"/>
+      <c r="D293" s="203"/>
       <c r="E293" s="27">
         <v>1</v>
       </c>
@@ -12612,8 +12702,8 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="204"/>
-      <c r="B307" s="204"/>
+      <c r="A307" s="203"/>
+      <c r="B307" s="203"/>
       <c r="C307" s="27" t="s">
         <v>116</v>
       </c>
@@ -12807,9 +12897,9 @@
       </c>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="204"/>
-      <c r="B317" s="204"/>
-      <c r="C317" s="204"/>
+      <c r="A317" s="203"/>
+      <c r="B317" s="203"/>
+      <c r="C317" s="203"/>
       <c r="D317" s="27">
         <v>9</v>
       </c>
@@ -12891,7 +12981,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:15">
       <c r="A321" s="202"/>
       <c r="B321" s="202"/>
       <c r="C321" s="202"/>
@@ -12908,7 +12998,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:15">
       <c r="A322" s="202"/>
       <c r="B322" s="202"/>
       <c r="C322" s="202"/>
@@ -12922,7 +13012,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:15">
       <c r="A323" s="202"/>
       <c r="B323" s="202"/>
       <c r="C323" s="202"/>
@@ -12939,7 +13029,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:15">
       <c r="A324" s="202"/>
       <c r="B324" s="202"/>
       <c r="C324" s="202"/>
@@ -12956,7 +13046,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:15">
       <c r="A325" s="202"/>
       <c r="B325" s="202"/>
       <c r="C325" s="202" t="s">
@@ -12981,7 +13071,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:15">
       <c r="A326" s="202"/>
       <c r="B326" s="202"/>
       <c r="C326" s="202"/>
@@ -13004,7 +13094,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:15">
       <c r="A327" s="202"/>
       <c r="B327" s="202"/>
       <c r="C327" s="202"/>
@@ -13021,7 +13111,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:15">
       <c r="A328" s="202"/>
       <c r="B328" s="202"/>
       <c r="C328" s="202"/>
@@ -13047,7 +13137,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:15">
       <c r="A329" s="202"/>
       <c r="B329" s="202"/>
       <c r="C329" s="202"/>
@@ -13071,11 +13161,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
-      <c r="A330" s="204"/>
-      <c r="B330" s="204"/>
-      <c r="C330" s="204"/>
-      <c r="D330" s="204"/>
+    <row r="330" spans="1:15">
+      <c r="A330" s="203"/>
+      <c r="B330" s="203"/>
+      <c r="C330" s="203"/>
+      <c r="D330" s="203"/>
       <c r="E330" s="27">
         <v>2</v>
       </c>
@@ -13098,7 +13188,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:15">
       <c r="A331" s="201">
         <v>76</v>
       </c>
@@ -13123,7 +13213,7 @@
       <c r="J331" s="67"/>
       <c r="K331" s="91"/>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:15">
       <c r="A332" s="202"/>
       <c r="B332" s="202"/>
       <c r="C332" s="202"/>
@@ -13140,7 +13230,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:15">
       <c r="A333" s="202"/>
       <c r="B333" s="202"/>
       <c r="C333" s="202"/>
@@ -13154,7 +13244,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:15">
       <c r="A334" s="202"/>
       <c r="B334" s="202"/>
       <c r="C334" s="202"/>
@@ -13171,7 +13261,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:15">
       <c r="A335" s="202"/>
       <c r="B335" s="202"/>
       <c r="C335" s="202"/>
@@ -13185,7 +13275,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:15">
       <c r="A336" s="202"/>
       <c r="B336" s="202"/>
       <c r="C336" s="202"/>
@@ -13206,6 +13296,9 @@
       </c>
       <c r="N336" t="s">
         <v>359</v>
+      </c>
+      <c r="O336" s="104" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -13387,9 +13480,9 @@
       </c>
     </row>
     <row r="346" spans="1:14">
-      <c r="A346" s="204"/>
-      <c r="B346" s="204"/>
-      <c r="C346" s="204"/>
+      <c r="A346" s="203"/>
+      <c r="B346" s="203"/>
+      <c r="C346" s="203"/>
       <c r="D346" s="27">
         <v>12</v>
       </c>
@@ -13492,9 +13585,9 @@
       </c>
     </row>
     <row r="351" spans="1:14">
-      <c r="A351" s="204"/>
-      <c r="B351" s="204"/>
-      <c r="C351" s="204"/>
+      <c r="A351" s="203"/>
+      <c r="B351" s="203"/>
+      <c r="C351" s="203"/>
       <c r="D351" s="27">
         <v>5</v>
       </c>
@@ -13558,8 +13651,8 @@
       </c>
     </row>
     <row r="354" spans="1:17">
-      <c r="A354" s="204"/>
-      <c r="B354" s="204"/>
+      <c r="A354" s="203"/>
+      <c r="B354" s="203"/>
       <c r="C354" s="27" t="s">
         <v>116</v>
       </c>
@@ -13679,9 +13772,9 @@
       </c>
     </row>
     <row r="360" spans="1:17">
-      <c r="A360" s="204"/>
-      <c r="B360" s="204"/>
-      <c r="C360" s="204"/>
+      <c r="A360" s="203"/>
+      <c r="B360" s="203"/>
+      <c r="C360" s="203"/>
       <c r="D360" s="27">
         <v>3</v>
       </c>
@@ -13779,9 +13872,9 @@
       </c>
     </row>
     <row r="364" spans="1:17">
-      <c r="A364" s="204"/>
-      <c r="B364" s="204"/>
-      <c r="C364" s="204"/>
+      <c r="A364" s="203"/>
+      <c r="B364" s="203"/>
+      <c r="C364" s="203"/>
       <c r="D364" s="27">
         <v>1</v>
       </c>
@@ -14249,10 +14342,10 @@
       </c>
     </row>
     <row r="384" spans="1:19">
-      <c r="A384" s="203" t="s">
+      <c r="A384" s="204" t="s">
         <v>446</v>
       </c>
-      <c r="B384" s="203">
+      <c r="B384" s="204">
         <v>5</v>
       </c>
       <c r="C384" s="67" t="s">
@@ -14280,8 +14373,8 @@
       </c>
     </row>
     <row r="385" spans="1:20">
-      <c r="A385" s="191"/>
-      <c r="B385" s="191"/>
+      <c r="A385" s="183"/>
+      <c r="B385" s="183"/>
       <c r="C385" s="67" t="s">
         <v>115</v>
       </c>
@@ -14304,8 +14397,8 @@
       </c>
     </row>
     <row r="386" spans="1:20">
-      <c r="A386" s="191"/>
-      <c r="B386" s="191"/>
+      <c r="A386" s="183"/>
+      <c r="B386" s="183"/>
       <c r="C386" s="67" t="s">
         <v>115</v>
       </c>
@@ -14334,8 +14427,8 @@
       </c>
     </row>
     <row r="387" spans="1:20">
-      <c r="A387" s="191"/>
-      <c r="B387" s="191"/>
+      <c r="A387" s="183"/>
+      <c r="B387" s="183"/>
       <c r="C387" s="67" t="s">
         <v>115</v>
       </c>
@@ -15520,133 +15613,30 @@
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="C355:C357"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="C358:C360"/>
-    <mergeCell ref="A355:A360"/>
-    <mergeCell ref="D362:D363"/>
-    <mergeCell ref="C362:C364"/>
-    <mergeCell ref="A361:A364"/>
-    <mergeCell ref="A331:A346"/>
-    <mergeCell ref="C347:C348"/>
-    <mergeCell ref="C349:C351"/>
-    <mergeCell ref="A347:A351"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="A352:A354"/>
-    <mergeCell ref="C331:C336"/>
-    <mergeCell ref="B331:B346"/>
-    <mergeCell ref="B347:B351"/>
-    <mergeCell ref="B352:B354"/>
-    <mergeCell ref="B355:B360"/>
-    <mergeCell ref="B361:B364"/>
-    <mergeCell ref="J340:J341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="K340:K341"/>
-    <mergeCell ref="K342:K343"/>
-    <mergeCell ref="J342:J343"/>
-    <mergeCell ref="D342:D343"/>
-    <mergeCell ref="C337:C346"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="A308:A317"/>
-    <mergeCell ref="C318:C324"/>
-    <mergeCell ref="D328:D330"/>
-    <mergeCell ref="C325:C330"/>
-    <mergeCell ref="A318:A330"/>
-    <mergeCell ref="A274:A282"/>
-    <mergeCell ref="C283:C290"/>
-    <mergeCell ref="D292:D293"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="A283:A293"/>
-    <mergeCell ref="C294:C306"/>
-    <mergeCell ref="A294:A307"/>
-    <mergeCell ref="C274:C278"/>
-    <mergeCell ref="B274:B282"/>
-    <mergeCell ref="B283:B293"/>
-    <mergeCell ref="B294:B307"/>
-    <mergeCell ref="B308:B317"/>
-    <mergeCell ref="B318:B330"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="J281:J282"/>
-    <mergeCell ref="K281:K282"/>
-    <mergeCell ref="C279:C282"/>
-    <mergeCell ref="C259:C264"/>
-    <mergeCell ref="A253:A264"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D270:D271"/>
-    <mergeCell ref="C267:C273"/>
-    <mergeCell ref="A265:A273"/>
-    <mergeCell ref="B253:B264"/>
-    <mergeCell ref="B265:B273"/>
-    <mergeCell ref="C240:C246"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C247:C252"/>
-    <mergeCell ref="A240:A252"/>
-    <mergeCell ref="C253:C258"/>
-    <mergeCell ref="C231:C236"/>
-    <mergeCell ref="D237:D238"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="B231:B239"/>
-    <mergeCell ref="B240:B252"/>
-    <mergeCell ref="K237:K238"/>
-    <mergeCell ref="C237:C239"/>
-    <mergeCell ref="A231:A239"/>
-    <mergeCell ref="C203:C208"/>
-    <mergeCell ref="A190:A208"/>
-    <mergeCell ref="C209:C226"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="A209:A230"/>
-    <mergeCell ref="B190:B208"/>
-    <mergeCell ref="B209:B230"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="J188:J189"/>
-    <mergeCell ref="K188:K189"/>
-    <mergeCell ref="C182:C189"/>
-    <mergeCell ref="A174:A189"/>
-    <mergeCell ref="C190:C202"/>
-    <mergeCell ref="C174:C181"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="J186:J187"/>
-    <mergeCell ref="K186:K187"/>
-    <mergeCell ref="B174:B189"/>
-    <mergeCell ref="B140:B159"/>
-    <mergeCell ref="J167:J169"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="C167:C173"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="C147:C159"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="C103:C113"/>
-    <mergeCell ref="A103:A114"/>
-    <mergeCell ref="C115:C126"/>
-    <mergeCell ref="B91:B102"/>
-    <mergeCell ref="B103:B114"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="A91:A102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="C129:C137"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="A368:A371"/>
+    <mergeCell ref="B368:B371"/>
+    <mergeCell ref="A384:A388"/>
+    <mergeCell ref="B384:B388"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="C40:C54"/>
+    <mergeCell ref="B40:B57"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="A140:A159"/>
+    <mergeCell ref="C160:C166"/>
+    <mergeCell ref="A160:A173"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="B160:B173"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C16:C18"/>
@@ -15671,30 +15661,133 @@
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="B58:B72"/>
-    <mergeCell ref="A368:A371"/>
-    <mergeCell ref="B368:B371"/>
-    <mergeCell ref="A384:A388"/>
-    <mergeCell ref="B384:B388"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="C40:C54"/>
-    <mergeCell ref="B40:B57"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="A140:A159"/>
-    <mergeCell ref="C160:C166"/>
-    <mergeCell ref="A160:A173"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="B160:B173"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="C103:C113"/>
+    <mergeCell ref="A103:A114"/>
+    <mergeCell ref="C115:C126"/>
+    <mergeCell ref="B91:B102"/>
+    <mergeCell ref="B103:B114"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A91:A102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="C129:C137"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="B140:B159"/>
+    <mergeCell ref="J167:J169"/>
+    <mergeCell ref="K167:K169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="C167:C173"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="C147:C159"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="J188:J189"/>
+    <mergeCell ref="K188:K189"/>
+    <mergeCell ref="C182:C189"/>
+    <mergeCell ref="A174:A189"/>
+    <mergeCell ref="C190:C202"/>
+    <mergeCell ref="C174:C181"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="J186:J187"/>
+    <mergeCell ref="K186:K187"/>
+    <mergeCell ref="B174:B189"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="C237:C239"/>
+    <mergeCell ref="A231:A239"/>
+    <mergeCell ref="C203:C208"/>
+    <mergeCell ref="A190:A208"/>
+    <mergeCell ref="C209:C226"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="A209:A230"/>
+    <mergeCell ref="B190:B208"/>
+    <mergeCell ref="B209:B230"/>
+    <mergeCell ref="C240:C246"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C247:C252"/>
+    <mergeCell ref="A240:A252"/>
+    <mergeCell ref="C253:C258"/>
+    <mergeCell ref="C231:C236"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="B231:B239"/>
+    <mergeCell ref="B240:B252"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="J281:J282"/>
+    <mergeCell ref="K281:K282"/>
+    <mergeCell ref="C279:C282"/>
+    <mergeCell ref="C259:C264"/>
+    <mergeCell ref="A253:A264"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D270:D271"/>
+    <mergeCell ref="C267:C273"/>
+    <mergeCell ref="A265:A273"/>
+    <mergeCell ref="B253:B264"/>
+    <mergeCell ref="B265:B273"/>
+    <mergeCell ref="A308:A317"/>
+    <mergeCell ref="C318:C324"/>
+    <mergeCell ref="D328:D330"/>
+    <mergeCell ref="C325:C330"/>
+    <mergeCell ref="A318:A330"/>
+    <mergeCell ref="A274:A282"/>
+    <mergeCell ref="C283:C290"/>
+    <mergeCell ref="D292:D293"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="A283:A293"/>
+    <mergeCell ref="C294:C306"/>
+    <mergeCell ref="A294:A307"/>
+    <mergeCell ref="C274:C278"/>
+    <mergeCell ref="B274:B282"/>
+    <mergeCell ref="B283:B293"/>
+    <mergeCell ref="B294:B307"/>
+    <mergeCell ref="B308:B317"/>
+    <mergeCell ref="B318:B330"/>
+    <mergeCell ref="J340:J341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="K340:K341"/>
+    <mergeCell ref="K342:K343"/>
+    <mergeCell ref="J342:J343"/>
+    <mergeCell ref="D342:D343"/>
+    <mergeCell ref="C337:C346"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="C355:C357"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="C358:C360"/>
+    <mergeCell ref="A355:A360"/>
+    <mergeCell ref="D362:D363"/>
+    <mergeCell ref="C362:C364"/>
+    <mergeCell ref="A361:A364"/>
+    <mergeCell ref="A331:A346"/>
+    <mergeCell ref="C347:C348"/>
+    <mergeCell ref="C349:C351"/>
+    <mergeCell ref="A347:A351"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="A352:A354"/>
+    <mergeCell ref="C331:C336"/>
+    <mergeCell ref="B331:B346"/>
+    <mergeCell ref="B347:B351"/>
+    <mergeCell ref="B352:B354"/>
+    <mergeCell ref="B355:B360"/>
+    <mergeCell ref="B361:B364"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19516,8 +19609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF4EAB-54B9-3640-9096-1767C2CEEE17}">
   <dimension ref="A1:S319"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="J279" sqref="J279"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="O184" sqref="O184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19628,8 +19721,8 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="204"/>
-      <c r="B4" s="204"/>
+      <c r="A4" s="203"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="2" t="s">
         <v>116</v>
       </c>
@@ -19982,8 +20075,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="204"/>
-      <c r="B17" s="204"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="27" t="s">
         <v>116</v>
       </c>
@@ -20128,8 +20221,8 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="204"/>
-      <c r="B22" s="204"/>
+      <c r="A22" s="203"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="2" t="s">
         <v>116</v>
       </c>
@@ -20268,8 +20361,8 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="204"/>
-      <c r="B27" s="204"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="203"/>
       <c r="C27" s="67" t="s">
         <v>115</v>
       </c>
@@ -20885,8 +20978,8 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="204"/>
-      <c r="B50" s="204"/>
+      <c r="A50" s="203"/>
+      <c r="B50" s="203"/>
       <c r="C50" s="67" t="s">
         <v>115</v>
       </c>
@@ -21072,8 +21165,8 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="204"/>
-      <c r="B57" s="204"/>
+      <c r="A57" s="203"/>
+      <c r="B57" s="203"/>
       <c r="C57" s="2" t="s">
         <v>116</v>
       </c>
@@ -21298,8 +21391,8 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="204"/>
-      <c r="B65" s="204"/>
+      <c r="A65" s="203"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="2" t="s">
         <v>116</v>
       </c>
@@ -21527,8 +21620,8 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="204"/>
-      <c r="B73" s="204"/>
+      <c r="A73" s="203"/>
+      <c r="B73" s="203"/>
       <c r="C73" s="27" t="s">
         <v>116</v>
       </c>
@@ -21823,8 +21916,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="204"/>
-      <c r="B84" s="204"/>
+      <c r="A84" s="203"/>
+      <c r="B84" s="203"/>
       <c r="C84" s="27" t="s">
         <v>116</v>
       </c>
@@ -22095,8 +22188,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="204"/>
-      <c r="B94" s="204"/>
+      <c r="A94" s="203"/>
+      <c r="B94" s="203"/>
       <c r="C94" s="2" t="s">
         <v>116</v>
       </c>
@@ -22398,8 +22491,8 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="204"/>
-      <c r="B105" s="204"/>
+      <c r="A105" s="203"/>
+      <c r="B105" s="203"/>
       <c r="C105" s="2" t="s">
         <v>116</v>
       </c>
@@ -22877,8 +22970,8 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="204"/>
-      <c r="B122" s="204"/>
+      <c r="A122" s="203"/>
+      <c r="B122" s="203"/>
       <c r="C122" s="27" t="s">
         <v>116</v>
       </c>
@@ -23195,8 +23288,8 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="204"/>
-      <c r="B133" s="204"/>
+      <c r="A133" s="203"/>
+      <c r="B133" s="203"/>
       <c r="C133" s="2" t="s">
         <v>116</v>
       </c>
@@ -23524,8 +23617,8 @@
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="204"/>
-      <c r="B145" s="204"/>
+      <c r="A145" s="203"/>
+      <c r="B145" s="203"/>
       <c r="C145" s="2" t="s">
         <v>116</v>
       </c>
@@ -24122,8 +24215,8 @@
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="204"/>
-      <c r="B167" s="204"/>
+      <c r="A167" s="203"/>
+      <c r="B167" s="203"/>
       <c r="C167" s="2" t="s">
         <v>116</v>
       </c>
@@ -24363,8 +24456,8 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="204"/>
-      <c r="B176" s="204"/>
+      <c r="A176" s="203"/>
+      <c r="B176" s="203"/>
       <c r="C176" s="27" t="s">
         <v>116</v>
       </c>
@@ -24392,7 +24485,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:15">
       <c r="A177" s="202">
         <v>73</v>
       </c>
@@ -24424,7 +24517,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:15">
       <c r="A178" s="202"/>
       <c r="B178" s="202"/>
       <c r="C178" s="67" t="s">
@@ -24451,8 +24544,11 @@
       <c r="L178" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="O178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="202"/>
       <c r="B179" s="202"/>
       <c r="C179" s="67" t="s">
@@ -24480,7 +24576,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:15">
       <c r="A180" s="202"/>
       <c r="B180" s="202"/>
       <c r="C180" s="67" t="s">
@@ -24508,7 +24604,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:15">
       <c r="A181" s="202"/>
       <c r="B181" s="202"/>
       <c r="C181" s="2" t="s">
@@ -24538,7 +24634,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:15">
       <c r="A182" s="202"/>
       <c r="B182" s="202"/>
       <c r="C182" s="2" t="s">
@@ -24570,7 +24666,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:15">
       <c r="A183" s="202"/>
       <c r="B183" s="202"/>
       <c r="C183" s="2" t="s">
@@ -24600,7 +24696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:15">
       <c r="A184" s="202"/>
       <c r="B184" s="202"/>
       <c r="C184" s="2" t="s">
@@ -24632,9 +24728,9 @@
         <v>430</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
-      <c r="A185" s="204"/>
-      <c r="B185" s="204"/>
+    <row r="185" spans="1:15">
+      <c r="A185" s="203"/>
+      <c r="B185" s="203"/>
       <c r="C185" s="2" t="s">
         <v>116</v>
       </c>
@@ -24664,7 +24760,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:15">
       <c r="A186" s="201">
         <v>74</v>
       </c>
@@ -24695,7 +24791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:15">
       <c r="A187" s="202"/>
       <c r="B187" s="202"/>
       <c r="C187" s="67" t="s">
@@ -24720,7 +24816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:15">
       <c r="A188" s="202"/>
       <c r="B188" s="202"/>
       <c r="C188" s="2" t="s">
@@ -24750,7 +24846,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:15">
       <c r="A189" s="202"/>
       <c r="B189" s="202"/>
       <c r="C189" s="2" t="s">
@@ -24780,7 +24876,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:15">
       <c r="A190" s="202"/>
       <c r="B190" s="202"/>
       <c r="C190" s="2" t="s">
@@ -24807,7 +24903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:15">
       <c r="A191" s="202"/>
       <c r="B191" s="202"/>
       <c r="C191" s="2" t="s">
@@ -24834,7 +24930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:15">
       <c r="A192" s="202"/>
       <c r="B192" s="202"/>
       <c r="C192" s="2" t="s">
@@ -25032,8 +25128,8 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="204"/>
-      <c r="B199" s="204"/>
+      <c r="A199" s="203"/>
+      <c r="B199" s="203"/>
       <c r="C199" s="2" t="s">
         <v>116</v>
       </c>
@@ -25685,8 +25781,8 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="204"/>
-      <c r="B223" s="204"/>
+      <c r="A223" s="203"/>
+      <c r="B223" s="203"/>
       <c r="C223" s="27" t="s">
         <v>116</v>
       </c>
@@ -26286,8 +26382,8 @@
       </c>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="204"/>
-      <c r="B244" s="204"/>
+      <c r="A244" s="203"/>
+      <c r="B244" s="203"/>
       <c r="C244" s="27" t="s">
         <v>116</v>
       </c>
@@ -26428,8 +26524,8 @@
       </c>
     </row>
     <row r="249" spans="1:12">
-      <c r="A249" s="204"/>
-      <c r="B249" s="204"/>
+      <c r="A249" s="203"/>
+      <c r="B249" s="203"/>
       <c r="C249" s="2" t="s">
         <v>116</v>
       </c>
@@ -26550,8 +26646,8 @@
       </c>
     </row>
     <row r="253" spans="1:12">
-      <c r="A253" s="204"/>
-      <c r="B253" s="204"/>
+      <c r="A253" s="203"/>
+      <c r="B253" s="203"/>
       <c r="C253" s="2" t="s">
         <v>116</v>
       </c>
@@ -26994,10 +27090,10 @@
       </c>
     </row>
     <row r="273" spans="1:19">
-      <c r="A273" s="203" t="s">
+      <c r="A273" s="204" t="s">
         <v>446</v>
       </c>
-      <c r="B273" s="203">
+      <c r="B273" s="204">
         <v>5</v>
       </c>
       <c r="C273" s="67" t="s">
@@ -27025,8 +27121,8 @@
       </c>
     </row>
     <row r="274" spans="1:19">
-      <c r="A274" s="191"/>
-      <c r="B274" s="191"/>
+      <c r="A274" s="183"/>
+      <c r="B274" s="183"/>
       <c r="C274" s="67" t="s">
         <v>115</v>
       </c>
@@ -27048,8 +27144,8 @@
       </c>
     </row>
     <row r="275" spans="1:19">
-      <c r="A275" s="191"/>
-      <c r="B275" s="191"/>
+      <c r="A275" s="183"/>
+      <c r="B275" s="183"/>
       <c r="C275" s="67" t="s">
         <v>115</v>
       </c>
@@ -27077,8 +27173,8 @@
       </c>
     </row>
     <row r="276" spans="1:19">
-      <c r="A276" s="191"/>
-      <c r="B276" s="191"/>
+      <c r="A276" s="183"/>
+      <c r="B276" s="183"/>
       <c r="C276" s="67" t="s">
         <v>115</v>
       </c>
@@ -28182,66 +28278,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="A74:A84"/>
-    <mergeCell ref="B74:B84"/>
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="B85:B94"/>
-    <mergeCell ref="A95:A105"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="A134:A145"/>
-    <mergeCell ref="B134:B145"/>
-    <mergeCell ref="A146:A160"/>
-    <mergeCell ref="B146:B160"/>
-    <mergeCell ref="A161:A167"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="B168:B176"/>
-    <mergeCell ref="A177:A185"/>
-    <mergeCell ref="B177:B185"/>
-    <mergeCell ref="A186:A192"/>
-    <mergeCell ref="B186:B192"/>
-    <mergeCell ref="A193:A199"/>
-    <mergeCell ref="B193:B199"/>
-    <mergeCell ref="A200:A206"/>
-    <mergeCell ref="B200:B206"/>
-    <mergeCell ref="A207:A215"/>
-    <mergeCell ref="B207:B215"/>
-    <mergeCell ref="A216:A223"/>
-    <mergeCell ref="B216:B223"/>
-    <mergeCell ref="A224:A230"/>
-    <mergeCell ref="B224:B230"/>
-    <mergeCell ref="A231:A237"/>
-    <mergeCell ref="B231:B237"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B242:B244"/>
     <mergeCell ref="A273:A277"/>
     <mergeCell ref="B273:B277"/>
     <mergeCell ref="A245:A249"/>
@@ -28250,6 +28286,66 @@
     <mergeCell ref="B250:B253"/>
     <mergeCell ref="A257:A260"/>
     <mergeCell ref="B257:B260"/>
+    <mergeCell ref="A231:A237"/>
+    <mergeCell ref="B231:B237"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="A207:A215"/>
+    <mergeCell ref="B207:B215"/>
+    <mergeCell ref="A216:A223"/>
+    <mergeCell ref="B216:B223"/>
+    <mergeCell ref="A224:A230"/>
+    <mergeCell ref="B224:B230"/>
+    <mergeCell ref="A186:A192"/>
+    <mergeCell ref="B186:B192"/>
+    <mergeCell ref="A193:A199"/>
+    <mergeCell ref="B193:B199"/>
+    <mergeCell ref="A200:A206"/>
+    <mergeCell ref="B200:B206"/>
+    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="B168:B176"/>
+    <mergeCell ref="A177:A185"/>
+    <mergeCell ref="B177:B185"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="B134:B145"/>
+    <mergeCell ref="A146:A160"/>
+    <mergeCell ref="B146:B160"/>
+    <mergeCell ref="A95:A105"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="A74:A84"/>
+    <mergeCell ref="B74:B84"/>
+    <mergeCell ref="A85:A94"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
